--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4927,7 +4927,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L116" t="str">
-        <v>DEĞERLENDİRMEDE</v>
+        <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M116" t="str" xml:space="preserve">
         <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d__x000d_

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -826,7 +826,7 @@
         <v/>
       </c>
       <c r="L11" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="12">
@@ -864,7 +864,7 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="13">
@@ -902,7 +902,7 @@
         <v/>
       </c>
       <c r="L13" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="14">
@@ -940,7 +940,7 @@
         <v/>
       </c>
       <c r="L14" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v/>
       </c>
       <c r="L15" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="16">
@@ -1016,7 +1016,7 @@
         <v/>
       </c>
       <c r="L16" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="17">
@@ -1054,7 +1054,7 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="18">
@@ -1092,7 +1092,7 @@
         <v/>
       </c>
       <c r="L18" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="19">
@@ -1130,7 +1130,7 @@
         <v/>
       </c>
       <c r="L19" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="20">
@@ -1168,7 +1168,7 @@
         <v/>
       </c>
       <c r="L20" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="21">
@@ -1206,7 +1206,7 @@
         <v/>
       </c>
       <c r="L21" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="22">
@@ -1244,7 +1244,7 @@
         <v/>
       </c>
       <c r="L22" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="23">
@@ -1282,7 +1282,7 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="24">
@@ -1320,7 +1320,7 @@
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="25">
@@ -1358,7 +1358,7 @@
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="26">
@@ -1396,7 +1396,7 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="27">
@@ -1434,7 +1434,7 @@
         <v/>
       </c>
       <c r="L27" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="28">
@@ -1472,7 +1472,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1510,7 @@
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="30">
@@ -1548,7 +1548,7 @@
         <v/>
       </c>
       <c r="L30" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="31">
@@ -1586,7 +1586,7 @@
         <v/>
       </c>
       <c r="L31" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="32">
@@ -1624,7 +1624,7 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>HERHANGİ BİRŞEY YAPILMADI</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="33">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -2612,7 +2612,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L58" t="str">
-        <v>DEĞERLENDİRMEDE</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
     </row>
     <row r="59">
@@ -2726,7 +2726,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L61" t="str">
-        <v>DEĞERLENDİRMEDE</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
     </row>
     <row r="62">
@@ -2802,7 +2802,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L63" t="str">
-        <v>DEĞERLENDİRMEDE</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
     </row>
     <row r="64">
@@ -3989,7 +3989,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L94" t="str">
-        <v>DEĞERLENDİRMEDE</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
     </row>
     <row r="95">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4221,7 +4221,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L100" t="str">
-        <v>KROKİ/TUTANAK KONTROLÜ</v>
+        <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M100" t="str" xml:space="preserve">
         <v xml:space="preserve">15.10.2025 Projesine başlanılacak(Ormancı kontrolünde)_x000d__x000d_

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -2726,7 +2726,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L61" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="62">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056CBA9-4BF5-4F7E-A38D-36535A8D55B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB94890-04A6-4420-A95A-1D85C1A4250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="İş Takip Listesi" sheetId="1" r:id="rId1"/>
     <sheet name="Güncelleme" sheetId="2" r:id="rId2"/>
-    <sheet name="Güncelleme(2026)" sheetId="3" r:id="rId3"/>
-    <sheet name="Personel" sheetId="4" r:id="rId4"/>
-    <sheet name="İlçe" sheetId="5" r:id="rId5"/>
-    <sheet name="Uygulama" sheetId="6" r:id="rId6"/>
-    <sheet name="Liste" sheetId="7" r:id="rId7"/>
+    <sheet name="Personel" sheetId="4" r:id="rId3"/>
+    <sheet name="İlçe" sheetId="5" r:id="rId4"/>
+    <sheet name="Uygulama" sheetId="6" r:id="rId5"/>
+    <sheet name="Liste" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5555" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="804">
   <si>
     <t>Tamamlandı</t>
   </si>
@@ -2582,6 +2581,15 @@
   </si>
   <si>
     <t>TESCİL AŞAMASINDA</t>
+  </si>
+  <si>
+    <t>Doğusandal</t>
+  </si>
+  <si>
+    <t>Elvanlı</t>
+  </si>
+  <si>
+    <t>Kargıpınarı(Çarkçılı)</t>
   </si>
 </sst>
 </file>
@@ -2617,7 +2625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2625,6 +2633,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2965,20 +2976,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="N123" sqref="N123"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="Q180" sqref="Q180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +2999,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -3019,7 +3030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3029,7 +3040,7 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
@@ -3057,7 +3068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3067,7 +3078,7 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
@@ -3095,7 +3106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +3116,7 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
@@ -3133,7 +3144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3143,7 +3154,7 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -3171,7 +3182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3181,7 +3192,7 @@
       <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
@@ -3209,7 +3220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3219,7 +3230,7 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
@@ -3247,7 +3258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3257,7 +3268,7 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
@@ -3285,7 +3296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3295,7 +3306,7 @@
       <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
@@ -3323,7 +3334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3333,7 +3344,7 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
@@ -3361,7 +3372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3371,7 +3382,7 @@
       <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
@@ -3399,7 +3410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3409,7 +3420,7 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
@@ -3437,7 +3448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +3458,7 @@
       <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
@@ -3475,7 +3486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3485,7 +3496,7 @@
       <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
@@ -3513,7 +3524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3523,7 +3534,7 @@
       <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
@@ -3551,7 +3562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3561,7 +3572,7 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
@@ -3589,7 +3600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3599,7 +3610,7 @@
       <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
@@ -3627,7 +3638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3637,7 +3648,7 @@
       <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
@@ -3665,7 +3676,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3675,7 +3686,7 @@
       <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
@@ -3703,7 +3714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3713,7 +3724,7 @@
       <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
@@ -3741,7 +3752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3751,7 +3762,7 @@
       <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="s">
@@ -3779,7 +3790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3789,7 +3800,7 @@
       <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
@@ -3817,7 +3828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3827,7 +3838,7 @@
       <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
@@ -3855,7 +3866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3865,7 +3876,7 @@
       <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
@@ -3893,7 +3904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3903,7 +3914,7 @@
       <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
@@ -3931,7 +3942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +3952,7 @@
       <c r="C26" t="s">
         <v>96</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E26" t="s">
@@ -3969,7 +3980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3979,7 +3990,7 @@
       <c r="C27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
@@ -4007,7 +4018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4017,7 +4028,7 @@
       <c r="C28" t="s">
         <v>104</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
@@ -4045,7 +4056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4055,7 +4066,7 @@
       <c r="C29" t="s">
         <v>106</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
@@ -4083,7 +4094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -4093,7 +4104,7 @@
       <c r="C30" t="s">
         <v>109</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
@@ -4121,7 +4132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -4131,7 +4142,7 @@
       <c r="C31" t="s">
         <v>113</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
@@ -4159,7 +4170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -4169,7 +4180,7 @@
       <c r="C32" t="s">
         <v>115</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
@@ -4197,7 +4208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -4207,7 +4218,7 @@
       <c r="C33" t="s">
         <v>119</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E33" t="s">
@@ -4235,7 +4246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -4245,7 +4256,7 @@
       <c r="C34" t="s">
         <v>125</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
@@ -4273,7 +4284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -4283,7 +4294,7 @@
       <c r="C35" t="s">
         <v>128</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
@@ -4311,7 +4322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -4321,7 +4332,7 @@
       <c r="C36" t="s">
         <v>131</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
@@ -4349,7 +4360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -4359,7 +4370,7 @@
       <c r="C37" t="s">
         <v>133</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
@@ -4387,7 +4398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -4397,7 +4408,7 @@
       <c r="C38" t="s">
         <v>134</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
@@ -4425,7 +4436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -4435,7 +4446,7 @@
       <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
@@ -4463,7 +4474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -4473,7 +4484,7 @@
       <c r="C40" t="s">
         <v>138</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E40" t="s">
@@ -4501,7 +4512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4511,7 +4522,7 @@
       <c r="C41" t="s">
         <v>142</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
@@ -4539,7 +4550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4549,7 +4560,7 @@
       <c r="C42" t="s">
         <v>145</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E42" t="s">
@@ -4577,7 +4588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4587,7 +4598,7 @@
       <c r="C43" t="s">
         <v>148</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
@@ -4615,7 +4626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -4625,7 +4636,7 @@
       <c r="C44" t="s">
         <v>149</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
@@ -4653,7 +4664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -4663,7 +4674,7 @@
       <c r="C45" t="s">
         <v>150</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E45" t="s">
@@ -4691,7 +4702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4701,7 +4712,7 @@
       <c r="C46" t="s">
         <v>153</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E46" t="s">
@@ -4729,7 +4740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -4739,7 +4750,7 @@
       <c r="C47" t="s">
         <v>156</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
@@ -4767,7 +4778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -4777,7 +4788,7 @@
       <c r="C48" t="s">
         <v>158</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
@@ -4805,7 +4816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4815,7 +4826,7 @@
       <c r="C49" t="s">
         <v>161</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
@@ -4843,7 +4854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -4853,7 +4864,7 @@
       <c r="C50" t="s">
         <v>163</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
@@ -4881,7 +4892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4891,7 +4902,7 @@
       <c r="C51" t="s">
         <v>164</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
@@ -4919,7 +4930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4929,7 +4940,7 @@
       <c r="C52" t="s">
         <v>165</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
@@ -4957,7 +4968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4967,7 +4978,7 @@
       <c r="C53" t="s">
         <v>166</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
@@ -4995,7 +5006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -5005,7 +5016,7 @@
       <c r="C54" t="s">
         <v>169</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
@@ -5033,7 +5044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -5043,7 +5054,7 @@
       <c r="C55" t="s">
         <v>171</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E55" t="s">
@@ -5071,7 +5082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -5081,7 +5092,7 @@
       <c r="C56" t="s">
         <v>172</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
@@ -5109,7 +5120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -5119,7 +5130,7 @@
       <c r="C57" t="s">
         <v>173</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E57" t="s">
@@ -5147,7 +5158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -5157,7 +5168,7 @@
       <c r="C58" t="s">
         <v>175</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E58" t="s">
@@ -5185,7 +5196,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -5195,7 +5206,7 @@
       <c r="C59" t="s">
         <v>179</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
@@ -5223,7 +5234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -5233,7 +5244,7 @@
       <c r="C60" t="s">
         <v>181</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E60" t="s">
@@ -5261,7 +5272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -5271,7 +5282,7 @@
       <c r="C61" t="s">
         <v>182</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E61" t="s">
@@ -5299,7 +5310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -5309,7 +5320,7 @@
       <c r="C62" t="s">
         <v>184</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E62" t="s">
@@ -5337,7 +5348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -5347,7 +5358,7 @@
       <c r="C63" t="s">
         <v>186</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E63" t="s">
@@ -5375,7 +5386,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -5385,7 +5396,7 @@
       <c r="C64" t="s">
         <v>190</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E64" t="s">
@@ -5413,7 +5424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -5423,7 +5434,7 @@
       <c r="C65" t="s">
         <v>193</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E65" t="s">
@@ -5451,7 +5462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5461,7 +5472,7 @@
       <c r="C66" t="s">
         <v>195</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E66" t="s">
@@ -5489,7 +5500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -5499,7 +5510,7 @@
       <c r="C67" t="s">
         <v>197</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E67" t="s">
@@ -5527,7 +5538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -5537,7 +5548,7 @@
       <c r="C68" t="s">
         <v>200</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E68" t="s">
@@ -5565,7 +5576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -5575,7 +5586,7 @@
       <c r="C69" t="s">
         <v>203</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
@@ -5606,7 +5617,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -5616,7 +5627,7 @@
       <c r="C70" t="s">
         <v>207</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E70" t="s">
@@ -5647,7 +5658,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -5657,7 +5668,7 @@
       <c r="C71" t="s">
         <v>211</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E71" t="s">
@@ -5685,7 +5696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5695,7 +5706,7 @@
       <c r="C72" t="s">
         <v>213</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E72" t="s">
@@ -5723,7 +5734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5733,7 +5744,7 @@
       <c r="C73" t="s">
         <v>215</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E73" t="s">
@@ -5761,7 +5772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5771,7 +5782,7 @@
       <c r="C74" t="s">
         <v>217</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E74" t="s">
@@ -5799,7 +5810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5809,7 +5820,7 @@
       <c r="C75" t="s">
         <v>220</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E75" t="s">
@@ -5837,7 +5848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5847,7 +5858,7 @@
       <c r="C76" t="s">
         <v>221</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
@@ -5875,7 +5886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5885,7 +5896,7 @@
       <c r="C77" t="s">
         <v>222</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E77" t="s">
@@ -5913,7 +5924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5923,7 +5934,7 @@
       <c r="C78" t="s">
         <v>224</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E78" t="s">
@@ -5951,7 +5962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5961,7 +5972,7 @@
       <c r="C79" t="s">
         <v>226</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E79" t="s">
@@ -5989,7 +6000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5999,7 +6010,7 @@
       <c r="C80" t="s">
         <v>228</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E80" t="s">
@@ -6027,7 +6038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -6037,7 +6048,7 @@
       <c r="C81" t="s">
         <v>230</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E81" t="s">
@@ -6068,7 +6079,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -6078,7 +6089,7 @@
       <c r="C82" t="s">
         <v>233</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E82" t="s">
@@ -6106,7 +6117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -6116,7 +6127,7 @@
       <c r="C83" t="s">
         <v>235</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E83" t="s">
@@ -6144,7 +6155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -6154,7 +6165,7 @@
       <c r="C84" t="s">
         <v>238</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E84" t="s">
@@ -6182,7 +6193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -6192,7 +6203,7 @@
       <c r="C85" t="s">
         <v>239</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E85" t="s">
@@ -6220,7 +6231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -6230,7 +6241,7 @@
       <c r="C86" t="s">
         <v>242</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
@@ -6258,7 +6269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -6268,7 +6279,7 @@
       <c r="C87" t="s">
         <v>244</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E87" t="s">
@@ -6296,7 +6307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -6306,7 +6317,7 @@
       <c r="C88" t="s">
         <v>246</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E88" t="s">
@@ -6334,7 +6345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -6344,7 +6355,7 @@
       <c r="C89" t="s">
         <v>248</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E89" t="s">
@@ -6372,7 +6383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -6382,7 +6393,7 @@
       <c r="C90" t="s">
         <v>251</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E90" t="s">
@@ -6410,7 +6421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -6420,7 +6431,7 @@
       <c r="C91" t="s">
         <v>252</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E91" t="s">
@@ -6448,7 +6459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6458,7 +6469,7 @@
       <c r="C92" t="s">
         <v>253</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E92" t="s">
@@ -6486,7 +6497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -6496,7 +6507,7 @@
       <c r="C93" t="s">
         <v>254</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E93" t="s">
@@ -6524,7 +6535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -6534,7 +6545,7 @@
       <c r="C94" t="s">
         <v>256</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E94" t="s">
@@ -6562,7 +6573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -6572,7 +6583,7 @@
       <c r="C95" t="s">
         <v>258</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E95" t="s">
@@ -6600,7 +6611,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>202</v>
       </c>
@@ -6610,7 +6621,7 @@
       <c r="C96" t="s">
         <v>266</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E96" t="s">
@@ -6638,7 +6649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>202</v>
       </c>
@@ -6648,7 +6659,7 @@
       <c r="C97" t="s">
         <v>270</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E97" t="s">
@@ -6676,7 +6687,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -6686,7 +6697,7 @@
       <c r="C98" t="s">
         <v>274</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E98" t="s">
@@ -6717,7 +6728,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -6727,7 +6738,7 @@
       <c r="C99" t="s">
         <v>280</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E99" t="s">
@@ -6755,7 +6766,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6765,7 +6776,7 @@
       <c r="C100" t="s">
         <v>284</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E100" t="s">
@@ -6796,7 +6807,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>202</v>
       </c>
@@ -6806,7 +6817,7 @@
       <c r="C101" t="s">
         <v>289</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E101" t="s">
@@ -6837,7 +6848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -6847,7 +6858,7 @@
       <c r="C102" t="s">
         <v>292</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E102" t="s">
@@ -6878,7 +6889,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -6888,7 +6899,7 @@
       <c r="C103" t="s">
         <v>297</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E103" t="s">
@@ -6916,7 +6927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -6926,7 +6937,7 @@
       <c r="C104" t="s">
         <v>300</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E104" t="s">
@@ -6954,7 +6965,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -6964,7 +6975,7 @@
       <c r="C105" t="s">
         <v>304</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E105" t="s">
@@ -6995,7 +7006,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -7005,7 +7016,7 @@
       <c r="C106" t="s">
         <v>309</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E106" t="s">
@@ -7036,7 +7047,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -7046,7 +7057,7 @@
       <c r="C107" t="s">
         <v>314</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E107" t="s">
@@ -7077,7 +7088,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>202</v>
       </c>
@@ -7087,7 +7098,7 @@
       <c r="C108" t="s">
         <v>319</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E108" t="s">
@@ -7118,7 +7129,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>202</v>
       </c>
@@ -7128,7 +7139,7 @@
       <c r="C109" t="s">
         <v>323</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E109" t="s">
@@ -7156,7 +7167,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -7166,7 +7177,7 @@
       <c r="C110" t="s">
         <v>324</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E110" t="s">
@@ -7197,7 +7208,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -7207,7 +7218,7 @@
       <c r="C111" t="s">
         <v>329</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E111" t="s">
@@ -7238,7 +7249,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -7248,7 +7259,7 @@
       <c r="C112" t="s">
         <v>334</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E112" t="s">
@@ -7279,7 +7290,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -7289,7 +7300,7 @@
       <c r="C113" t="s">
         <v>337</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E113" t="s">
@@ -7320,7 +7331,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -7330,7 +7341,7 @@
       <c r="C114" t="s">
         <v>342</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E114" t="s">
@@ -7361,7 +7372,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -7371,7 +7382,7 @@
       <c r="C115" t="s">
         <v>347</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E115" t="s">
@@ -7402,7 +7413,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -7412,7 +7423,7 @@
       <c r="C116" t="s">
         <v>352</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E116" t="s">
@@ -7443,7 +7454,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -7453,7 +7464,7 @@
       <c r="C117" t="s">
         <v>356</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E117" t="s">
@@ -7484,7 +7495,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -7494,7 +7505,7 @@
       <c r="C118" t="s">
         <v>361</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E118" t="s">
@@ -7525,7 +7536,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -7535,7 +7546,7 @@
       <c r="C119" t="s">
         <v>365</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E119" t="s">
@@ -7566,7 +7577,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -7576,7 +7587,7 @@
       <c r="C120" t="s">
         <v>369</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E120" t="s">
@@ -7607,7 +7618,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -7617,7 +7628,7 @@
       <c r="C121" t="s">
         <v>373</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E121" t="s">
@@ -7648,7 +7659,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -7658,7 +7669,7 @@
       <c r="C122" t="s">
         <v>377</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E122" t="s">
@@ -7689,7 +7700,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -7699,7 +7710,7 @@
       <c r="C123" t="s">
         <v>382</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F123" s="2">
@@ -7715,7 +7726,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -7725,7 +7736,7 @@
       <c r="C124" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E124" t="s">
@@ -7753,7 +7764,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -7763,7 +7774,7 @@
       <c r="C125" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E125" t="s">
@@ -7791,7 +7802,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -7801,7 +7812,7 @@
       <c r="C126" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E126" t="s">
@@ -7829,7 +7840,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -7839,7 +7850,7 @@
       <c r="C127" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E127" t="s">
@@ -7867,7 +7878,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -7877,7 +7888,7 @@
       <c r="C128" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E128" t="s">
@@ -7905,7 +7916,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -7915,7 +7926,7 @@
       <c r="C129" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E129" t="s">
@@ -7943,7 +7954,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -7953,7 +7964,7 @@
       <c r="C130" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E130" t="s">
@@ -7981,7 +7992,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -7991,7 +8002,7 @@
       <c r="C131" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E131" t="s">
@@ -8019,7 +8030,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -8029,7 +8040,7 @@
       <c r="C132" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E132" t="s">
@@ -8057,7 +8068,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -8067,7 +8078,7 @@
       <c r="C133" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E133" t="s">
@@ -8095,7 +8106,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -8105,7 +8116,7 @@
       <c r="C134" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E134" t="s">
@@ -8133,7 +8144,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -8143,7 +8154,7 @@
       <c r="C135" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E135" t="s">
@@ -8171,7 +8182,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -8181,7 +8192,7 @@
       <c r="C136" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E136" t="s">
@@ -8209,7 +8220,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -8219,7 +8230,7 @@
       <c r="C137" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E137" t="s">
@@ -8247,7 +8258,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -8257,7 +8268,7 @@
       <c r="C138" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E138" t="s">
@@ -8285,7 +8296,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -8295,7 +8306,7 @@
       <c r="C139" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E139" t="s">
@@ -8323,7 +8334,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -8333,7 +8344,7 @@
       <c r="C140" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E140" t="s">
@@ -8361,7 +8372,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -8371,7 +8382,7 @@
       <c r="C141" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E141" t="s">
@@ -8399,7 +8410,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -8409,7 +8420,7 @@
       <c r="C142" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E142" t="s">
@@ -8437,7 +8448,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -8447,7 +8458,7 @@
       <c r="C143" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E143" t="s">
@@ -8475,7 +8486,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -8485,7 +8496,7 @@
       <c r="C144" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E144" t="s">
@@ -8513,7 +8524,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -8523,7 +8534,7 @@
       <c r="C145" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E145" t="s">
@@ -8551,7 +8562,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -8561,7 +8572,7 @@
       <c r="C146" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E146" t="s">
@@ -8589,7 +8600,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -8599,7 +8610,7 @@
       <c r="C147" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E147" t="s">
@@ -8627,7 +8638,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -8637,7 +8648,7 @@
       <c r="C148" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E148" t="s">
@@ -8665,7 +8676,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -8675,7 +8686,7 @@
       <c r="C149" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E149" t="s">
@@ -8703,7 +8714,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -8713,7 +8724,7 @@
       <c r="C150" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E150" t="s">
@@ -8741,7 +8752,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -8751,7 +8762,7 @@
       <c r="C151" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E151" t="s">
@@ -8779,7 +8790,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -8789,7 +8800,7 @@
       <c r="C152" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E152" t="s">
@@ -8817,7 +8828,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -8827,7 +8838,7 @@
       <c r="C153" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E153" t="s">
@@ -8855,7 +8866,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -8865,7 +8876,7 @@
       <c r="C154" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E154" t="s">
@@ -8893,7 +8904,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -8903,7 +8914,7 @@
       <c r="C155" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E155" t="s">
@@ -8931,7 +8942,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -8941,7 +8952,7 @@
       <c r="C156" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E156" t="s">
@@ -8969,7 +8980,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -8979,7 +8990,7 @@
       <c r="C157" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E157" t="s">
@@ -9007,7 +9018,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -9017,7 +9028,7 @@
       <c r="C158" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E158" t="s">
@@ -9045,7 +9056,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -9055,7 +9066,7 @@
       <c r="C159" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E159" t="s">
@@ -9083,7 +9094,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -9093,7 +9104,7 @@
       <c r="C160" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E160" t="s">
@@ -9121,7 +9132,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -9131,7 +9142,7 @@
       <c r="C161" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E161" t="s">
@@ -9159,7 +9170,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -9169,7 +9180,7 @@
       <c r="C162" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E162" t="s">
@@ -9197,7 +9208,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -9207,7 +9218,7 @@
       <c r="C163" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E163" t="s">
@@ -9235,7 +9246,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -9245,7 +9256,7 @@
       <c r="C164" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E164" t="s">
@@ -9273,7 +9284,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -9283,7 +9294,7 @@
       <c r="C165" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E165" t="s">
@@ -9311,7 +9322,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -9321,7 +9332,7 @@
       <c r="C166" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E166" t="s">
@@ -9349,7 +9360,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -9359,7 +9370,7 @@
       <c r="C167" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E167" t="s">
@@ -9387,7 +9398,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -9397,7 +9408,7 @@
       <c r="C168" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E168" t="s">
@@ -9425,7 +9436,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -9435,7 +9446,7 @@
       <c r="C169" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E169" t="s">
@@ -9463,7 +9474,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -9473,7 +9484,7 @@
       <c r="C170" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E170" t="s">
@@ -9501,7 +9512,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -9511,7 +9522,7 @@
       <c r="C171" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E171" t="s">
@@ -9539,7 +9550,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -9549,7 +9560,7 @@
       <c r="C172" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F172" s="3">
@@ -9565,7 +9576,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -9575,7 +9586,7 @@
       <c r="C173" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F173" s="2" t="s">
@@ -9591,7 +9602,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -9601,7 +9612,7 @@
       <c r="C174" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F174" s="2" t="s">
@@ -9617,7 +9628,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -9627,7 +9638,7 @@
       <c r="C175" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F175" s="3">
@@ -9643,7 +9654,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -9653,7 +9664,7 @@
       <c r="C176" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F176" s="2" t="s">
@@ -9669,7 +9680,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -9679,7 +9690,7 @@
       <c r="C177" t="s">
         <v>503</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E177" t="s">
@@ -9707,7 +9718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -9717,7 +9728,7 @@
       <c r="C178" t="s">
         <v>506</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E178" t="s">
@@ -9745,7 +9756,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -9755,7 +9766,7 @@
       <c r="C179" t="s">
         <v>510</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="4" t="s">
         <v>511</v>
       </c>
       <c r="E179" t="s">
@@ -9783,176 +9794,116 @@
         <v>513</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>514</v>
-      </c>
-      <c r="D180" t="s">
-        <v>259</v>
-      </c>
-      <c r="E180" t="s">
-        <v>504</v>
-      </c>
-      <c r="F180" t="s">
-        <v>97</v>
-      </c>
-      <c r="G180" t="s">
-        <v>18</v>
-      </c>
-      <c r="H180" t="s">
-        <v>18</v>
+        <v>801</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F180">
+        <v>13</v>
+      </c>
+      <c r="H180">
+        <v>101</v>
       </c>
       <c r="I180" t="s">
         <v>505</v>
       </c>
-      <c r="J180" t="s">
-        <v>18</v>
-      </c>
-      <c r="K180" t="s">
-        <v>18</v>
-      </c>
-      <c r="L180" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C181" t="s">
-        <v>515</v>
-      </c>
-      <c r="D181" t="s">
-        <v>259</v>
-      </c>
-      <c r="E181" t="s">
-        <v>18</v>
-      </c>
-      <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" t="s">
-        <v>18</v>
+        <v>179</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F181">
+        <v>9</v>
+      </c>
+      <c r="H181">
+        <v>30</v>
       </c>
       <c r="I181" t="s">
         <v>505</v>
       </c>
-      <c r="J181" t="s">
-        <v>18</v>
-      </c>
-      <c r="K181" t="s">
-        <v>18</v>
-      </c>
-      <c r="L181" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C182" t="s">
-        <v>516</v>
-      </c>
-      <c r="D182" t="s">
-        <v>517</v>
-      </c>
-      <c r="E182" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182" t="s">
-        <v>162</v>
-      </c>
-      <c r="G182" t="s">
-        <v>18</v>
-      </c>
-      <c r="H182" t="s">
-        <v>518</v>
+        <v>803</v>
+      </c>
+      <c r="D182" s="4">
+        <v>7139</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>370</v>
       </c>
       <c r="I182" t="s">
         <v>505</v>
       </c>
-      <c r="J182" t="s">
-        <v>18</v>
-      </c>
-      <c r="K182" t="s">
-        <v>18</v>
-      </c>
-      <c r="L182" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C183" t="s">
-        <v>519</v>
-      </c>
-      <c r="D183" t="s">
-        <v>520</v>
-      </c>
-      <c r="E183" t="s">
-        <v>18</v>
-      </c>
-      <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>18</v>
-      </c>
-      <c r="H183" t="s">
-        <v>18</v>
+        <v>802</v>
+      </c>
+      <c r="D183" s="4">
+        <v>7139</v>
+      </c>
+      <c r="F183">
+        <v>17</v>
+      </c>
+      <c r="H183">
+        <v>715</v>
       </c>
       <c r="I183" t="s">
         <v>505</v>
       </c>
-      <c r="J183" t="s">
-        <v>18</v>
-      </c>
-      <c r="K183" t="s">
-        <v>18</v>
-      </c>
-      <c r="L183" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="C184" t="s">
-        <v>522</v>
-      </c>
-      <c r="D184" t="s">
+        <v>514</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>504</v>
       </c>
       <c r="F184" t="s">
-        <v>523</v>
+        <v>97</v>
       </c>
       <c r="G184" t="s">
         <v>18</v>
@@ -9973,18 +9924,18 @@
         <v>385</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="C185" t="s">
-        <v>524</v>
-      </c>
-      <c r="D185" t="s">
-        <v>520</v>
+        <v>515</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="E185" t="s">
         <v>18</v>
@@ -10011,30 +9962,30 @@
         <v>385</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="C186" t="s">
-        <v>525</v>
-      </c>
-      <c r="D186" t="s">
-        <v>520</v>
+        <v>516</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="G186" t="s">
         <v>18</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="I186" t="s">
         <v>505</v>
@@ -10049,7 +10000,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -10057,9 +10008,9 @@
         <v>118</v>
       </c>
       <c r="C187" t="s">
-        <v>526</v>
-      </c>
-      <c r="D187" t="s">
+        <v>519</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E187" t="s">
@@ -10084,33 +10035,33 @@
         <v>18</v>
       </c>
       <c r="L187" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>527</v>
+        <v>118</v>
       </c>
       <c r="C188" t="s">
-        <v>528</v>
-      </c>
-      <c r="D188" t="s">
-        <v>520</v>
+        <v>522</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="E188" t="s">
-        <v>529</v>
+        <v>18</v>
       </c>
       <c r="F188" t="s">
-        <v>102</v>
+        <v>523</v>
       </c>
       <c r="G188" t="s">
         <v>18</v>
       </c>
       <c r="H188" t="s">
-        <v>476</v>
+        <v>18</v>
       </c>
       <c r="I188" t="s">
         <v>505</v>
@@ -10125,21 +10076,21 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C189" t="s">
-        <v>530</v>
-      </c>
-      <c r="D189" t="s">
+        <v>524</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E189" t="s">
-        <v>531</v>
+        <v>18</v>
       </c>
       <c r="F189" t="s">
         <v>19</v>
@@ -10160,27 +10111,27 @@
         <v>18</v>
       </c>
       <c r="L189" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C190" t="s">
-        <v>532</v>
-      </c>
-      <c r="D190" t="s">
+        <v>525</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E190" t="s">
-        <v>533</v>
+        <v>18</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>18</v>
@@ -10200,34 +10151,31 @@
       <c r="L190" t="s">
         <v>385</v>
       </c>
-      <c r="M190" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C191" t="s">
-        <v>535</v>
-      </c>
-      <c r="D191" t="s">
+        <v>526</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E191" t="s">
         <v>18</v>
       </c>
       <c r="F191" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="G191" t="s">
         <v>18</v>
       </c>
       <c r="H191" t="s">
-        <v>536</v>
+        <v>18</v>
       </c>
       <c r="I191" t="s">
         <v>505</v>
@@ -10242,30 +10190,30 @@
         <v>385</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>48</v>
+        <v>527</v>
       </c>
       <c r="C192" t="s">
-        <v>537</v>
-      </c>
-      <c r="D192" t="s">
+        <v>528</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E192" t="s">
-        <v>18</v>
+        <v>529</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="G192" t="s">
         <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="I192" t="s">
         <v>505</v>
@@ -10280,7 +10228,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -10288,13 +10236,13 @@
         <v>48</v>
       </c>
       <c r="C193" t="s">
-        <v>539</v>
-      </c>
-      <c r="D193" t="s">
+        <v>530</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E193" t="s">
-        <v>18</v>
+        <v>531</v>
       </c>
       <c r="F193" t="s">
         <v>19</v>
@@ -10303,7 +10251,7 @@
         <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>540</v>
+        <v>18</v>
       </c>
       <c r="I193" t="s">
         <v>505</v>
@@ -10315,10 +10263,10 @@
         <v>18</v>
       </c>
       <c r="L193" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -10326,16 +10274,16 @@
         <v>48</v>
       </c>
       <c r="C194" t="s">
-        <v>541</v>
-      </c>
-      <c r="D194" t="s">
-        <v>259</v>
+        <v>532</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="E194" t="s">
-        <v>18</v>
+        <v>533</v>
       </c>
       <c r="F194" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="G194" t="s">
         <v>18</v>
@@ -10355,31 +10303,34 @@
       <c r="L194" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M194" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C195" t="s">
-        <v>543</v>
-      </c>
-      <c r="D195" t="s">
+        <v>535</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E195" t="s">
-        <v>544</v>
+        <v>18</v>
       </c>
       <c r="F195" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="G195" t="s">
         <v>18</v>
       </c>
       <c r="H195" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="I195" t="s">
         <v>505</v>
@@ -10393,34 +10344,31 @@
       <c r="L195" t="s">
         <v>385</v>
       </c>
-      <c r="M195" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C196" t="s">
-        <v>545</v>
-      </c>
-      <c r="D196" t="s">
+        <v>537</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E196" t="s">
-        <v>546</v>
+        <v>18</v>
       </c>
       <c r="F196" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="G196" t="s">
         <v>18</v>
       </c>
       <c r="H196" t="s">
-        <v>18</v>
+        <v>538</v>
       </c>
       <c r="I196" t="s">
         <v>505</v>
@@ -10434,34 +10382,31 @@
       <c r="L196" t="s">
         <v>385</v>
       </c>
-      <c r="M196" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C197" t="s">
-        <v>547</v>
-      </c>
-      <c r="D197" t="s">
+        <v>539</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E197" t="s">
-        <v>548</v>
+        <v>18</v>
       </c>
       <c r="F197" t="s">
-        <v>549</v>
+        <v>19</v>
       </c>
       <c r="G197" t="s">
         <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>18</v>
+        <v>540</v>
       </c>
       <c r="I197" t="s">
         <v>505</v>
@@ -10473,30 +10418,27 @@
         <v>18</v>
       </c>
       <c r="L197" t="s">
-        <v>205</v>
-      </c>
-      <c r="M197" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C198" t="s">
-        <v>551</v>
-      </c>
-      <c r="D198" t="s">
-        <v>520</v>
+        <v>541</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="E198" t="s">
-        <v>552</v>
+        <v>18</v>
       </c>
       <c r="F198" t="s">
-        <v>143</v>
+        <v>542</v>
       </c>
       <c r="G198" t="s">
         <v>18</v>
@@ -10517,7 +10459,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -10525,16 +10467,16 @@
         <v>99</v>
       </c>
       <c r="C199" t="s">
-        <v>553</v>
-      </c>
-      <c r="D199" t="s">
+        <v>543</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E199" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F199" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="G199" t="s">
         <v>18</v>
@@ -10558,7 +10500,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -10566,22 +10508,22 @@
         <v>99</v>
       </c>
       <c r="C200" t="s">
-        <v>555</v>
-      </c>
-      <c r="D200" t="s">
-        <v>517</v>
+        <v>545</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="E200" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="F200" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
       <c r="G200" t="s">
         <v>18</v>
       </c>
       <c r="H200" t="s">
-        <v>557</v>
+        <v>18</v>
       </c>
       <c r="I200" t="s">
         <v>505</v>
@@ -10593,36 +10535,36 @@
         <v>18</v>
       </c>
       <c r="L200" t="s">
-        <v>177</v>
+        <v>385</v>
       </c>
       <c r="M200" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="C201" t="s">
-        <v>559</v>
-      </c>
-      <c r="D201" t="s">
+        <v>547</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E201" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="F201" t="s">
-        <v>97</v>
+        <v>549</v>
       </c>
       <c r="G201" t="s">
         <v>18</v>
       </c>
       <c r="H201" t="s">
-        <v>560</v>
+        <v>18</v>
       </c>
       <c r="I201" t="s">
         <v>505</v>
@@ -10634,27 +10576,30 @@
         <v>18</v>
       </c>
       <c r="L201" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="M201" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C202" t="s">
-        <v>561</v>
-      </c>
-      <c r="D202" t="s">
-        <v>259</v>
+        <v>551</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="E202" t="s">
-        <v>18</v>
+        <v>552</v>
       </c>
       <c r="F202" t="s">
-        <v>562</v>
+        <v>143</v>
       </c>
       <c r="G202" t="s">
         <v>18</v>
@@ -10675,24 +10620,24 @@
         <v>385</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C203" t="s">
-        <v>563</v>
-      </c>
-      <c r="D203" t="s">
-        <v>259</v>
+        <v>553</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="E203" t="s">
-        <v>18</v>
+        <v>554</v>
       </c>
       <c r="F203" t="s">
-        <v>564</v>
+        <v>154</v>
       </c>
       <c r="G203" t="s">
         <v>18</v>
@@ -10710,13 +10655,171 @@
         <v>18</v>
       </c>
       <c r="L203" t="s">
+        <v>385</v>
+      </c>
+      <c r="M203" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" t="s">
+        <v>99</v>
+      </c>
+      <c r="C204" t="s">
+        <v>555</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E204" t="s">
+        <v>556</v>
+      </c>
+      <c r="F204" t="s">
+        <v>295</v>
+      </c>
+      <c r="G204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H204" t="s">
+        <v>557</v>
+      </c>
+      <c r="I204" t="s">
+        <v>505</v>
+      </c>
+      <c r="J204" t="s">
+        <v>18</v>
+      </c>
+      <c r="K204" t="s">
+        <v>18</v>
+      </c>
+      <c r="L204" t="s">
+        <v>177</v>
+      </c>
+      <c r="M204" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" t="s">
+        <v>559</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E205" t="s">
+        <v>529</v>
+      </c>
+      <c r="F205" t="s">
+        <v>97</v>
+      </c>
+      <c r="G205" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" t="s">
+        <v>560</v>
+      </c>
+      <c r="I205" t="s">
+        <v>505</v>
+      </c>
+      <c r="J205" t="s">
+        <v>18</v>
+      </c>
+      <c r="K205" t="s">
+        <v>18</v>
+      </c>
+      <c r="L205" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" t="s">
+        <v>561</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E206" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" t="s">
+        <v>562</v>
+      </c>
+      <c r="G206" t="s">
+        <v>18</v>
+      </c>
+      <c r="H206" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" t="s">
+        <v>505</v>
+      </c>
+      <c r="J206" t="s">
+        <v>18</v>
+      </c>
+      <c r="K206" t="s">
+        <v>18</v>
+      </c>
+      <c r="L206" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" t="s">
+        <v>563</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E207" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" t="s">
+        <v>564</v>
+      </c>
+      <c r="G207" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207" t="s">
+        <v>18</v>
+      </c>
+      <c r="I207" t="s">
+        <v>505</v>
+      </c>
+      <c r="J207" t="s">
+        <v>18</v>
+      </c>
+      <c r="K207" t="s">
+        <v>18</v>
+      </c>
+      <c r="L207" t="s">
         <v>385</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A177:M203 A1:M122 A124:A171 D124:E171 H124:M171" numberStoredAsText="1"/>
+    <ignoredError sqref="A184:M207 A1:M122 A124:A171 D124:E171 H124:M171 A177:M179" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10725,11 +10828,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10776,7 +10881,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -10823,7 +10928,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -10870,7 +10975,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -10917,7 +11022,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -10964,7 +11069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -11011,7 +11116,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>237</v>
       </c>
@@ -11058,7 +11163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -11105,7 +11210,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -11152,7 +11257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -11199,7 +11304,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -11246,7 +11351,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -11293,7 +11398,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -11340,7 +11445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -11387,7 +11492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -11434,7 +11539,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -11481,7 +11586,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -11528,7 +11633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -11575,7 +11680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -11622,7 +11727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -11669,7 +11774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -11716,7 +11821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -11763,7 +11868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -11810,7 +11915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -11857,7 +11962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -11904,7 +12009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -11951,7 +12056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -11998,7 +12103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>237</v>
       </c>
@@ -12045,7 +12150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -12092,18 +12197,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
+        <v>382</v>
+      </c>
+      <c r="C30" s="2">
+        <v>380</v>
+      </c>
+      <c r="D30" s="2">
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
@@ -12139,18 +12244,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3">
+        <v>477</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -12186,18 +12291,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" s="3">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>376</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -12233,18 +12338,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" s="3">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3">
+        <v>633</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
@@ -12280,18 +12385,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="3">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3">
+        <v>369</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
@@ -12327,18 +12432,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3">
+        <v>374</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
@@ -12374,18 +12479,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C36" s="3">
+        <v>149</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2828</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -12421,18 +12526,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C37" s="3">
+        <v>140</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2650</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -12468,18 +12573,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C38" s="3">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3">
+        <v>668</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -12515,18 +12620,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" s="3">
+        <v>66</v>
+      </c>
+      <c r="D39" s="3">
+        <v>671</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -12562,18 +12667,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="3">
+        <v>67</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1263</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
@@ -12609,18 +12714,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="3">
+        <v>495</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
@@ -12656,18 +12761,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" s="3">
+        <v>31</v>
+      </c>
+      <c r="D42" s="3">
+        <v>583</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -12703,18 +12808,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>18</v>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C43" s="3">
+        <v>31</v>
+      </c>
+      <c r="D43" s="3">
+        <v>593</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -12750,18 +12855,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>18</v>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44" s="3">
+        <v>490</v>
+      </c>
+      <c r="D44" s="3">
+        <v>417</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
@@ -12797,18 +12902,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C45" s="3">
+        <v>384</v>
+      </c>
+      <c r="D45" s="3">
+        <v>577</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -12844,18 +12949,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>18</v>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C46" s="3">
+        <v>467</v>
+      </c>
+      <c r="D46" s="3">
+        <v>58</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
@@ -12891,18 +12996,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3">
+        <v>605</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
@@ -12938,18 +13043,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C48" s="3">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3">
+        <v>311</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
@@ -12985,18 +13090,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C49" s="3">
+        <v>317</v>
+      </c>
+      <c r="D49" s="3">
+        <v>316</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
@@ -13032,18 +13137,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C50" s="3">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3">
+        <v>333</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -13079,18 +13184,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44</v>
+      </c>
+      <c r="D51" s="3">
+        <v>832</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
@@ -13126,18 +13231,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" s="3">
+        <v>41</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1313</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
@@ -13173,18 +13278,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>18</v>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C53" s="3">
+        <v>26</v>
+      </c>
+      <c r="D53" s="3">
+        <v>491</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -13220,18 +13325,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C54" s="3">
+        <v>546</v>
+      </c>
+      <c r="D54" s="3">
+        <v>380</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
@@ -13267,18 +13372,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1182</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1091</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -13314,18 +13419,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>18</v>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="3">
+        <v>873</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -13361,18 +13466,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="3">
+        <v>256</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
@@ -13408,18 +13513,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>18</v>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C58" s="3">
+        <v>24</v>
+      </c>
+      <c r="D58" s="3">
+        <v>464</v>
       </c>
       <c r="E58" t="s">
         <v>18</v>
@@ -13455,18 +13560,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C59" s="3">
+        <v>39</v>
+      </c>
+      <c r="D59" s="3">
+        <v>732</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
@@ -13502,18 +13607,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C60" s="3">
+        <v>217</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1950</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
@@ -13549,18 +13654,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>18</v>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="3">
+        <v>99</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -13596,18 +13701,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>18</v>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C62" s="3">
+        <v>149</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1205</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
@@ -13643,18 +13748,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>18</v>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C63" s="3">
+        <v>651</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1448</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -13690,18 +13795,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>18</v>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C64" s="3">
+        <v>62</v>
+      </c>
+      <c r="D64" s="3">
+        <v>3033</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -13737,18 +13842,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C65" s="3">
+        <v>111</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3561</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
@@ -13784,18 +13889,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>18</v>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C66" s="3">
+        <v>944</v>
+      </c>
+      <c r="D66" s="3">
+        <v>684</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -13831,18 +13936,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>18</v>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="3">
+        <v>641</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
@@ -13878,18 +13983,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>18</v>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C68" s="3">
+        <v>115</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1077</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
@@ -13925,18 +14030,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>18</v>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C69" s="3">
+        <v>96</v>
+      </c>
+      <c r="D69" s="3">
+        <v>233</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
@@ -13972,18 +14077,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>18</v>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C70" s="3">
+        <v>262</v>
+      </c>
+      <c r="D70" s="3">
+        <v>799</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
@@ -14019,18 +14124,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>18</v>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="3">
+        <v>334</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
@@ -14066,18 +14171,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>18</v>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="3">
+        <v>487</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
@@ -14113,18 +14218,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>18</v>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C73" s="3">
+        <v>181</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1838</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
@@ -14160,18 +14265,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
-        <v>18</v>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="3">
+        <v>134</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1081</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
@@ -14207,18 +14312,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>18</v>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C75" s="3">
+        <v>812</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2866</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
@@ -14254,18 +14359,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" t="s">
-        <v>18</v>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1856</v>
       </c>
       <c r="E76" t="s">
         <v>18</v>
@@ -14301,18 +14406,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" t="s">
-        <v>18</v>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C77" s="3">
+        <v>952</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1212</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
@@ -14348,18 +14453,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" t="s">
-        <v>18</v>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="3">
+        <v>817</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1083</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
@@ -14395,18 +14500,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" t="s">
-        <v>18</v>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C79" s="3">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3">
+        <v>281</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
@@ -14442,18 +14547,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="s">
-        <v>18</v>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="3">
+        <v>728</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
@@ -14489,18 +14594,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" t="s">
-        <v>18</v>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1057</v>
       </c>
       <c r="E81" t="s">
         <v>18</v>
@@ -14536,18 +14641,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" t="s">
-        <v>18</v>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C82" s="3">
+        <v>228</v>
+      </c>
+      <c r="D82" s="3">
+        <v>969</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
@@ -14583,18 +14688,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>18</v>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2477</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
@@ -14630,7 +14735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>656</v>
       </c>
@@ -14677,7 +14782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>656</v>
       </c>
@@ -14724,7 +14829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>656</v>
       </c>
@@ -14771,7 +14876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>656</v>
       </c>
@@ -14818,7 +14923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>656</v>
       </c>
@@ -14865,7 +14970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>656</v>
       </c>
@@ -14912,7 +15017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>656</v>
       </c>
@@ -14959,7 +15064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>656</v>
       </c>
@@ -15006,7 +15111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>656</v>
       </c>
@@ -15053,7 +15158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>656</v>
       </c>
@@ -15100,7 +15205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>656</v>
       </c>
@@ -15147,7 +15252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>656</v>
       </c>
@@ -15194,7 +15299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>656</v>
       </c>
@@ -15241,7 +15346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>656</v>
       </c>
@@ -15288,7 +15393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>656</v>
       </c>
@@ -15335,7 +15440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>656</v>
       </c>
@@ -15382,7 +15487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>656</v>
       </c>
@@ -15429,7 +15534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>656</v>
       </c>
@@ -15476,7 +15581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>656</v>
       </c>
@@ -15523,7 +15628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>656</v>
       </c>
@@ -15570,7 +15675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>656</v>
       </c>
@@ -15617,7 +15722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>656</v>
       </c>
@@ -15664,7 +15769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>672</v>
       </c>
@@ -15711,7 +15816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>674</v>
       </c>
@@ -15758,7 +15863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>674</v>
       </c>
@@ -15805,7 +15910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>674</v>
       </c>
@@ -15852,7 +15957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>674</v>
       </c>
@@ -15899,7 +16004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>674</v>
       </c>
@@ -15946,7 +16051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>674</v>
       </c>
@@ -15993,7 +16098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>674</v>
       </c>
@@ -16040,7 +16145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>674</v>
       </c>
@@ -16087,7 +16192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>674</v>
       </c>
@@ -16134,7 +16239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>674</v>
       </c>
@@ -16181,7 +16286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>683</v>
       </c>
@@ -16228,7 +16333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>683</v>
       </c>
@@ -16275,7 +16380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>683</v>
       </c>
@@ -16322,7 +16427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>687</v>
       </c>
@@ -16369,7 +16474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>687</v>
       </c>
@@ -16416,7 +16521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>687</v>
       </c>
@@ -16463,7 +16568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>687</v>
       </c>
@@ -16510,7 +16615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>687</v>
       </c>
@@ -16557,7 +16662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>687</v>
       </c>
@@ -16604,7 +16709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>687</v>
       </c>
@@ -16651,7 +16756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>687</v>
       </c>
@@ -16698,7 +16803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>687</v>
       </c>
@@ -16745,7 +16850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>687</v>
       </c>
@@ -16792,7 +16897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>687</v>
       </c>
@@ -16839,7 +16944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>687</v>
       </c>
@@ -16886,7 +16991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>687</v>
       </c>
@@ -16933,7 +17038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>687</v>
       </c>
@@ -16980,7 +17085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>687</v>
       </c>
@@ -17027,7 +17132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>687</v>
       </c>
@@ -17074,7 +17179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>687</v>
       </c>
@@ -17121,7 +17226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>687</v>
       </c>
@@ -17168,7 +17273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -17215,7 +17320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -17262,7 +17367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -17309,7 +17414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -17356,7 +17461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -17403,7 +17508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -17450,7 +17555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -17497,7 +17602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -17544,7 +17649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -17591,7 +17696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -17638,7 +17743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -17685,7 +17790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -17732,7 +17837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -17779,7 +17884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -17826,7 +17931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -17873,7 +17978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -17920,7 +18025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -17967,7 +18072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -18014,7 +18119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -18061,7 +18166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -18108,7 +18213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -18155,7 +18260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>435</v>
       </c>
@@ -18202,7 +18307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -18249,7 +18354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -18296,7 +18401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>32</v>
       </c>
@@ -18343,7 +18448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -18390,7 +18495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -18437,7 +18542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -18484,7 +18589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -18531,7 +18636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>32</v>
       </c>
@@ -18578,7 +18683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>32</v>
       </c>
@@ -18625,7 +18730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>32</v>
       </c>
@@ -18672,7 +18777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>99</v>
       </c>
@@ -18719,7 +18824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>99</v>
       </c>
@@ -18766,7 +18871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>99</v>
       </c>
@@ -18813,7 +18918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>48</v>
       </c>
@@ -18860,7 +18965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -18907,7 +19012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -18954,7 +19059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -19001,7 +19106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -19048,7 +19153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -19095,7 +19200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -19142,7 +19247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>48</v>
       </c>
@@ -19189,7 +19294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -19236,7 +19341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>48</v>
       </c>
@@ -19283,7 +19388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>48</v>
       </c>
@@ -19330,7 +19435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>48</v>
       </c>
@@ -19377,7 +19482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>48</v>
       </c>
@@ -19424,7 +19529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -19471,7 +19576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>48</v>
       </c>
@@ -19518,7 +19623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>48</v>
       </c>
@@ -19565,7 +19670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>48</v>
       </c>
@@ -19612,7 +19717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>48</v>
       </c>
@@ -19662,846 +19767,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:O190" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:O29 A84:O190 E30:O83" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G1" t="s">
-        <v>568</v>
-      </c>
-      <c r="H1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I1" t="s">
-        <v>570</v>
-      </c>
-      <c r="J1" t="s">
-        <v>571</v>
-      </c>
-      <c r="K1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M1" t="s">
-        <v>574</v>
-      </c>
-      <c r="N1" t="s">
-        <v>575</v>
-      </c>
-      <c r="O1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="2">
-        <v>380</v>
-      </c>
-      <c r="D2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="3">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" s="3">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C8" s="3">
-        <v>149</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="3">
-        <v>140</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="3">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="3">
-        <v>66</v>
-      </c>
-      <c r="D11" s="3">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C12" s="3">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C14" s="3">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C15" s="3">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C16" s="3">
-        <v>490</v>
-      </c>
-      <c r="D16" s="3">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C17" s="3">
-        <v>384</v>
-      </c>
-      <c r="D17" s="3">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C18" s="3">
-        <v>467</v>
-      </c>
-      <c r="D18" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C20" s="3">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C21" s="3">
-        <v>317</v>
-      </c>
-      <c r="D21" s="3">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C22" s="3">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C23" s="3">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C24" s="3">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C25" s="3">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C26" s="3">
-        <v>546</v>
-      </c>
-      <c r="D26" s="3">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1182</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="3">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C30" s="3">
-        <v>24</v>
-      </c>
-      <c r="D30" s="3">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C31" s="3">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C32" s="3">
-        <v>217</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C34" s="3">
-        <v>149</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C35" s="3">
-        <v>651</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C36" s="3">
-        <v>62</v>
-      </c>
-      <c r="D36" s="3">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C37" s="3">
-        <v>111</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C38" s="3">
-        <v>944</v>
-      </c>
-      <c r="D38" s="3">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="3">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C40" s="3">
-        <v>115</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C41" s="3">
-        <v>96</v>
-      </c>
-      <c r="D41" s="3">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C42" s="3">
-        <v>262</v>
-      </c>
-      <c r="D42" s="3">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="3">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="3">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C45" s="3">
-        <v>181</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="3">
-        <v>134</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C47" s="3">
-        <v>812</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C49" s="3">
-        <v>952</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="3">
-        <v>817</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C51" s="3">
-        <v>6</v>
-      </c>
-      <c r="D51" s="3">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="3">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C54" s="3">
-        <v>228</v>
-      </c>
-      <c r="D54" s="3">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2477</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:O1" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>705</v>
       </c>
@@ -20509,7 +19788,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>707</v>
       </c>
@@ -20517,7 +19796,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>709</v>
       </c>
@@ -20525,7 +19804,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>710</v>
       </c>
@@ -20533,7 +19812,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>711</v>
       </c>
@@ -20541,7 +19820,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>712</v>
       </c>
@@ -20549,7 +19828,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>713</v>
       </c>
@@ -20557,7 +19836,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>714</v>
       </c>
@@ -20565,7 +19844,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>715</v>
       </c>
@@ -20573,7 +19852,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>716</v>
       </c>
@@ -20581,7 +19860,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>717</v>
       </c>
@@ -20589,7 +19868,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>718</v>
       </c>
@@ -20597,7 +19876,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>719</v>
       </c>
@@ -20605,7 +19884,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>720</v>
       </c>
@@ -20613,7 +19892,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>721</v>
       </c>
@@ -20621,7 +19900,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>722</v>
       </c>
@@ -20629,7 +19908,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>724</v>
       </c>
@@ -20637,7 +19916,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>725</v>
       </c>
@@ -20645,7 +19924,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>726</v>
       </c>
@@ -20653,7 +19932,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>727</v>
       </c>
@@ -20661,7 +19940,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>728</v>
       </c>
@@ -20669,7 +19948,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>730</v>
       </c>
@@ -20677,7 +19956,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>731</v>
       </c>
@@ -20685,7 +19964,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>732</v>
       </c>
@@ -20693,7 +19972,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>733</v>
       </c>
@@ -20701,7 +19980,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>735</v>
       </c>
@@ -20709,7 +19988,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>736</v>
       </c>
@@ -20717,7 +19996,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>737</v>
       </c>
@@ -20725,7 +20004,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>738</v>
       </c>
@@ -20733,7 +20012,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>739</v>
       </c>
@@ -20741,7 +20020,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>740</v>
       </c>
@@ -20749,7 +20028,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>741</v>
       </c>
@@ -20757,7 +20036,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>742</v>
       </c>
@@ -20765,7 +20044,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>744</v>
       </c>
@@ -20773,7 +20052,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>745</v>
       </c>
@@ -20781,7 +20060,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>746</v>
       </c>
@@ -20789,7 +20068,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>747</v>
       </c>
@@ -20797,7 +20076,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>748</v>
       </c>
@@ -20805,7 +20084,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>749</v>
       </c>
@@ -20813,7 +20092,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>750</v>
       </c>
@@ -20821,7 +20100,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>751</v>
       </c>
@@ -20829,7 +20108,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>752</v>
       </c>
@@ -20837,7 +20116,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>753</v>
       </c>
@@ -20845,7 +20124,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>754</v>
       </c>
@@ -20853,7 +20132,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>755</v>
       </c>
@@ -20861,7 +20140,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>756</v>
       </c>
@@ -20869,7 +20148,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>757</v>
       </c>
@@ -20877,7 +20156,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>758</v>
       </c>
@@ -20885,7 +20164,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>759</v>
       </c>
@@ -20893,7 +20172,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>760</v>
       </c>
@@ -20901,7 +20180,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>762</v>
       </c>
@@ -20909,7 +20188,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>763</v>
       </c>
@@ -20917,7 +20196,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>764</v>
       </c>
@@ -20925,7 +20204,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>765</v>
       </c>
@@ -20933,7 +20212,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>766</v>
       </c>
@@ -20941,7 +20220,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>767</v>
       </c>
@@ -20949,7 +20228,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>768</v>
       </c>
@@ -20957,7 +20236,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>769</v>
       </c>
@@ -20965,7 +20244,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>770</v>
       </c>
@@ -20973,7 +20252,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>771</v>
       </c>
@@ -20981,7 +20260,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>772</v>
       </c>
@@ -20989,7 +20268,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>773</v>
       </c>
@@ -20997,7 +20276,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>774</v>
       </c>
@@ -21005,7 +20284,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>775</v>
       </c>
@@ -21013,7 +20292,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>776</v>
       </c>
@@ -21021,7 +20300,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>777</v>
       </c>
@@ -21029,7 +20308,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>778</v>
       </c>
@@ -21037,7 +20316,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>779</v>
       </c>
@@ -21045,7 +20324,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>780</v>
       </c>
@@ -21053,7 +20332,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>781</v>
       </c>
@@ -21061,7 +20340,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>782</v>
       </c>
@@ -21069,7 +20348,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>783</v>
       </c>
@@ -21077,7 +20356,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>784</v>
       </c>
@@ -21085,7 +20364,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>785</v>
       </c>
@@ -21093,7 +20372,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>786</v>
       </c>
@@ -21101,7 +20380,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>787</v>
       </c>
@@ -21117,80 +20396,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -21203,40 +20482,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7139</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>517</v>
       </c>
@@ -21249,15 +20528,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>571</v>
       </c>
@@ -21271,7 +20550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>580</v>
       </c>
@@ -21285,7 +20564,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>649</v>
       </c>
@@ -21299,7 +20578,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -21313,7 +20592,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -21327,7 +20606,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -21341,7 +20620,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -21355,7 +20634,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -21369,7 +20648,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -21383,7 +20662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -21397,7 +20676,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -21411,7 +20690,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -21425,7 +20704,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -21439,7 +20718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -21453,7 +20732,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -21467,7 +20746,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -21481,7 +20760,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -21495,7 +20774,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -21509,7 +20788,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -21523,7 +20802,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -21537,7 +20816,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -21551,7 +20830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -21565,7 +20844,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -21579,7 +20858,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -21593,7 +20872,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -21607,7 +20886,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB94890-04A6-4420-A95A-1D85C1A4250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEDE7FD-2614-4415-B5A0-163386AAB8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="İş Takip Listesi" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="Uygulama" sheetId="6" r:id="rId5"/>
     <sheet name="Liste" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="686">
   <si>
     <t>Tamamlandı</t>
   </si>
@@ -1327,364 +1340,157 @@
     <t>AŞAĞIKÜKÜR</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
     <t>ÇALIŞMA PROGRAMINA ALINDI</t>
   </si>
   <si>
     <t>BOZDOĞAN</t>
   </si>
   <si>
-    <t>477</t>
-  </si>
-  <si>
     <t>BOĞUNTU</t>
   </si>
   <si>
-    <t>376</t>
-  </si>
-  <si>
     <t>ÇAMLIPINAR</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
     <t>ÇAMLIPINARALANI</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
     <t>ÇATALOLUK</t>
   </si>
   <si>
-    <t>374</t>
-  </si>
-  <si>
     <t>ÇUKURABANOZ</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>2828</t>
-  </si>
-  <si>
     <t>DEMİRÖREN</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
     <t>GÜNGÖREN</t>
   </si>
   <si>
-    <t>668</t>
-  </si>
-  <si>
     <t>KALINÖREN</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
     <t>KARAÇUKUR</t>
   </si>
   <si>
-    <t>1263</t>
-  </si>
-  <si>
     <t>KARALARBAHŞİŞ</t>
   </si>
   <si>
-    <t>495</t>
-  </si>
-  <si>
     <t>KARAAĞA</t>
   </si>
   <si>
-    <t>583</t>
-  </si>
-  <si>
     <t>KORUCUK</t>
   </si>
   <si>
-    <t>593</t>
-  </si>
-  <si>
     <t>MALAKLAR</t>
   </si>
   <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
     <t>NASRADDİN</t>
   </si>
   <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
     <t>ORMANCIK</t>
   </si>
   <si>
     <t>ORTAKÖY</t>
   </si>
   <si>
-    <t>605</t>
-  </si>
-  <si>
     <t>SUGÖZÜ</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>SARIAĞAÇ</t>
   </si>
   <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
     <t>SARIDANA</t>
   </si>
   <si>
-    <t>333</t>
-  </si>
-  <si>
     <t>YUKARIKÜKÜR</t>
   </si>
   <si>
-    <t>832</t>
-  </si>
-  <si>
     <t>Aydıncık</t>
   </si>
   <si>
     <t>HACIBAHATTİN</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>1313</t>
-  </si>
-  <si>
     <t>BAHÇEKOYAĞI</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>491</t>
-  </si>
-  <si>
     <t>BEYRELİ</t>
   </si>
   <si>
-    <t>546</t>
-  </si>
-  <si>
     <t>ELMAKUZU</t>
   </si>
   <si>
-    <t>1182</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
     <t>GÖZCE</t>
   </si>
   <si>
-    <t>873</t>
-  </si>
-  <si>
     <t>GÖZSÜZCE</t>
   </si>
   <si>
-    <t>256</t>
-  </si>
-  <si>
     <t>KÖMÜRLÜ</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
     <t>LENGER</t>
   </si>
   <si>
-    <t>732</t>
-  </si>
-  <si>
     <t>KIZILCA</t>
   </si>
   <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
     <t>TEKEDÜZÜ</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>DEREKÖY</t>
   </si>
   <si>
-    <t>1205</t>
-  </si>
-  <si>
     <t>BÜYÜKECELİ</t>
   </si>
   <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>1448</t>
-  </si>
-  <si>
     <t>ŞEYHÖMER</t>
   </si>
   <si>
-    <t>3033</t>
-  </si>
-  <si>
     <t>ZEYNE(SÜTLÜCE)</t>
   </si>
   <si>
-    <t>3561</t>
-  </si>
-  <si>
     <t>ALTINKUM</t>
   </si>
   <si>
-    <t>944</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
     <t>ARKARASI</t>
   </si>
   <si>
-    <t>641</t>
-  </si>
-  <si>
     <t>ATİK</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>1077</t>
-  </si>
-  <si>
     <t>BOYNUİNCELİ</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>BURUNUCU</t>
   </si>
   <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
     <t>ÇELTİKÇİ</t>
   </si>
   <si>
-    <t>334</t>
-  </si>
-  <si>
     <t>GÜLÜMPAŞALI</t>
   </si>
   <si>
-    <t>487</t>
-  </si>
-  <si>
     <t>HIRMANLI</t>
   </si>
   <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>1838</t>
-  </si>
-  <si>
     <t>İMAMUŞAĞI</t>
   </si>
   <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>2866</t>
-  </si>
-  <si>
     <t>KURTULUŞ</t>
   </si>
   <si>
-    <t>1212</t>
-  </si>
-  <si>
     <t>NASRULLAH</t>
   </si>
   <si>
-    <t>281</t>
-  </si>
-  <si>
     <t>SÖKÜN</t>
   </si>
   <si>
-    <t>1057</t>
-  </si>
-  <si>
     <t>ULUGÖZ</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>969</t>
   </si>
   <si>
     <t>Turunçlu</t>
@@ -2146,153 +1952,6 @@
   </si>
   <si>
     <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>ANAMUR</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>2977</t>
-  </si>
-  <si>
-    <t>2790</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>961</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>876</t>
-  </si>
-  <si>
-    <t>AYDINCIK</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>BOZYAZI</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>2273</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>2167</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>GÜLNAR</t>
-  </si>
-  <si>
-    <t>2099</t>
-  </si>
-  <si>
-    <t>3095</t>
-  </si>
-  <si>
-    <t>3672</t>
-  </si>
-  <si>
-    <t>SİLİFKE</t>
-  </si>
-  <si>
-    <t>1628</t>
-  </si>
-  <si>
-    <t>1632</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>1192</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>1081</t>
-  </si>
-  <si>
-    <t>1215</t>
-  </si>
-  <si>
-    <t>5027</t>
-  </si>
-  <si>
-    <t>1856</t>
-  </si>
-  <si>
-    <t>2164</t>
-  </si>
-  <si>
-    <t>1083</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>2477</t>
   </si>
   <si>
     <t>ad</t>
@@ -2978,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="Q180" sqref="Q180"/>
     </sheetView>
   </sheetViews>
@@ -7723,7 +7382,7 @@
         <v>21</v>
       </c>
       <c r="L123" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -7734,7 +7393,7 @@
         <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>259</v>
@@ -7761,7 +7420,7 @@
         <v>18</v>
       </c>
       <c r="L124" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -7772,7 +7431,7 @@
         <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>259</v>
@@ -7799,7 +7458,7 @@
         <v>18</v>
       </c>
       <c r="L125" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -7810,7 +7469,7 @@
         <v>14</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>259</v>
@@ -7837,7 +7496,7 @@
         <v>18</v>
       </c>
       <c r="L126" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -7848,7 +7507,7 @@
         <v>14</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>259</v>
@@ -7875,7 +7534,7 @@
         <v>18</v>
       </c>
       <c r="L127" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -7886,7 +7545,7 @@
         <v>14</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>259</v>
@@ -7913,7 +7572,7 @@
         <v>18</v>
       </c>
       <c r="L128" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -7924,7 +7583,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>259</v>
@@ -7951,7 +7610,7 @@
         <v>18</v>
       </c>
       <c r="L129" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -7962,7 +7621,7 @@
         <v>14</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>259</v>
@@ -7989,7 +7648,7 @@
         <v>18</v>
       </c>
       <c r="L130" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -8000,7 +7659,7 @@
         <v>14</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>259</v>
@@ -8027,7 +7686,7 @@
         <v>18</v>
       </c>
       <c r="L131" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -8038,7 +7697,7 @@
         <v>14</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>259</v>
@@ -8065,7 +7724,7 @@
         <v>18</v>
       </c>
       <c r="L132" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -8076,7 +7735,7 @@
         <v>14</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>259</v>
@@ -8103,7 +7762,7 @@
         <v>18</v>
       </c>
       <c r="L133" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -8114,7 +7773,7 @@
         <v>14</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>259</v>
@@ -8141,7 +7800,7 @@
         <v>18</v>
       </c>
       <c r="L134" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -8152,7 +7811,7 @@
         <v>14</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>259</v>
@@ -8179,7 +7838,7 @@
         <v>18</v>
       </c>
       <c r="L135" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -8190,7 +7849,7 @@
         <v>14</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>259</v>
@@ -8217,7 +7876,7 @@
         <v>18</v>
       </c>
       <c r="L136" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -8228,7 +7887,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>259</v>
@@ -8255,7 +7914,7 @@
         <v>18</v>
       </c>
       <c r="L137" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -8266,7 +7925,7 @@
         <v>14</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>259</v>
@@ -8293,7 +7952,7 @@
         <v>18</v>
       </c>
       <c r="L138" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -8304,7 +7963,7 @@
         <v>14</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>259</v>
@@ -8331,7 +7990,7 @@
         <v>18</v>
       </c>
       <c r="L139" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -8342,7 +8001,7 @@
         <v>14</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>259</v>
@@ -8369,7 +8028,7 @@
         <v>18</v>
       </c>
       <c r="L140" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -8380,7 +8039,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>259</v>
@@ -8407,7 +8066,7 @@
         <v>18</v>
       </c>
       <c r="L141" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -8418,7 +8077,7 @@
         <v>14</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>259</v>
@@ -8445,7 +8104,7 @@
         <v>18</v>
       </c>
       <c r="L142" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -8456,7 +8115,7 @@
         <v>14</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>259</v>
@@ -8483,7 +8142,7 @@
         <v>18</v>
       </c>
       <c r="L143" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -8494,7 +8153,7 @@
         <v>14</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>259</v>
@@ -8521,7 +8180,7 @@
         <v>18</v>
       </c>
       <c r="L144" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -8529,10 +8188,10 @@
         <v>13</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>259</v>
@@ -8559,7 +8218,7 @@
         <v>18</v>
       </c>
       <c r="L145" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -8570,7 +8229,7 @@
         <v>32</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>259</v>
@@ -8597,7 +8256,7 @@
         <v>18</v>
       </c>
       <c r="L146" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -8608,7 +8267,7 @@
         <v>32</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>259</v>
@@ -8635,7 +8294,7 @@
         <v>18</v>
       </c>
       <c r="L147" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -8646,7 +8305,7 @@
         <v>32</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>259</v>
@@ -8673,7 +8332,7 @@
         <v>18</v>
       </c>
       <c r="L148" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8684,7 +8343,7 @@
         <v>32</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>259</v>
@@ -8711,7 +8370,7 @@
         <v>18</v>
       </c>
       <c r="L149" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -8722,7 +8381,7 @@
         <v>32</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>259</v>
@@ -8749,7 +8408,7 @@
         <v>18</v>
       </c>
       <c r="L150" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -8760,7 +8419,7 @@
         <v>32</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>259</v>
@@ -8787,7 +8446,7 @@
         <v>18</v>
       </c>
       <c r="L151" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -8798,7 +8457,7 @@
         <v>32</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>259</v>
@@ -8825,7 +8484,7 @@
         <v>18</v>
       </c>
       <c r="L152" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -8836,7 +8495,7 @@
         <v>32</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>259</v>
@@ -8863,7 +8522,7 @@
         <v>18</v>
       </c>
       <c r="L153" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -8874,7 +8533,7 @@
         <v>32</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>259</v>
@@ -8901,7 +8560,7 @@
         <v>18</v>
       </c>
       <c r="L154" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -8912,7 +8571,7 @@
         <v>32</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>259</v>
@@ -8939,7 +8598,7 @@
         <v>18</v>
       </c>
       <c r="L155" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8950,7 +8609,7 @@
         <v>99</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>259</v>
@@ -8977,7 +8636,7 @@
         <v>18</v>
       </c>
       <c r="L156" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -8988,7 +8647,7 @@
         <v>99</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>259</v>
@@ -9015,7 +8674,7 @@
         <v>18</v>
       </c>
       <c r="L157" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -9026,7 +8685,7 @@
         <v>99</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>259</v>
@@ -9053,7 +8712,7 @@
         <v>18</v>
       </c>
       <c r="L158" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -9064,7 +8723,7 @@
         <v>48</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>259</v>
@@ -9091,7 +8750,7 @@
         <v>18</v>
       </c>
       <c r="L159" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -9102,7 +8761,7 @@
         <v>48</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>259</v>
@@ -9129,7 +8788,7 @@
         <v>18</v>
       </c>
       <c r="L160" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -9140,7 +8799,7 @@
         <v>48</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>259</v>
@@ -9167,7 +8826,7 @@
         <v>18</v>
       </c>
       <c r="L161" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -9178,7 +8837,7 @@
         <v>48</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>259</v>
@@ -9205,7 +8864,7 @@
         <v>18</v>
       </c>
       <c r="L162" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -9216,7 +8875,7 @@
         <v>48</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>259</v>
@@ -9243,7 +8902,7 @@
         <v>18</v>
       </c>
       <c r="L163" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -9254,7 +8913,7 @@
         <v>48</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>259</v>
@@ -9281,7 +8940,7 @@
         <v>18</v>
       </c>
       <c r="L164" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -9292,7 +8951,7 @@
         <v>48</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>259</v>
@@ -9319,7 +8978,7 @@
         <v>18</v>
       </c>
       <c r="L165" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -9330,7 +8989,7 @@
         <v>48</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>259</v>
@@ -9357,7 +9016,7 @@
         <v>18</v>
       </c>
       <c r="L166" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -9395,7 +9054,7 @@
         <v>18</v>
       </c>
       <c r="L167" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -9406,7 +9065,7 @@
         <v>48</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>259</v>
@@ -9433,7 +9092,7 @@
         <v>18</v>
       </c>
       <c r="L168" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -9471,7 +9130,7 @@
         <v>18</v>
       </c>
       <c r="L169" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -9482,7 +9141,7 @@
         <v>48</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>494</v>
+        <v>430</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>259</v>
@@ -9509,7 +9168,7 @@
         <v>18</v>
       </c>
       <c r="L170" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -9547,7 +9206,7 @@
         <v>18</v>
       </c>
       <c r="L171" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -9558,7 +9217,7 @@
         <v>48</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>259</v>
@@ -9573,7 +9232,7 @@
         <v>21</v>
       </c>
       <c r="L172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -9599,7 +9258,7 @@
         <v>21</v>
       </c>
       <c r="L173" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -9610,7 +9269,7 @@
         <v>48</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>259</v>
@@ -9625,7 +9284,7 @@
         <v>21</v>
       </c>
       <c r="L174" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -9636,7 +9295,7 @@
         <v>48</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>259</v>
@@ -9651,7 +9310,7 @@
         <v>21</v>
       </c>
       <c r="L175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -9677,7 +9336,7 @@
         <v>21</v>
       </c>
       <c r="L176" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -9688,13 +9347,13 @@
         <v>250</v>
       </c>
       <c r="C177" t="s">
-        <v>503</v>
+        <v>434</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E177" t="s">
-        <v>504</v>
+        <v>435</v>
       </c>
       <c r="F177" t="s">
         <v>155</v>
@@ -9706,7 +9365,7 @@
         <v>18</v>
       </c>
       <c r="I177" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J177" t="s">
         <v>18</v>
@@ -9726,16 +9385,16 @@
         <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E178" t="s">
-        <v>507</v>
+        <v>438</v>
       </c>
       <c r="F178" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="G178" t="s">
         <v>18</v>
@@ -9744,7 +9403,7 @@
         <v>18</v>
       </c>
       <c r="I178" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J178" t="s">
         <v>18</v>
@@ -9753,7 +9412,7 @@
         <v>18</v>
       </c>
       <c r="L178" t="s">
-        <v>509</v>
+        <v>440</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -9764,13 +9423,13 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>510</v>
+        <v>441</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>511</v>
+        <v>442</v>
       </c>
       <c r="E179" t="s">
-        <v>512</v>
+        <v>443</v>
       </c>
       <c r="F179" t="s">
         <v>144</v>
@@ -9782,7 +9441,7 @@
         <v>18</v>
       </c>
       <c r="I179" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J179" t="s">
         <v>18</v>
@@ -9791,7 +9450,7 @@
         <v>18</v>
       </c>
       <c r="L179" t="s">
-        <v>513</v>
+        <v>444</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -9802,10 +9461,10 @@
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>801</v>
+        <v>683</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="F180">
         <v>13</v>
@@ -9814,7 +9473,7 @@
         <v>101</v>
       </c>
       <c r="I180" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -9828,7 +9487,7 @@
         <v>179</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="F181">
         <v>9</v>
@@ -9837,7 +9496,7 @@
         <v>30</v>
       </c>
       <c r="I181" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -9848,7 +9507,7 @@
         <v>178</v>
       </c>
       <c r="C182" t="s">
-        <v>803</v>
+        <v>685</v>
       </c>
       <c r="D182" s="4">
         <v>7139</v>
@@ -9860,7 +9519,7 @@
         <v>370</v>
       </c>
       <c r="I182" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -9871,7 +9530,7 @@
         <v>178</v>
       </c>
       <c r="C183" t="s">
-        <v>802</v>
+        <v>684</v>
       </c>
       <c r="D183" s="4">
         <v>7139</v>
@@ -9883,7 +9542,7 @@
         <v>715</v>
       </c>
       <c r="I183" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -9894,13 +9553,13 @@
         <v>237</v>
       </c>
       <c r="C184" t="s">
-        <v>514</v>
+        <v>445</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E184" t="s">
-        <v>504</v>
+        <v>435</v>
       </c>
       <c r="F184" t="s">
         <v>97</v>
@@ -9912,7 +9571,7 @@
         <v>18</v>
       </c>
       <c r="I184" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J184" t="s">
         <v>18</v>
@@ -9921,7 +9580,7 @@
         <v>18</v>
       </c>
       <c r="L184" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -9932,7 +9591,7 @@
         <v>237</v>
       </c>
       <c r="C185" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>259</v>
@@ -9950,7 +9609,7 @@
         <v>18</v>
       </c>
       <c r="I185" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J185" t="s">
         <v>18</v>
@@ -9959,7 +9618,7 @@
         <v>18</v>
       </c>
       <c r="L185" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -9970,10 +9629,10 @@
         <v>237</v>
       </c>
       <c r="C186" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
@@ -9985,10 +9644,10 @@
         <v>18</v>
       </c>
       <c r="H186" t="s">
-        <v>518</v>
+        <v>449</v>
       </c>
       <c r="I186" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J186" t="s">
         <v>18</v>
@@ -9997,7 +9656,7 @@
         <v>18</v>
       </c>
       <c r="L186" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -10008,10 +9667,10 @@
         <v>118</v>
       </c>
       <c r="C187" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E187" t="s">
         <v>18</v>
@@ -10026,7 +9685,7 @@
         <v>18</v>
       </c>
       <c r="I187" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J187" t="s">
         <v>18</v>
@@ -10035,7 +9694,7 @@
         <v>18</v>
       </c>
       <c r="L187" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -10046,7 +9705,7 @@
         <v>118</v>
       </c>
       <c r="C188" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>259</v>
@@ -10055,7 +9714,7 @@
         <v>18</v>
       </c>
       <c r="F188" t="s">
-        <v>523</v>
+        <v>454</v>
       </c>
       <c r="G188" t="s">
         <v>18</v>
@@ -10064,7 +9723,7 @@
         <v>18</v>
       </c>
       <c r="I188" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J188" t="s">
         <v>18</v>
@@ -10073,7 +9732,7 @@
         <v>18</v>
       </c>
       <c r="L188" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -10084,10 +9743,10 @@
         <v>118</v>
       </c>
       <c r="C189" t="s">
-        <v>524</v>
+        <v>455</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E189" t="s">
         <v>18</v>
@@ -10102,7 +9761,7 @@
         <v>18</v>
       </c>
       <c r="I189" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J189" t="s">
         <v>18</v>
@@ -10111,7 +9770,7 @@
         <v>18</v>
       </c>
       <c r="L189" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -10122,10 +9781,10 @@
         <v>118</v>
       </c>
       <c r="C190" t="s">
-        <v>525</v>
+        <v>456</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E190" t="s">
         <v>18</v>
@@ -10140,7 +9799,7 @@
         <v>18</v>
       </c>
       <c r="I190" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J190" t="s">
         <v>18</v>
@@ -10149,7 +9808,7 @@
         <v>18</v>
       </c>
       <c r="L190" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -10160,10 +9819,10 @@
         <v>118</v>
       </c>
       <c r="C191" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E191" t="s">
         <v>18</v>
@@ -10178,7 +9837,7 @@
         <v>18</v>
       </c>
       <c r="I191" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J191" t="s">
         <v>18</v>
@@ -10187,7 +9846,7 @@
         <v>18</v>
       </c>
       <c r="L191" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -10195,16 +9854,16 @@
         <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="C192" t="s">
-        <v>528</v>
+        <v>459</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E192" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="F192" t="s">
         <v>102</v>
@@ -10213,10 +9872,10 @@
         <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="I192" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J192" t="s">
         <v>18</v>
@@ -10225,7 +9884,7 @@
         <v>18</v>
       </c>
       <c r="L192" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -10236,13 +9895,13 @@
         <v>48</v>
       </c>
       <c r="C193" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E193" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="F193" t="s">
         <v>19</v>
@@ -10254,7 +9913,7 @@
         <v>18</v>
       </c>
       <c r="I193" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J193" t="s">
         <v>18</v>
@@ -10274,13 +9933,13 @@
         <v>48</v>
       </c>
       <c r="C194" t="s">
-        <v>532</v>
+        <v>463</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E194" t="s">
-        <v>533</v>
+        <v>464</v>
       </c>
       <c r="F194" t="s">
         <v>19</v>
@@ -10292,7 +9951,7 @@
         <v>18</v>
       </c>
       <c r="I194" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J194" t="s">
         <v>18</v>
@@ -10301,10 +9960,10 @@
         <v>18</v>
       </c>
       <c r="L194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M194" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -10315,10 +9974,10 @@
         <v>48</v>
       </c>
       <c r="C195" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E195" t="s">
         <v>18</v>
@@ -10330,10 +9989,10 @@
         <v>18</v>
       </c>
       <c r="H195" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="I195" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J195" t="s">
         <v>18</v>
@@ -10342,7 +10001,7 @@
         <v>18</v>
       </c>
       <c r="L195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -10353,10 +10012,10 @@
         <v>48</v>
       </c>
       <c r="C196" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E196" t="s">
         <v>18</v>
@@ -10368,10 +10027,10 @@
         <v>18</v>
       </c>
       <c r="H196" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="I196" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J196" t="s">
         <v>18</v>
@@ -10380,7 +10039,7 @@
         <v>18</v>
       </c>
       <c r="L196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -10391,10 +10050,10 @@
         <v>48</v>
       </c>
       <c r="C197" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
@@ -10406,10 +10065,10 @@
         <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="I197" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J197" t="s">
         <v>18</v>
@@ -10418,7 +10077,7 @@
         <v>18</v>
       </c>
       <c r="L197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -10429,7 +10088,7 @@
         <v>48</v>
       </c>
       <c r="C198" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>259</v>
@@ -10438,7 +10097,7 @@
         <v>18</v>
       </c>
       <c r="F198" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="G198" t="s">
         <v>18</v>
@@ -10447,7 +10106,7 @@
         <v>18</v>
       </c>
       <c r="I198" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J198" t="s">
         <v>18</v>
@@ -10456,7 +10115,7 @@
         <v>18</v>
       </c>
       <c r="L198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -10467,13 +10126,13 @@
         <v>99</v>
       </c>
       <c r="C199" t="s">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E199" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="F199" t="s">
         <v>126</v>
@@ -10485,7 +10144,7 @@
         <v>18</v>
       </c>
       <c r="I199" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J199" t="s">
         <v>18</v>
@@ -10494,10 +10153,10 @@
         <v>18</v>
       </c>
       <c r="L199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M199" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -10508,13 +10167,13 @@
         <v>99</v>
       </c>
       <c r="C200" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E200" t="s">
-        <v>546</v>
+        <v>477</v>
       </c>
       <c r="F200" t="s">
         <v>160</v>
@@ -10526,7 +10185,7 @@
         <v>18</v>
       </c>
       <c r="I200" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J200" t="s">
         <v>18</v>
@@ -10535,10 +10194,10 @@
         <v>18</v>
       </c>
       <c r="L200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M200" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -10549,16 +10208,16 @@
         <v>99</v>
       </c>
       <c r="C201" t="s">
-        <v>547</v>
+        <v>478</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E201" t="s">
-        <v>548</v>
+        <v>479</v>
       </c>
       <c r="F201" t="s">
-        <v>549</v>
+        <v>480</v>
       </c>
       <c r="G201" t="s">
         <v>18</v>
@@ -10567,7 +10226,7 @@
         <v>18</v>
       </c>
       <c r="I201" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J201" t="s">
         <v>18</v>
@@ -10579,7 +10238,7 @@
         <v>205</v>
       </c>
       <c r="M201" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -10590,13 +10249,13 @@
         <v>99</v>
       </c>
       <c r="C202" t="s">
-        <v>551</v>
+        <v>482</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E202" t="s">
-        <v>552</v>
+        <v>483</v>
       </c>
       <c r="F202" t="s">
         <v>143</v>
@@ -10608,7 +10267,7 @@
         <v>18</v>
       </c>
       <c r="I202" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J202" t="s">
         <v>18</v>
@@ -10617,7 +10276,7 @@
         <v>18</v>
       </c>
       <c r="L202" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -10628,13 +10287,13 @@
         <v>99</v>
       </c>
       <c r="C203" t="s">
-        <v>553</v>
+        <v>484</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E203" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="F203" t="s">
         <v>154</v>
@@ -10646,7 +10305,7 @@
         <v>18</v>
       </c>
       <c r="I203" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J203" t="s">
         <v>18</v>
@@ -10655,10 +10314,10 @@
         <v>18</v>
       </c>
       <c r="L203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M203" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -10669,13 +10328,13 @@
         <v>99</v>
       </c>
       <c r="C204" t="s">
-        <v>555</v>
+        <v>486</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="E204" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
       <c r="F204" t="s">
         <v>295</v>
@@ -10684,10 +10343,10 @@
         <v>18</v>
       </c>
       <c r="H204" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="I204" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J204" t="s">
         <v>18</v>
@@ -10699,7 +10358,7 @@
         <v>177</v>
       </c>
       <c r="M204" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -10710,13 +10369,13 @@
         <v>189</v>
       </c>
       <c r="C205" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="E205" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="F205" t="s">
         <v>97</v>
@@ -10725,10 +10384,10 @@
         <v>18</v>
       </c>
       <c r="H205" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="I205" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J205" t="s">
         <v>18</v>
@@ -10737,7 +10396,7 @@
         <v>18</v>
       </c>
       <c r="L205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -10748,7 +10407,7 @@
         <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>561</v>
+        <v>492</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>259</v>
@@ -10757,7 +10416,7 @@
         <v>18</v>
       </c>
       <c r="F206" t="s">
-        <v>562</v>
+        <v>493</v>
       </c>
       <c r="G206" t="s">
         <v>18</v>
@@ -10766,7 +10425,7 @@
         <v>18</v>
       </c>
       <c r="I206" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J206" t="s">
         <v>18</v>
@@ -10775,7 +10434,7 @@
         <v>18</v>
       </c>
       <c r="L206" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -10786,7 +10445,7 @@
         <v>32</v>
       </c>
       <c r="C207" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>259</v>
@@ -10795,7 +10454,7 @@
         <v>18</v>
       </c>
       <c r="F207" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
       <c r="G207" t="s">
         <v>18</v>
@@ -10804,7 +10463,7 @@
         <v>18</v>
       </c>
       <c r="I207" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="J207" t="s">
         <v>18</v>
@@ -10813,7 +10472,7 @@
         <v>18</v>
       </c>
       <c r="L207" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -10828,11 +10487,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10845,40 +10507,40 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>565</v>
+        <v>496</v>
       </c>
       <c r="E1" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="F1" t="s">
-        <v>567</v>
+        <v>498</v>
       </c>
       <c r="G1" t="s">
-        <v>568</v>
+        <v>499</v>
       </c>
       <c r="H1" t="s">
-        <v>569</v>
+        <v>500</v>
       </c>
       <c r="I1" t="s">
-        <v>570</v>
+        <v>501</v>
       </c>
       <c r="J1" t="s">
-        <v>571</v>
+        <v>502</v>
       </c>
       <c r="K1" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="L1" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="M1" t="s">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="N1" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="O1" t="s">
-        <v>576</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -10895,7 +10557,7 @@
         <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>577</v>
+        <v>508</v>
       </c>
       <c r="F2">
         <v>45482</v>
@@ -10904,28 +10566,28 @@
         <v>45970</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="I2" t="s">
-        <v>579</v>
+        <v>510</v>
       </c>
       <c r="J2" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K2" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="N2" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O2" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -10942,7 +10604,7 @@
         <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="F3">
         <v>45482</v>
@@ -10951,28 +10613,28 @@
         <v>45970</v>
       </c>
       <c r="H3" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I3" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="J3" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K3" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="N3" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O3" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -10989,7 +10651,7 @@
         <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="F4">
         <v>45482</v>
@@ -10998,28 +10660,28 @@
         <v>45970</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="I4" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="J4" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K4" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="N4" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O4" t="s">
-        <v>591</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -11036,7 +10698,7 @@
         <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>592</v>
+        <v>523</v>
       </c>
       <c r="F5">
         <v>45482</v>
@@ -11045,16 +10707,16 @@
         <v>45970</v>
       </c>
       <c r="H5" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K5" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -11083,7 +10745,7 @@
         <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="F6">
         <v>45482</v>
@@ -11092,28 +10754,28 @@
         <v>45970</v>
       </c>
       <c r="H6" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I6" t="s">
-        <v>596</v>
+        <v>527</v>
       </c>
       <c r="J6" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K6" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="N6" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O6" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -11130,7 +10792,7 @@
         <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>599</v>
+        <v>530</v>
       </c>
       <c r="F7">
         <v>45482</v>
@@ -11139,22 +10801,22 @@
         <v>45970</v>
       </c>
       <c r="H7" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I7" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="J7" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K7" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -11177,7 +10839,7 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="F8">
         <v>45482</v>
@@ -11186,28 +10848,28 @@
         <v>45970</v>
       </c>
       <c r="H8" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I8" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="J8" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K8" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>603</v>
+        <v>534</v>
       </c>
       <c r="N8" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O8" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -11224,7 +10886,7 @@
         <v>295</v>
       </c>
       <c r="E9" t="s">
-        <v>605</v>
+        <v>536</v>
       </c>
       <c r="F9">
         <v>45482</v>
@@ -11233,16 +10895,16 @@
         <v>45970</v>
       </c>
       <c r="H9" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="I9" t="s">
-        <v>606</v>
+        <v>537</v>
       </c>
       <c r="J9" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K9" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -11271,7 +10933,7 @@
         <v>299</v>
       </c>
       <c r="E10" t="s">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="F10">
         <v>45482</v>
@@ -11280,28 +10942,28 @@
         <v>45970</v>
       </c>
       <c r="H10" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I10" t="s">
-        <v>609</v>
+        <v>540</v>
       </c>
       <c r="J10" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K10" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>610</v>
+        <v>541</v>
       </c>
       <c r="N10" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O10" t="s">
-        <v>611</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -11318,7 +10980,7 @@
         <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="F11">
         <v>45482</v>
@@ -11327,28 +10989,28 @@
         <v>45970</v>
       </c>
       <c r="H11" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I11" t="s">
-        <v>613</v>
+        <v>544</v>
       </c>
       <c r="J11" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K11" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>614</v>
+        <v>545</v>
       </c>
       <c r="N11" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O11" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -11365,7 +11027,7 @@
         <v>307</v>
       </c>
       <c r="E12" t="s">
-        <v>615</v>
+        <v>546</v>
       </c>
       <c r="F12">
         <v>45482</v>
@@ -11374,28 +11036,28 @@
         <v>45970</v>
       </c>
       <c r="H12" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I12" t="s">
-        <v>616</v>
+        <v>547</v>
       </c>
       <c r="J12" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K12" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>617</v>
+        <v>548</v>
       </c>
       <c r="N12" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O12" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -11412,7 +11074,7 @@
         <v>311</v>
       </c>
       <c r="E13" t="s">
-        <v>618</v>
+        <v>549</v>
       </c>
       <c r="F13">
         <v>45482</v>
@@ -11421,16 +11083,16 @@
         <v>45970</v>
       </c>
       <c r="H13" t="s">
-        <v>619</v>
+        <v>550</v>
       </c>
       <c r="I13" t="s">
-        <v>620</v>
+        <v>551</v>
       </c>
       <c r="J13" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K13" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -11459,7 +11121,7 @@
         <v>317</v>
       </c>
       <c r="E14" t="s">
-        <v>621</v>
+        <v>552</v>
       </c>
       <c r="F14">
         <v>45482</v>
@@ -11468,22 +11130,22 @@
         <v>45970</v>
       </c>
       <c r="H14" t="s">
-        <v>622</v>
+        <v>553</v>
       </c>
       <c r="I14" t="s">
-        <v>623</v>
+        <v>554</v>
       </c>
       <c r="J14" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K14" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>624</v>
+        <v>555</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
@@ -11506,7 +11168,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>625</v>
+        <v>556</v>
       </c>
       <c r="F15">
         <v>45482</v>
@@ -11515,28 +11177,28 @@
         <v>45970</v>
       </c>
       <c r="H15" t="s">
-        <v>619</v>
+        <v>550</v>
       </c>
       <c r="I15" t="s">
-        <v>626</v>
+        <v>557</v>
       </c>
       <c r="J15" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K15" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>627</v>
+        <v>558</v>
       </c>
       <c r="N15" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O15" t="s">
-        <v>611</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -11553,7 +11215,7 @@
         <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>628</v>
+        <v>559</v>
       </c>
       <c r="F16">
         <v>45482</v>
@@ -11562,28 +11224,28 @@
         <v>45970</v>
       </c>
       <c r="H16" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="I16" t="s">
-        <v>629</v>
+        <v>560</v>
       </c>
       <c r="J16" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K16" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>630</v>
+        <v>561</v>
       </c>
       <c r="N16" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O16" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -11600,7 +11262,7 @@
         <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>631</v>
+        <v>562</v>
       </c>
       <c r="F17">
         <v>45482</v>
@@ -11609,22 +11271,22 @@
         <v>45970</v>
       </c>
       <c r="H17" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I17" t="s">
-        <v>632</v>
+        <v>563</v>
       </c>
       <c r="J17" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K17" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>624</v>
+        <v>555</v>
       </c>
       <c r="N17" t="s">
         <v>18</v>
@@ -11647,7 +11309,7 @@
         <v>332</v>
       </c>
       <c r="E18" t="s">
-        <v>633</v>
+        <v>564</v>
       </c>
       <c r="F18">
         <v>45482</v>
@@ -11656,16 +11318,16 @@
         <v>45970</v>
       </c>
       <c r="H18" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="I18" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
       <c r="J18" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K18" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -11694,7 +11356,7 @@
         <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="F19">
         <v>45482</v>
@@ -11703,22 +11365,22 @@
         <v>45970</v>
       </c>
       <c r="H19" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="I19" t="s">
-        <v>626</v>
+        <v>557</v>
       </c>
       <c r="J19" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K19" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L19" t="s">
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>637</v>
+        <v>568</v>
       </c>
       <c r="N19" t="s">
         <v>18</v>
@@ -11741,7 +11403,7 @@
         <v>340</v>
       </c>
       <c r="E20" t="s">
-        <v>638</v>
+        <v>569</v>
       </c>
       <c r="F20">
         <v>45482</v>
@@ -11750,22 +11412,22 @@
         <v>45970</v>
       </c>
       <c r="H20" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I20" t="s">
-        <v>620</v>
+        <v>551</v>
       </c>
       <c r="J20" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K20" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>623</v>
+        <v>554</v>
       </c>
       <c r="N20" t="s">
         <v>18</v>
@@ -11788,7 +11450,7 @@
         <v>345</v>
       </c>
       <c r="E21" t="s">
-        <v>639</v>
+        <v>570</v>
       </c>
       <c r="F21">
         <v>45482</v>
@@ -11797,16 +11459,16 @@
         <v>45970</v>
       </c>
       <c r="H21" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="I21" t="s">
-        <v>640</v>
+        <v>571</v>
       </c>
       <c r="J21" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K21" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="L21" t="s">
         <v>18</v>
@@ -11835,7 +11497,7 @@
         <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>641</v>
+        <v>572</v>
       </c>
       <c r="F22">
         <v>45482</v>
@@ -11847,13 +11509,13 @@
         <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>640</v>
+        <v>571</v>
       </c>
       <c r="J22" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K22" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="L22" t="s">
         <v>18</v>
@@ -11882,7 +11544,7 @@
         <v>354</v>
       </c>
       <c r="E23" t="s">
-        <v>642</v>
+        <v>573</v>
       </c>
       <c r="F23">
         <v>45482</v>
@@ -11891,16 +11553,16 @@
         <v>45970</v>
       </c>
       <c r="H23" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="I23" t="s">
-        <v>643</v>
+        <v>574</v>
       </c>
       <c r="J23" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K23" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="L23" t="s">
         <v>18</v>
@@ -11929,7 +11591,7 @@
         <v>359</v>
       </c>
       <c r="E24" t="s">
-        <v>644</v>
+        <v>575</v>
       </c>
       <c r="F24">
         <v>45482</v>
@@ -11938,16 +11600,16 @@
         <v>45970</v>
       </c>
       <c r="H24" t="s">
-        <v>645</v>
+        <v>576</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K24" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
@@ -11976,7 +11638,7 @@
         <v>363</v>
       </c>
       <c r="E25" t="s">
-        <v>646</v>
+        <v>577</v>
       </c>
       <c r="F25">
         <v>45482</v>
@@ -11985,16 +11647,16 @@
         <v>45970</v>
       </c>
       <c r="H25" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I25" t="s">
-        <v>647</v>
+        <v>578</v>
       </c>
       <c r="J25" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K25" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="L25" t="s">
         <v>18</v>
@@ -12023,7 +11685,7 @@
         <v>367</v>
       </c>
       <c r="E26" t="s">
-        <v>648</v>
+        <v>579</v>
       </c>
       <c r="F26">
         <v>45482</v>
@@ -12038,10 +11700,10 @@
         <v>18</v>
       </c>
       <c r="J26" t="s">
+        <v>511</v>
+      </c>
+      <c r="K26" t="s">
         <v>580</v>
-      </c>
-      <c r="K26" t="s">
-        <v>649</v>
       </c>
       <c r="L26" t="s">
         <v>18</v>
@@ -12079,16 +11741,16 @@
         <v>45970</v>
       </c>
       <c r="H27" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="I27" t="s">
-        <v>650</v>
+        <v>581</v>
       </c>
       <c r="J27" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K27" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="L27" t="s">
         <v>18</v>
@@ -12117,7 +11779,7 @@
         <v>375</v>
       </c>
       <c r="E28" t="s">
-        <v>651</v>
+        <v>582</v>
       </c>
       <c r="F28">
         <v>45482</v>
@@ -12126,22 +11788,22 @@
         <v>45970</v>
       </c>
       <c r="H28" t="s">
+        <v>515</v>
+      </c>
+      <c r="I28" t="s">
+        <v>583</v>
+      </c>
+      <c r="J28" t="s">
+        <v>511</v>
+      </c>
+      <c r="K28" t="s">
+        <v>511</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" t="s">
         <v>584</v>
-      </c>
-      <c r="I28" t="s">
-        <v>652</v>
-      </c>
-      <c r="J28" t="s">
-        <v>580</v>
-      </c>
-      <c r="K28" t="s">
-        <v>580</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" t="s">
-        <v>653</v>
       </c>
       <c r="N28" t="s">
         <v>18</v>
@@ -12164,7 +11826,7 @@
         <v>379</v>
       </c>
       <c r="E29" t="s">
-        <v>654</v>
+        <v>585</v>
       </c>
       <c r="F29">
         <v>45482</v>
@@ -12173,22 +11835,22 @@
         <v>45970</v>
       </c>
       <c r="H29" t="s">
-        <v>655</v>
+        <v>586</v>
       </c>
       <c r="I29" t="s">
-        <v>643</v>
+        <v>574</v>
       </c>
       <c r="J29" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K29" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="L29" t="s">
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>624</v>
+        <v>555</v>
       </c>
       <c r="N29" t="s">
         <v>18</v>
@@ -12210,8 +11872,9 @@
       <c r="D30" s="2">
         <v>20</v>
       </c>
-      <c r="E30" t="s">
-        <v>18</v>
+      <c r="E30">
+        <f>SUM(C30:D30)</f>
+        <v>400</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -12249,7 +11912,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -12257,8 +11920,9 @@
       <c r="D31" s="3">
         <v>477</v>
       </c>
-      <c r="E31" t="s">
-        <v>18</v>
+      <c r="E31">
+        <f t="shared" ref="E31:E83" si="0">SUM(C31:D31)</f>
+        <v>477</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -12296,7 +11960,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -12304,8 +11968,9 @@
       <c r="D32" s="3">
         <v>376</v>
       </c>
-      <c r="E32" t="s">
-        <v>18</v>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>396</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -12343,7 +12008,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C33" s="3">
         <v>33</v>
@@ -12351,8 +12016,9 @@
       <c r="D33" s="3">
         <v>633</v>
       </c>
-      <c r="E33" t="s">
-        <v>18</v>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>666</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -12390,7 +12056,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C34" s="3">
         <v>19</v>
@@ -12398,8 +12064,9 @@
       <c r="D34" s="3">
         <v>369</v>
       </c>
-      <c r="E34" t="s">
-        <v>18</v>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>388</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -12437,7 +12104,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -12445,8 +12112,9 @@
       <c r="D35" s="3">
         <v>374</v>
       </c>
-      <c r="E35" t="s">
-        <v>18</v>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>374</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -12484,7 +12152,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C36" s="3">
         <v>149</v>
@@ -12492,8 +12160,9 @@
       <c r="D36" s="3">
         <v>2828</v>
       </c>
-      <c r="E36" t="s">
-        <v>18</v>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2977</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -12531,7 +12200,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C37" s="3">
         <v>140</v>
@@ -12539,8 +12208,9 @@
       <c r="D37" s="3">
         <v>2650</v>
       </c>
-      <c r="E37" t="s">
-        <v>18</v>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>2790</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -12578,7 +12248,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C38" s="3">
         <v>35</v>
@@ -12586,8 +12256,9 @@
       <c r="D38" s="3">
         <v>668</v>
       </c>
-      <c r="E38" t="s">
-        <v>18</v>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>703</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -12625,7 +12296,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C39" s="3">
         <v>66</v>
@@ -12633,8 +12304,9 @@
       <c r="D39" s="3">
         <v>671</v>
       </c>
-      <c r="E39" t="s">
-        <v>18</v>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>737</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -12672,7 +12344,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C40" s="3">
         <v>67</v>
@@ -12680,8 +12352,9 @@
       <c r="D40" s="3">
         <v>1263</v>
       </c>
-      <c r="E40" t="s">
-        <v>18</v>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1330</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -12719,7 +12392,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>18</v>
@@ -12727,8 +12400,9 @@
       <c r="D41" s="3">
         <v>495</v>
       </c>
-      <c r="E41" t="s">
-        <v>18</v>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>495</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -12766,7 +12440,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C42" s="3">
         <v>31</v>
@@ -12774,8 +12448,9 @@
       <c r="D42" s="3">
         <v>583</v>
       </c>
-      <c r="E42" t="s">
-        <v>18</v>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>614</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -12813,7 +12488,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C43" s="3">
         <v>31</v>
@@ -12821,8 +12496,9 @@
       <c r="D43" s="3">
         <v>593</v>
       </c>
-      <c r="E43" t="s">
-        <v>18</v>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>624</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -12860,7 +12536,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C44" s="3">
         <v>490</v>
@@ -12868,8 +12544,9 @@
       <c r="D44" s="3">
         <v>417</v>
       </c>
-      <c r="E44" t="s">
-        <v>18</v>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>907</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -12907,7 +12584,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="C45" s="3">
         <v>384</v>
@@ -12915,8 +12592,9 @@
       <c r="D45" s="3">
         <v>577</v>
       </c>
-      <c r="E45" t="s">
-        <v>18</v>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>961</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -12954,7 +12632,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C46" s="3">
         <v>467</v>
@@ -12962,8 +12640,9 @@
       <c r="D46" s="3">
         <v>58</v>
       </c>
-      <c r="E46" t="s">
-        <v>18</v>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>525</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
@@ -13001,7 +12680,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
@@ -13009,8 +12688,9 @@
       <c r="D47" s="3">
         <v>605</v>
       </c>
-      <c r="E47" t="s">
-        <v>18</v>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>605</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
@@ -13048,7 +12728,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C48" s="3">
         <v>23</v>
@@ -13056,8 +12736,9 @@
       <c r="D48" s="3">
         <v>311</v>
       </c>
-      <c r="E48" t="s">
-        <v>18</v>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>334</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -13095,7 +12776,7 @@
         <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="C49" s="3">
         <v>317</v>
@@ -13103,8 +12784,9 @@
       <c r="D49" s="3">
         <v>316</v>
       </c>
-      <c r="E49" t="s">
-        <v>18</v>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>633</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -13142,7 +12824,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="C50" s="3">
         <v>17</v>
@@ -13150,8 +12832,9 @@
       <c r="D50" s="3">
         <v>333</v>
       </c>
-      <c r="E50" t="s">
-        <v>18</v>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>350</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -13189,7 +12872,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C51" s="3">
         <v>44</v>
@@ -13197,8 +12880,9 @@
       <c r="D51" s="3">
         <v>832</v>
       </c>
-      <c r="E51" t="s">
-        <v>18</v>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>876</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -13233,10 +12917,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="C52" s="3">
         <v>41</v>
@@ -13244,8 +12928,9 @@
       <c r="D52" s="3">
         <v>1313</v>
       </c>
-      <c r="E52" t="s">
-        <v>18</v>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1354</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -13283,7 +12968,7 @@
         <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C53" s="3">
         <v>26</v>
@@ -13291,8 +12976,9 @@
       <c r="D53" s="3">
         <v>491</v>
       </c>
-      <c r="E53" t="s">
-        <v>18</v>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>517</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
@@ -13330,7 +13016,7 @@
         <v>32</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="C54" s="3">
         <v>546</v>
@@ -13338,8 +13024,9 @@
       <c r="D54" s="3">
         <v>380</v>
       </c>
-      <c r="E54" t="s">
-        <v>18</v>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>926</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
@@ -13377,7 +13064,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="C55" s="3">
         <v>1182</v>
@@ -13385,8 +13072,9 @@
       <c r="D55" s="3">
         <v>1091</v>
       </c>
-      <c r="E55" t="s">
-        <v>18</v>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>2273</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
@@ -13424,7 +13112,7 @@
         <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
@@ -13432,8 +13120,9 @@
       <c r="D56" s="3">
         <v>873</v>
       </c>
-      <c r="E56" t="s">
-        <v>18</v>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>873</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -13471,7 +13160,7 @@
         <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
@@ -13479,8 +13168,9 @@
       <c r="D57" s="3">
         <v>256</v>
       </c>
-      <c r="E57" t="s">
-        <v>18</v>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -13518,7 +13208,7 @@
         <v>32</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="C58" s="3">
         <v>24</v>
@@ -13526,8 +13216,9 @@
       <c r="D58" s="3">
         <v>464</v>
       </c>
-      <c r="E58" t="s">
-        <v>18</v>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>488</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -13565,7 +13256,7 @@
         <v>32</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="C59" s="3">
         <v>39</v>
@@ -13573,8 +13264,9 @@
       <c r="D59" s="3">
         <v>732</v>
       </c>
-      <c r="E59" t="s">
-        <v>18</v>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>771</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -13612,7 +13304,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="C60" s="3">
         <v>217</v>
@@ -13620,8 +13312,9 @@
       <c r="D60" s="3">
         <v>1950</v>
       </c>
-      <c r="E60" t="s">
-        <v>18</v>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>2167</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
@@ -13659,7 +13352,7 @@
         <v>32</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
@@ -13667,8 +13360,9 @@
       <c r="D61" s="3">
         <v>99</v>
       </c>
-      <c r="E61" t="s">
-        <v>18</v>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -13706,7 +13400,7 @@
         <v>32</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="C62" s="3">
         <v>149</v>
@@ -13714,8 +13408,9 @@
       <c r="D62" s="3">
         <v>1205</v>
       </c>
-      <c r="E62" t="s">
-        <v>18</v>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1354</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -13753,7 +13448,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="C63" s="3">
         <v>651</v>
@@ -13761,8 +13456,9 @@
       <c r="D63" s="3">
         <v>1448</v>
       </c>
-      <c r="E63" t="s">
-        <v>18</v>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>2099</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -13800,7 +13496,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="C64" s="3">
         <v>62</v>
@@ -13808,8 +13504,9 @@
       <c r="D64" s="3">
         <v>3033</v>
       </c>
-      <c r="E64" t="s">
-        <v>18</v>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>3095</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -13847,7 +13544,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="C65" s="3">
         <v>111</v>
@@ -13855,8 +13552,9 @@
       <c r="D65" s="3">
         <v>3561</v>
       </c>
-      <c r="E65" t="s">
-        <v>18</v>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>3672</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -13894,7 +13592,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="C66" s="3">
         <v>944</v>
@@ -13902,8 +13600,9 @@
       <c r="D66" s="3">
         <v>684</v>
       </c>
-      <c r="E66" t="s">
-        <v>18</v>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>1628</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -13941,7 +13640,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
@@ -13949,8 +13648,9 @@
       <c r="D67" s="3">
         <v>641</v>
       </c>
-      <c r="E67" t="s">
-        <v>18</v>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>641</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -13988,7 +13688,7 @@
         <v>48</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="C68" s="3">
         <v>115</v>
@@ -13996,8 +13696,9 @@
       <c r="D68" s="3">
         <v>1077</v>
       </c>
-      <c r="E68" t="s">
-        <v>18</v>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>1192</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -14035,7 +13736,7 @@
         <v>48</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="C69" s="3">
         <v>96</v>
@@ -14043,8 +13744,9 @@
       <c r="D69" s="3">
         <v>233</v>
       </c>
-      <c r="E69" t="s">
-        <v>18</v>
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>329</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -14082,7 +13784,7 @@
         <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="C70" s="3">
         <v>262</v>
@@ -14090,8 +13792,9 @@
       <c r="D70" s="3">
         <v>799</v>
       </c>
-      <c r="E70" t="s">
-        <v>18</v>
+      <c r="E70">
+        <f t="shared" si="0"/>
+        <v>1061</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -14129,7 +13832,7 @@
         <v>48</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>18</v>
@@ -14137,8 +13840,9 @@
       <c r="D71" s="3">
         <v>334</v>
       </c>
-      <c r="E71" t="s">
-        <v>18</v>
+      <c r="E71">
+        <f t="shared" si="0"/>
+        <v>334</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -14176,7 +13880,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
@@ -14184,8 +13888,9 @@
       <c r="D72" s="3">
         <v>487</v>
       </c>
-      <c r="E72" t="s">
-        <v>18</v>
+      <c r="E72">
+        <f t="shared" si="0"/>
+        <v>487</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -14223,7 +13928,7 @@
         <v>48</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="C73" s="3">
         <v>181</v>
@@ -14231,8 +13936,9 @@
       <c r="D73" s="3">
         <v>1838</v>
       </c>
-      <c r="E73" t="s">
-        <v>18</v>
+      <c r="E73">
+        <f t="shared" si="0"/>
+        <v>2019</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -14278,8 +13984,9 @@
       <c r="D74" s="3">
         <v>1081</v>
       </c>
-      <c r="E74" t="s">
-        <v>18</v>
+      <c r="E74">
+        <f t="shared" si="0"/>
+        <v>1215</v>
       </c>
       <c r="F74" t="s">
         <v>18</v>
@@ -14317,7 +14024,7 @@
         <v>48</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="C75" s="3">
         <v>812</v>
@@ -14325,8 +14032,9 @@
       <c r="D75" s="3">
         <v>2866</v>
       </c>
-      <c r="E75" t="s">
-        <v>18</v>
+      <c r="E75">
+        <f t="shared" si="0"/>
+        <v>3678</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
@@ -14372,8 +14080,9 @@
       <c r="D76" s="3">
         <v>1856</v>
       </c>
-      <c r="E76" t="s">
-        <v>18</v>
+      <c r="E76">
+        <f t="shared" si="0"/>
+        <v>1856</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -14411,7 +14120,7 @@
         <v>48</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>494</v>
+        <v>430</v>
       </c>
       <c r="C77" s="3">
         <v>952</v>
@@ -14419,8 +14128,9 @@
       <c r="D77" s="3">
         <v>1212</v>
       </c>
-      <c r="E77" t="s">
-        <v>18</v>
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>2164</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
@@ -14466,8 +14176,9 @@
       <c r="D78" s="3">
         <v>1083</v>
       </c>
-      <c r="E78" t="s">
-        <v>18</v>
+      <c r="E78">
+        <f t="shared" si="0"/>
+        <v>1900</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
@@ -14505,7 +14216,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="C79" s="3">
         <v>6</v>
@@ -14513,8 +14224,9 @@
       <c r="D79" s="3">
         <v>281</v>
       </c>
-      <c r="E79" t="s">
-        <v>18</v>
+      <c r="E79">
+        <f t="shared" si="0"/>
+        <v>287</v>
       </c>
       <c r="F79" t="s">
         <v>18</v>
@@ -14560,8 +14272,9 @@
       <c r="D80" s="3">
         <v>728</v>
       </c>
-      <c r="E80" t="s">
-        <v>18</v>
+      <c r="E80">
+        <f t="shared" si="0"/>
+        <v>728</v>
       </c>
       <c r="F80" t="s">
         <v>18</v>
@@ -14599,7 +14312,7 @@
         <v>48</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
@@ -14607,8 +14320,9 @@
       <c r="D81" s="3">
         <v>1057</v>
       </c>
-      <c r="E81" t="s">
-        <v>18</v>
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>1057</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
@@ -14646,7 +14360,7 @@
         <v>48</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="C82" s="3">
         <v>228</v>
@@ -14654,8 +14368,9 @@
       <c r="D82" s="3">
         <v>969</v>
       </c>
-      <c r="E82" t="s">
-        <v>18</v>
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>1197</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
@@ -14701,8 +14416,9 @@
       <c r="D83" s="3">
         <v>2477</v>
       </c>
-      <c r="E83" t="s">
-        <v>18</v>
+      <c r="E83">
+        <f t="shared" si="0"/>
+        <v>2477</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
@@ -14736,20 +14452,8 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>656</v>
-      </c>
-      <c r="B84" t="s">
-        <v>382</v>
-      </c>
-      <c r="C84" t="s">
-        <v>384</v>
-      </c>
-      <c r="D84" t="s">
-        <v>383</v>
-      </c>
       <c r="E84" t="s">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
@@ -14783,20 +14487,8 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>656</v>
-      </c>
-      <c r="B85" t="s">
-        <v>386</v>
-      </c>
-      <c r="C85" t="s">
-        <v>387</v>
-      </c>
-      <c r="D85" t="s">
-        <v>18</v>
-      </c>
       <c r="E85" t="s">
-        <v>387</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
@@ -14830,20 +14522,8 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>656</v>
-      </c>
-      <c r="B86" t="s">
-        <v>388</v>
-      </c>
-      <c r="C86" t="s">
-        <v>389</v>
-      </c>
-      <c r="D86" t="s">
-        <v>383</v>
-      </c>
       <c r="E86" t="s">
-        <v>657</v>
+        <v>18</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -14877,20 +14557,8 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>656</v>
-      </c>
-      <c r="B87" t="s">
-        <v>390</v>
-      </c>
-      <c r="C87" t="s">
-        <v>392</v>
-      </c>
-      <c r="D87" t="s">
-        <v>391</v>
-      </c>
       <c r="E87" t="s">
-        <v>658</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
@@ -14924,20 +14592,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>656</v>
-      </c>
-      <c r="B88" t="s">
-        <v>393</v>
-      </c>
-      <c r="C88" t="s">
-        <v>395</v>
-      </c>
-      <c r="D88" t="s">
-        <v>394</v>
-      </c>
       <c r="E88" t="s">
-        <v>659</v>
+        <v>18</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
@@ -14971,20 +14627,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>656</v>
-      </c>
-      <c r="B89" t="s">
-        <v>396</v>
-      </c>
-      <c r="C89" t="s">
-        <v>397</v>
-      </c>
-      <c r="D89" t="s">
-        <v>18</v>
-      </c>
       <c r="E89" t="s">
-        <v>397</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -15018,20 +14662,8 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>656</v>
-      </c>
-      <c r="B90" t="s">
-        <v>398</v>
-      </c>
-      <c r="C90" t="s">
-        <v>400</v>
-      </c>
-      <c r="D90" t="s">
-        <v>399</v>
-      </c>
       <c r="E90" t="s">
-        <v>660</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -15065,20 +14697,8 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>656</v>
-      </c>
-      <c r="B91" t="s">
-        <v>401</v>
-      </c>
-      <c r="C91" t="s">
-        <v>403</v>
-      </c>
-      <c r="D91" t="s">
-        <v>402</v>
-      </c>
       <c r="E91" t="s">
-        <v>661</v>
+        <v>18</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
@@ -15112,20 +14732,8 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>656</v>
-      </c>
-      <c r="B92" t="s">
-        <v>404</v>
-      </c>
-      <c r="C92" t="s">
-        <v>405</v>
-      </c>
-      <c r="D92" t="s">
-        <v>191</v>
-      </c>
       <c r="E92" t="s">
-        <v>662</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
         <v>18</v>
@@ -15159,20 +14767,8 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>656</v>
-      </c>
-      <c r="B93" t="s">
-        <v>406</v>
-      </c>
-      <c r="C93" t="s">
-        <v>408</v>
-      </c>
-      <c r="D93" t="s">
-        <v>407</v>
-      </c>
       <c r="E93" t="s">
-        <v>663</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
@@ -15206,20 +14802,8 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>656</v>
-      </c>
-      <c r="B94" t="s">
-        <v>409</v>
-      </c>
-      <c r="C94" t="s">
-        <v>410</v>
-      </c>
-      <c r="D94" t="s">
-        <v>85</v>
-      </c>
       <c r="E94" t="s">
-        <v>664</v>
+        <v>18</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -15253,20 +14837,8 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>656</v>
-      </c>
-      <c r="B95" t="s">
-        <v>411</v>
-      </c>
-      <c r="C95" t="s">
-        <v>412</v>
-      </c>
-      <c r="D95" t="s">
-        <v>18</v>
-      </c>
       <c r="E95" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
@@ -15300,20 +14872,8 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>656</v>
-      </c>
-      <c r="B96" t="s">
-        <v>413</v>
-      </c>
-      <c r="C96" t="s">
-        <v>414</v>
-      </c>
-      <c r="D96" t="s">
-        <v>30</v>
-      </c>
       <c r="E96" t="s">
-        <v>665</v>
+        <v>18</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -15346,21 +14906,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>656</v>
-      </c>
-      <c r="B97" t="s">
-        <v>415</v>
-      </c>
-      <c r="C97" t="s">
-        <v>416</v>
-      </c>
-      <c r="D97" t="s">
-        <v>30</v>
-      </c>
+    <row r="97" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>666</v>
+        <v>18</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
@@ -15393,21 +14941,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>656</v>
-      </c>
-      <c r="B98" t="s">
-        <v>417</v>
-      </c>
-      <c r="C98" t="s">
-        <v>419</v>
-      </c>
-      <c r="D98" t="s">
-        <v>418</v>
-      </c>
+    <row r="98" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>667</v>
+        <v>18</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -15440,21 +14976,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>656</v>
-      </c>
-      <c r="B99" t="s">
-        <v>420</v>
-      </c>
-      <c r="C99" t="s">
-        <v>422</v>
-      </c>
-      <c r="D99" t="s">
-        <v>421</v>
-      </c>
+    <row r="99" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>668</v>
+        <v>18</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
@@ -15487,21 +15011,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>656</v>
-      </c>
-      <c r="B100" t="s">
-        <v>423</v>
-      </c>
-      <c r="C100" t="s">
-        <v>332</v>
-      </c>
-      <c r="D100" t="s">
-        <v>285</v>
-      </c>
+    <row r="100" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>669</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -15534,21 +15046,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>656</v>
-      </c>
-      <c r="B101" t="s">
-        <v>424</v>
-      </c>
-      <c r="C101" t="s">
-        <v>425</v>
-      </c>
-      <c r="D101" t="s">
-        <v>18</v>
-      </c>
+    <row r="101" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>425</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -15581,21 +15081,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>656</v>
-      </c>
-      <c r="B102" t="s">
-        <v>426</v>
-      </c>
-      <c r="C102" t="s">
-        <v>427</v>
-      </c>
-      <c r="D102" t="s">
-        <v>152</v>
-      </c>
+    <row r="102" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>485</v>
+        <v>18</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
@@ -15628,21 +15116,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>656</v>
-      </c>
-      <c r="B103" t="s">
-        <v>428</v>
-      </c>
-      <c r="C103" t="s">
-        <v>430</v>
-      </c>
-      <c r="D103" t="s">
-        <v>429</v>
-      </c>
+    <row r="103" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>392</v>
+        <v>18</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
@@ -15675,21 +15151,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>656</v>
-      </c>
-      <c r="B104" t="s">
-        <v>431</v>
-      </c>
-      <c r="C104" t="s">
-        <v>432</v>
-      </c>
-      <c r="D104" t="s">
-        <v>102</v>
-      </c>
+    <row r="104" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>670</v>
+        <v>18</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
@@ -15722,21 +15186,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>656</v>
-      </c>
-      <c r="B105" t="s">
-        <v>433</v>
-      </c>
-      <c r="C105" t="s">
-        <v>434</v>
-      </c>
-      <c r="D105" t="s">
-        <v>167</v>
-      </c>
+    <row r="105" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>671</v>
+        <v>18</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -15769,21 +15221,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>672</v>
-      </c>
-      <c r="B106" t="s">
-        <v>436</v>
-      </c>
-      <c r="C106" t="s">
-        <v>438</v>
-      </c>
-      <c r="D106" t="s">
-        <v>437</v>
-      </c>
+    <row r="106" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>673</v>
+        <v>18</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -15816,21 +15256,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>674</v>
-      </c>
-      <c r="B107" t="s">
-        <v>439</v>
-      </c>
-      <c r="C107" t="s">
-        <v>441</v>
-      </c>
-      <c r="D107" t="s">
-        <v>440</v>
-      </c>
+    <row r="107" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>675</v>
+        <v>18</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
@@ -15863,21 +15291,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>674</v>
-      </c>
-      <c r="B108" t="s">
-        <v>442</v>
-      </c>
-      <c r="C108" t="s">
-        <v>384</v>
-      </c>
-      <c r="D108" t="s">
-        <v>443</v>
-      </c>
+    <row r="108" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>676</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
@@ -15910,21 +15326,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>674</v>
-      </c>
-      <c r="B109" t="s">
-        <v>444</v>
-      </c>
-      <c r="C109" t="s">
-        <v>446</v>
-      </c>
-      <c r="D109" t="s">
-        <v>445</v>
-      </c>
+    <row r="109" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>677</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
@@ -15957,21 +15361,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>674</v>
-      </c>
-      <c r="B110" t="s">
-        <v>447</v>
-      </c>
-      <c r="C110" t="s">
-        <v>448</v>
-      </c>
-      <c r="D110" t="s">
-        <v>18</v>
-      </c>
+    <row r="110" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>448</v>
+        <v>18</v>
       </c>
       <c r="F110" t="s">
         <v>18</v>
@@ -16004,21 +15396,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>674</v>
-      </c>
-      <c r="B111" t="s">
-        <v>449</v>
-      </c>
-      <c r="C111" t="s">
-        <v>450</v>
-      </c>
-      <c r="D111" t="s">
-        <v>18</v>
-      </c>
+    <row r="111" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>678</v>
+        <v>18</v>
       </c>
       <c r="F111" t="s">
         <v>18</v>
@@ -16051,21 +15431,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>674</v>
-      </c>
-      <c r="B112" t="s">
-        <v>451</v>
-      </c>
-      <c r="C112" t="s">
-        <v>453</v>
-      </c>
-      <c r="D112" t="s">
-        <v>452</v>
-      </c>
+    <row r="112" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>679</v>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
@@ -16098,21 +15466,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>674</v>
-      </c>
-      <c r="B113" t="s">
-        <v>454</v>
-      </c>
-      <c r="C113" t="s">
-        <v>455</v>
-      </c>
-      <c r="D113" t="s">
-        <v>198</v>
-      </c>
+    <row r="113" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>680</v>
+        <v>18</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
@@ -16145,21 +15501,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>674</v>
-      </c>
-      <c r="B114" t="s">
-        <v>456</v>
-      </c>
-      <c r="C114" t="s">
-        <v>458</v>
-      </c>
-      <c r="D114" t="s">
-        <v>457</v>
-      </c>
+    <row r="114" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>681</v>
+        <v>18</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
@@ -16192,21 +15536,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>674</v>
-      </c>
-      <c r="B115" t="s">
-        <v>459</v>
-      </c>
-      <c r="C115" t="s">
-        <v>460</v>
-      </c>
-      <c r="D115" t="s">
-        <v>18</v>
-      </c>
+    <row r="115" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>682</v>
+        <v>18</v>
       </c>
       <c r="F115" t="s">
         <v>18</v>
@@ -16239,21 +15571,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>674</v>
-      </c>
-      <c r="B116" t="s">
-        <v>461</v>
-      </c>
-      <c r="C116" t="s">
-        <v>462</v>
-      </c>
-      <c r="D116" t="s">
-        <v>399</v>
-      </c>
+    <row r="116" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>673</v>
+        <v>18</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
@@ -16286,21 +15606,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>683</v>
-      </c>
-      <c r="B117" t="s">
-        <v>463</v>
-      </c>
-      <c r="C117" t="s">
-        <v>465</v>
-      </c>
-      <c r="D117" t="s">
-        <v>464</v>
-      </c>
+    <row r="117" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>684</v>
+        <v>18</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
@@ -16333,21 +15641,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>683</v>
-      </c>
-      <c r="B118" t="s">
-        <v>466</v>
-      </c>
-      <c r="C118" t="s">
-        <v>467</v>
-      </c>
-      <c r="D118" t="s">
-        <v>58</v>
-      </c>
+    <row r="118" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>685</v>
+        <v>18</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
@@ -16380,21 +15676,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>683</v>
-      </c>
-      <c r="B119" t="s">
-        <v>468</v>
-      </c>
-      <c r="C119" t="s">
-        <v>469</v>
-      </c>
-      <c r="D119" t="s">
-        <v>299</v>
-      </c>
+    <row r="119" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>686</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
@@ -16427,21 +15711,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>687</v>
-      </c>
-      <c r="B120" t="s">
-        <v>470</v>
-      </c>
-      <c r="C120" t="s">
-        <v>472</v>
-      </c>
-      <c r="D120" t="s">
-        <v>471</v>
-      </c>
+    <row r="120" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>688</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
@@ -16474,21 +15746,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>687</v>
-      </c>
-      <c r="B121" t="s">
-        <v>473</v>
-      </c>
-      <c r="C121" t="s">
-        <v>474</v>
-      </c>
-      <c r="D121" t="s">
-        <v>18</v>
-      </c>
+    <row r="121" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>474</v>
+        <v>18</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
@@ -16521,21 +15781,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>687</v>
-      </c>
-      <c r="B122" t="s">
-        <v>475</v>
-      </c>
-      <c r="C122" t="s">
-        <v>477</v>
-      </c>
-      <c r="D122" t="s">
-        <v>476</v>
-      </c>
+    <row r="122" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>689</v>
+        <v>18</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
@@ -16568,21 +15816,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>687</v>
-      </c>
-      <c r="B123" t="s">
-        <v>478</v>
-      </c>
-      <c r="C123" t="s">
-        <v>480</v>
-      </c>
-      <c r="D123" t="s">
-        <v>479</v>
-      </c>
+    <row r="123" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>690</v>
+        <v>18</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
@@ -16615,21 +15851,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>687</v>
-      </c>
-      <c r="B124" t="s">
-        <v>481</v>
-      </c>
-      <c r="C124" t="s">
-        <v>483</v>
-      </c>
-      <c r="D124" t="s">
-        <v>482</v>
-      </c>
+    <row r="124" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>691</v>
+        <v>18</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
@@ -16662,21 +15886,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>687</v>
-      </c>
-      <c r="B125" t="s">
-        <v>484</v>
-      </c>
-      <c r="C125" t="s">
-        <v>485</v>
-      </c>
-      <c r="D125" t="s">
-        <v>18</v>
-      </c>
+    <row r="125" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>485</v>
+        <v>18</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
@@ -16709,21 +15921,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>687</v>
-      </c>
-      <c r="B126" t="s">
-        <v>486</v>
-      </c>
-      <c r="C126" t="s">
-        <v>487</v>
-      </c>
-      <c r="D126" t="s">
-        <v>18</v>
-      </c>
+    <row r="126" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>487</v>
+        <v>18</v>
       </c>
       <c r="F126" t="s">
         <v>18</v>
@@ -16756,21 +15956,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>687</v>
-      </c>
-      <c r="B127" t="s">
-        <v>488</v>
-      </c>
-      <c r="C127" t="s">
-        <v>490</v>
-      </c>
-      <c r="D127" t="s">
-        <v>489</v>
-      </c>
+    <row r="127" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>692</v>
+        <v>18</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -16803,21 +15991,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>687</v>
-      </c>
-      <c r="B128" t="s">
-        <v>56</v>
-      </c>
-      <c r="C128" t="s">
-        <v>693</v>
-      </c>
-      <c r="D128" t="s">
-        <v>340</v>
-      </c>
+    <row r="128" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>694</v>
+        <v>18</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
@@ -16850,21 +16026,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>687</v>
-      </c>
-      <c r="B129" t="s">
-        <v>491</v>
-      </c>
-      <c r="C129" t="s">
-        <v>493</v>
-      </c>
-      <c r="D129" t="s">
-        <v>492</v>
-      </c>
+    <row r="129" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>695</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -16897,21 +16061,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>687</v>
-      </c>
-      <c r="B130" t="s">
-        <v>71</v>
-      </c>
-      <c r="C130" t="s">
-        <v>696</v>
-      </c>
-      <c r="D130" t="s">
-        <v>18</v>
-      </c>
+    <row r="130" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>696</v>
+        <v>18</v>
       </c>
       <c r="F130" t="s">
         <v>18</v>
@@ -16944,21 +16096,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>687</v>
-      </c>
-      <c r="B131" t="s">
-        <v>494</v>
-      </c>
-      <c r="C131" t="s">
-        <v>495</v>
-      </c>
-      <c r="D131" t="s">
-        <v>374</v>
-      </c>
+    <row r="131" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>697</v>
+        <v>18</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -16991,21 +16131,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>687</v>
-      </c>
-      <c r="B132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C132" t="s">
-        <v>698</v>
-      </c>
-      <c r="D132" t="s">
-        <v>699</v>
-      </c>
+    <row r="132" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>700</v>
+        <v>18</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -17038,21 +16166,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>687</v>
-      </c>
-      <c r="B133" t="s">
-        <v>496</v>
-      </c>
-      <c r="C133" t="s">
-        <v>497</v>
-      </c>
-      <c r="D133" t="s">
-        <v>162</v>
-      </c>
+    <row r="133" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>701</v>
+        <v>18</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
@@ -17085,21 +16201,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>687</v>
-      </c>
-      <c r="B134" t="s">
-        <v>87</v>
-      </c>
-      <c r="C134" t="s">
-        <v>702</v>
-      </c>
-      <c r="D134" t="s">
-        <v>18</v>
-      </c>
+    <row r="134" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>702</v>
+        <v>18</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -17132,21 +16236,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>687</v>
-      </c>
-      <c r="B135" t="s">
-        <v>498</v>
-      </c>
-      <c r="C135" t="s">
-        <v>499</v>
-      </c>
-      <c r="D135" t="s">
-        <v>18</v>
-      </c>
+    <row r="135" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>499</v>
+        <v>18</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
@@ -17179,21 +16271,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>687</v>
-      </c>
-      <c r="B136" t="s">
-        <v>500</v>
-      </c>
-      <c r="C136" t="s">
-        <v>502</v>
-      </c>
-      <c r="D136" t="s">
-        <v>501</v>
-      </c>
+    <row r="136" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>703</v>
+        <v>18</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
@@ -17226,22 +16306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>687</v>
-      </c>
-      <c r="B137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" t="s">
-        <v>704</v>
-      </c>
-      <c r="D137" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137" t="s">
-        <v>704</v>
-      </c>
+    <row r="137" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
         <v>18</v>
       </c>
@@ -17273,22 +16338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" t="s">
-        <v>386</v>
-      </c>
-      <c r="C138" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" t="s">
-        <v>387</v>
-      </c>
-      <c r="E138" t="s">
-        <v>18</v>
-      </c>
+    <row r="138" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
         <v>18</v>
       </c>
@@ -17320,22 +16370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" t="s">
-        <v>388</v>
-      </c>
-      <c r="C139" t="s">
-        <v>383</v>
-      </c>
-      <c r="D139" t="s">
-        <v>389</v>
-      </c>
-      <c r="E139" t="s">
-        <v>18</v>
-      </c>
+    <row r="139" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F139" t="s">
         <v>18</v>
       </c>
@@ -17367,22 +16402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" t="s">
-        <v>390</v>
-      </c>
-      <c r="C140" t="s">
-        <v>391</v>
-      </c>
-      <c r="D140" t="s">
-        <v>392</v>
-      </c>
-      <c r="E140" t="s">
-        <v>18</v>
-      </c>
+    <row r="140" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
         <v>18</v>
       </c>
@@ -17414,22 +16434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" t="s">
-        <v>393</v>
-      </c>
-      <c r="C141" t="s">
-        <v>394</v>
-      </c>
-      <c r="D141" t="s">
-        <v>395</v>
-      </c>
-      <c r="E141" t="s">
-        <v>18</v>
-      </c>
+    <row r="141" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
         <v>18</v>
       </c>
@@ -17461,22 +16466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" t="s">
-        <v>396</v>
-      </c>
-      <c r="C142" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" t="s">
-        <v>397</v>
-      </c>
-      <c r="E142" t="s">
-        <v>18</v>
-      </c>
+    <row r="142" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
         <v>18</v>
       </c>
@@ -17508,22 +16498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>14</v>
-      </c>
-      <c r="B143" t="s">
-        <v>398</v>
-      </c>
-      <c r="C143" t="s">
-        <v>399</v>
-      </c>
-      <c r="D143" t="s">
-        <v>400</v>
-      </c>
-      <c r="E143" t="s">
-        <v>18</v>
-      </c>
+    <row r="143" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
         <v>18</v>
       </c>
@@ -17555,22 +16530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>14</v>
-      </c>
-      <c r="B144" t="s">
-        <v>401</v>
-      </c>
-      <c r="C144" t="s">
-        <v>402</v>
-      </c>
-      <c r="D144" t="s">
-        <v>403</v>
-      </c>
-      <c r="E144" t="s">
-        <v>18</v>
-      </c>
+    <row r="144" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
         <v>18</v>
       </c>
@@ -17602,22 +16562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" t="s">
-        <v>404</v>
-      </c>
-      <c r="C145" t="s">
-        <v>191</v>
-      </c>
-      <c r="D145" t="s">
-        <v>405</v>
-      </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
+    <row r="145" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
         <v>18</v>
       </c>
@@ -17649,22 +16594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" t="s">
-        <v>406</v>
-      </c>
-      <c r="C146" t="s">
-        <v>407</v>
-      </c>
-      <c r="D146" t="s">
-        <v>408</v>
-      </c>
-      <c r="E146" t="s">
-        <v>18</v>
-      </c>
+    <row r="146" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>18</v>
       </c>
@@ -17696,22 +16626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B147" t="s">
-        <v>409</v>
-      </c>
-      <c r="C147" t="s">
-        <v>85</v>
-      </c>
-      <c r="D147" t="s">
-        <v>410</v>
-      </c>
-      <c r="E147" t="s">
-        <v>18</v>
-      </c>
+    <row r="147" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
         <v>18</v>
       </c>
@@ -17743,22 +16658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>14</v>
-      </c>
-      <c r="B148" t="s">
-        <v>411</v>
-      </c>
-      <c r="C148" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" t="s">
-        <v>412</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
+    <row r="148" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
         <v>18</v>
       </c>
@@ -17790,22 +16690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" t="s">
-        <v>413</v>
-      </c>
-      <c r="C149" t="s">
-        <v>30</v>
-      </c>
-      <c r="D149" t="s">
-        <v>414</v>
-      </c>
-      <c r="E149" t="s">
-        <v>18</v>
-      </c>
+    <row r="149" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
         <v>18</v>
       </c>
@@ -17837,22 +16722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150" t="s">
-        <v>415</v>
-      </c>
-      <c r="C150" t="s">
-        <v>30</v>
-      </c>
-      <c r="D150" t="s">
-        <v>416</v>
-      </c>
-      <c r="E150" t="s">
-        <v>18</v>
-      </c>
+    <row r="150" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
         <v>18</v>
       </c>
@@ -17884,22 +16754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" t="s">
-        <v>417</v>
-      </c>
-      <c r="C151" t="s">
-        <v>418</v>
-      </c>
-      <c r="D151" t="s">
-        <v>419</v>
-      </c>
-      <c r="E151" t="s">
-        <v>18</v>
-      </c>
+    <row r="151" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
         <v>18</v>
       </c>
@@ -17931,22 +16786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" t="s">
-        <v>420</v>
-      </c>
-      <c r="C152" t="s">
-        <v>421</v>
-      </c>
-      <c r="D152" t="s">
-        <v>422</v>
-      </c>
-      <c r="E152" t="s">
-        <v>18</v>
-      </c>
+    <row r="152" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F152" t="s">
         <v>18</v>
       </c>
@@ -17978,22 +16818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" t="s">
-        <v>423</v>
-      </c>
-      <c r="C153" t="s">
-        <v>285</v>
-      </c>
-      <c r="D153" t="s">
-        <v>332</v>
-      </c>
-      <c r="E153" t="s">
-        <v>18</v>
-      </c>
+    <row r="153" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
         <v>18</v>
       </c>
@@ -18025,22 +16850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154" t="s">
-        <v>424</v>
-      </c>
-      <c r="C154" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154" t="s">
-        <v>425</v>
-      </c>
-      <c r="E154" t="s">
-        <v>18</v>
-      </c>
+    <row r="154" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
         <v>18</v>
       </c>
@@ -18072,22 +16882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" t="s">
-        <v>426</v>
-      </c>
-      <c r="C155" t="s">
-        <v>152</v>
-      </c>
-      <c r="D155" t="s">
-        <v>427</v>
-      </c>
-      <c r="E155" t="s">
-        <v>18</v>
-      </c>
+    <row r="155" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
         <v>18</v>
       </c>
@@ -18119,22 +16914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" t="s">
-        <v>428</v>
-      </c>
-      <c r="C156" t="s">
-        <v>429</v>
-      </c>
-      <c r="D156" t="s">
-        <v>430</v>
-      </c>
-      <c r="E156" t="s">
-        <v>18</v>
-      </c>
+    <row r="156" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
         <v>18</v>
       </c>
@@ -18166,22 +16946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" t="s">
-        <v>431</v>
-      </c>
-      <c r="C157" t="s">
-        <v>102</v>
-      </c>
-      <c r="D157" t="s">
-        <v>432</v>
-      </c>
-      <c r="E157" t="s">
-        <v>18</v>
-      </c>
+    <row r="157" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
         <v>18</v>
       </c>
@@ -18213,22 +16978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" t="s">
-        <v>433</v>
-      </c>
-      <c r="C158" t="s">
-        <v>167</v>
-      </c>
-      <c r="D158" t="s">
-        <v>434</v>
-      </c>
-      <c r="E158" t="s">
-        <v>18</v>
-      </c>
+    <row r="158" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
         <v>18</v>
       </c>
@@ -18260,22 +17010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>435</v>
-      </c>
-      <c r="B159" t="s">
-        <v>436</v>
-      </c>
-      <c r="C159" t="s">
-        <v>437</v>
-      </c>
-      <c r="D159" t="s">
-        <v>438</v>
-      </c>
-      <c r="E159" t="s">
-        <v>18</v>
-      </c>
+    <row r="159" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
         <v>18</v>
       </c>
@@ -18307,22 +17042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>32</v>
-      </c>
-      <c r="B160" t="s">
-        <v>439</v>
-      </c>
-      <c r="C160" t="s">
-        <v>440</v>
-      </c>
-      <c r="D160" t="s">
-        <v>441</v>
-      </c>
-      <c r="E160" t="s">
-        <v>18</v>
-      </c>
+    <row r="160" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
         <v>18</v>
       </c>
@@ -18354,22 +17074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>32</v>
-      </c>
-      <c r="B161" t="s">
-        <v>442</v>
-      </c>
-      <c r="C161" t="s">
-        <v>443</v>
-      </c>
-      <c r="D161" t="s">
-        <v>384</v>
-      </c>
-      <c r="E161" t="s">
-        <v>18</v>
-      </c>
+    <row r="161" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
         <v>18</v>
       </c>
@@ -18401,22 +17106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>32</v>
-      </c>
-      <c r="B162" t="s">
-        <v>444</v>
-      </c>
-      <c r="C162" t="s">
-        <v>445</v>
-      </c>
-      <c r="D162" t="s">
-        <v>446</v>
-      </c>
-      <c r="E162" t="s">
-        <v>18</v>
-      </c>
+    <row r="162" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
         <v>18</v>
       </c>
@@ -18448,22 +17138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163" t="s">
-        <v>447</v>
-      </c>
-      <c r="C163" t="s">
-        <v>18</v>
-      </c>
-      <c r="D163" t="s">
-        <v>448</v>
-      </c>
-      <c r="E163" t="s">
-        <v>18</v>
-      </c>
+    <row r="163" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F163" t="s">
         <v>18</v>
       </c>
@@ -18495,22 +17170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>32</v>
-      </c>
-      <c r="B164" t="s">
-        <v>449</v>
-      </c>
-      <c r="C164" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" t="s">
-        <v>450</v>
-      </c>
-      <c r="E164" t="s">
-        <v>18</v>
-      </c>
+    <row r="164" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
         <v>18</v>
       </c>
@@ -18542,22 +17202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" t="s">
-        <v>451</v>
-      </c>
-      <c r="C165" t="s">
-        <v>452</v>
-      </c>
-      <c r="D165" t="s">
-        <v>453</v>
-      </c>
-      <c r="E165" t="s">
-        <v>18</v>
-      </c>
+    <row r="165" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F165" t="s">
         <v>18</v>
       </c>
@@ -18589,22 +17234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" t="s">
-        <v>454</v>
-      </c>
-      <c r="C166" t="s">
-        <v>198</v>
-      </c>
-      <c r="D166" t="s">
-        <v>455</v>
-      </c>
-      <c r="E166" t="s">
-        <v>18</v>
-      </c>
+    <row r="166" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
         <v>18</v>
       </c>
@@ -18636,22 +17266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>32</v>
-      </c>
-      <c r="B167" t="s">
-        <v>456</v>
-      </c>
-      <c r="C167" t="s">
-        <v>457</v>
-      </c>
-      <c r="D167" t="s">
-        <v>458</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
+    <row r="167" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F167" t="s">
         <v>18</v>
       </c>
@@ -18683,22 +17298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>32</v>
-      </c>
-      <c r="B168" t="s">
-        <v>459</v>
-      </c>
-      <c r="C168" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" t="s">
-        <v>460</v>
-      </c>
-      <c r="E168" t="s">
-        <v>18</v>
-      </c>
+    <row r="168" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F168" t="s">
         <v>18</v>
       </c>
@@ -18730,22 +17330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>32</v>
-      </c>
-      <c r="B169" t="s">
-        <v>461</v>
-      </c>
-      <c r="C169" t="s">
-        <v>399</v>
-      </c>
-      <c r="D169" t="s">
-        <v>462</v>
-      </c>
-      <c r="E169" t="s">
-        <v>18</v>
-      </c>
+    <row r="169" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F169" t="s">
         <v>18</v>
       </c>
@@ -18777,22 +17362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>99</v>
-      </c>
-      <c r="B170" t="s">
-        <v>463</v>
-      </c>
-      <c r="C170" t="s">
-        <v>464</v>
-      </c>
-      <c r="D170" t="s">
-        <v>465</v>
-      </c>
-      <c r="E170" t="s">
-        <v>18</v>
-      </c>
+    <row r="170" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
         <v>18</v>
       </c>
@@ -18824,22 +17394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>99</v>
-      </c>
-      <c r="B171" t="s">
-        <v>466</v>
-      </c>
-      <c r="C171" t="s">
-        <v>58</v>
-      </c>
-      <c r="D171" t="s">
-        <v>467</v>
-      </c>
-      <c r="E171" t="s">
-        <v>18</v>
-      </c>
+    <row r="171" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
         <v>18</v>
       </c>
@@ -18871,22 +17426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>99</v>
-      </c>
-      <c r="B172" t="s">
-        <v>468</v>
-      </c>
-      <c r="C172" t="s">
-        <v>299</v>
-      </c>
-      <c r="D172" t="s">
-        <v>469</v>
-      </c>
-      <c r="E172" t="s">
-        <v>18</v>
-      </c>
+    <row r="172" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
         <v>18</v>
       </c>
@@ -18918,22 +17458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>48</v>
-      </c>
-      <c r="B173" t="s">
-        <v>470</v>
-      </c>
-      <c r="C173" t="s">
-        <v>471</v>
-      </c>
-      <c r="D173" t="s">
-        <v>472</v>
-      </c>
-      <c r="E173" t="s">
-        <v>18</v>
-      </c>
+    <row r="173" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
         <v>18</v>
       </c>
@@ -18965,22 +17490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>48</v>
-      </c>
-      <c r="B174" t="s">
-        <v>473</v>
-      </c>
-      <c r="C174" t="s">
-        <v>18</v>
-      </c>
-      <c r="D174" t="s">
-        <v>474</v>
-      </c>
-      <c r="E174" t="s">
-        <v>18</v>
-      </c>
+    <row r="174" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
         <v>18</v>
       </c>
@@ -19012,22 +17522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>48</v>
-      </c>
-      <c r="B175" t="s">
-        <v>475</v>
-      </c>
-      <c r="C175" t="s">
-        <v>476</v>
-      </c>
-      <c r="D175" t="s">
-        <v>477</v>
-      </c>
-      <c r="E175" t="s">
-        <v>18</v>
-      </c>
+    <row r="175" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F175" t="s">
         <v>18</v>
       </c>
@@ -19059,22 +17554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>48</v>
-      </c>
-      <c r="B176" t="s">
-        <v>478</v>
-      </c>
-      <c r="C176" t="s">
-        <v>479</v>
-      </c>
-      <c r="D176" t="s">
-        <v>480</v>
-      </c>
-      <c r="E176" t="s">
-        <v>18</v>
-      </c>
+    <row r="176" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F176" t="s">
         <v>18</v>
       </c>
@@ -19106,22 +17586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>48</v>
-      </c>
-      <c r="B177" t="s">
-        <v>481</v>
-      </c>
-      <c r="C177" t="s">
-        <v>482</v>
-      </c>
-      <c r="D177" t="s">
-        <v>483</v>
-      </c>
-      <c r="E177" t="s">
-        <v>18</v>
-      </c>
+    <row r="177" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
         <v>18</v>
       </c>
@@ -19153,22 +17618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>48</v>
-      </c>
-      <c r="B178" t="s">
-        <v>484</v>
-      </c>
-      <c r="C178" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" t="s">
-        <v>485</v>
-      </c>
-      <c r="E178" t="s">
-        <v>18</v>
-      </c>
+    <row r="178" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
         <v>18</v>
       </c>
@@ -19200,22 +17650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>48</v>
-      </c>
-      <c r="B179" t="s">
-        <v>486</v>
-      </c>
-      <c r="C179" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" t="s">
-        <v>487</v>
-      </c>
-      <c r="E179" t="s">
-        <v>18</v>
-      </c>
+    <row r="179" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F179" t="s">
         <v>18</v>
       </c>
@@ -19247,22 +17682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>48</v>
-      </c>
-      <c r="B180" t="s">
-        <v>488</v>
-      </c>
-      <c r="C180" t="s">
-        <v>489</v>
-      </c>
-      <c r="D180" t="s">
-        <v>490</v>
-      </c>
-      <c r="E180" t="s">
-        <v>18</v>
-      </c>
+    <row r="180" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
         <v>18</v>
       </c>
@@ -19294,22 +17714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181" t="s">
-        <v>56</v>
-      </c>
-      <c r="C181" t="s">
-        <v>340</v>
-      </c>
-      <c r="D181" t="s">
-        <v>693</v>
-      </c>
-      <c r="E181" t="s">
-        <v>18</v>
-      </c>
+    <row r="181" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F181" t="s">
         <v>18</v>
       </c>
@@ -19341,22 +17746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>48</v>
-      </c>
-      <c r="B182" t="s">
-        <v>491</v>
-      </c>
-      <c r="C182" t="s">
-        <v>492</v>
-      </c>
-      <c r="D182" t="s">
-        <v>493</v>
-      </c>
-      <c r="E182" t="s">
-        <v>18</v>
-      </c>
+    <row r="182" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
         <v>18</v>
       </c>
@@ -19388,22 +17778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>48</v>
-      </c>
-      <c r="B183" t="s">
-        <v>71</v>
-      </c>
-      <c r="C183" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" t="s">
-        <v>696</v>
-      </c>
-      <c r="E183" t="s">
-        <v>18</v>
-      </c>
+    <row r="183" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
         <v>18</v>
       </c>
@@ -19435,22 +17810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>48</v>
-      </c>
-      <c r="B184" t="s">
-        <v>494</v>
-      </c>
-      <c r="C184" t="s">
-        <v>374</v>
-      </c>
-      <c r="D184" t="s">
-        <v>495</v>
-      </c>
-      <c r="E184" t="s">
-        <v>18</v>
-      </c>
+    <row r="184" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F184" t="s">
         <v>18</v>
       </c>
@@ -19482,22 +17842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>48</v>
-      </c>
-      <c r="B185" t="s">
-        <v>74</v>
-      </c>
-      <c r="C185" t="s">
-        <v>699</v>
-      </c>
-      <c r="D185" t="s">
-        <v>698</v>
-      </c>
-      <c r="E185" t="s">
-        <v>18</v>
-      </c>
+    <row r="185" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
         <v>18</v>
       </c>
@@ -19529,22 +17874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>48</v>
-      </c>
-      <c r="B186" t="s">
-        <v>496</v>
-      </c>
-      <c r="C186" t="s">
-        <v>162</v>
-      </c>
-      <c r="D186" t="s">
-        <v>497</v>
-      </c>
-      <c r="E186" t="s">
-        <v>18</v>
-      </c>
+    <row r="186" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F186" t="s">
         <v>18</v>
       </c>
@@ -19576,22 +17906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>48</v>
-      </c>
-      <c r="B187" t="s">
-        <v>87</v>
-      </c>
-      <c r="C187" t="s">
-        <v>18</v>
-      </c>
-      <c r="D187" t="s">
-        <v>702</v>
-      </c>
-      <c r="E187" t="s">
-        <v>18</v>
-      </c>
+    <row r="187" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
         <v>18</v>
       </c>
@@ -19623,22 +17938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>48</v>
-      </c>
-      <c r="B188" t="s">
-        <v>498</v>
-      </c>
-      <c r="C188" t="s">
-        <v>18</v>
-      </c>
-      <c r="D188" t="s">
-        <v>499</v>
-      </c>
-      <c r="E188" t="s">
-        <v>18</v>
-      </c>
+    <row r="188" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
         <v>18</v>
       </c>
@@ -19670,22 +17970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>48</v>
-      </c>
-      <c r="B189" t="s">
-        <v>500</v>
-      </c>
-      <c r="C189" t="s">
-        <v>501</v>
-      </c>
-      <c r="D189" t="s">
-        <v>502</v>
-      </c>
-      <c r="E189" t="s">
-        <v>18</v>
-      </c>
+    <row r="189" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F189" t="s">
         <v>18</v>
       </c>
@@ -19717,22 +18002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>48</v>
-      </c>
-      <c r="B190" t="s">
-        <v>93</v>
-      </c>
-      <c r="C190" t="s">
-        <v>18</v>
-      </c>
-      <c r="D190" t="s">
-        <v>704</v>
-      </c>
-      <c r="E190" t="s">
-        <v>18</v>
-      </c>
+    <row r="190" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
         <v>18</v>
       </c>
@@ -19767,7 +18037,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:O29 A84:O190 E30:O83" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:O29 F31:O83 E84:E136 F84:O190 F30:O30" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -19782,610 +18052,610 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>705</v>
+        <v>587</v>
       </c>
       <c r="B1" t="s">
-        <v>706</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>707</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>709</v>
+        <v>591</v>
       </c>
       <c r="B3" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>710</v>
+        <v>592</v>
       </c>
       <c r="B4" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>711</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>712</v>
+        <v>594</v>
       </c>
       <c r="B6" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>713</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>714</v>
+        <v>596</v>
       </c>
       <c r="B8" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>715</v>
+        <v>597</v>
       </c>
       <c r="B9" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>716</v>
+        <v>598</v>
       </c>
       <c r="B10" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>717</v>
+        <v>599</v>
       </c>
       <c r="B11" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>718</v>
+        <v>600</v>
       </c>
       <c r="B12" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>719</v>
+        <v>601</v>
       </c>
       <c r="B13" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>720</v>
+        <v>602</v>
       </c>
       <c r="B14" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>721</v>
+        <v>603</v>
       </c>
       <c r="B15" t="s">
-        <v>708</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>722</v>
+        <v>604</v>
       </c>
       <c r="B16" t="s">
-        <v>723</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>724</v>
+        <v>606</v>
       </c>
       <c r="B17" t="s">
-        <v>723</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>725</v>
+        <v>607</v>
       </c>
       <c r="B18" t="s">
-        <v>723</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>726</v>
+        <v>608</v>
       </c>
       <c r="B19" t="s">
-        <v>723</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>727</v>
+        <v>609</v>
       </c>
       <c r="B20" t="s">
-        <v>723</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>728</v>
+        <v>610</v>
       </c>
       <c r="B21" t="s">
-        <v>729</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>730</v>
+        <v>612</v>
       </c>
       <c r="B22" t="s">
-        <v>729</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>731</v>
+        <v>613</v>
       </c>
       <c r="B23" t="s">
-        <v>729</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>732</v>
+        <v>614</v>
       </c>
       <c r="B24" t="s">
-        <v>729</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>733</v>
+        <v>615</v>
       </c>
       <c r="B25" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>735</v>
+        <v>617</v>
       </c>
       <c r="B26" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>736</v>
+        <v>618</v>
       </c>
       <c r="B27" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>737</v>
+        <v>619</v>
       </c>
       <c r="B28" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>738</v>
+        <v>620</v>
       </c>
       <c r="B29" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>739</v>
+        <v>621</v>
       </c>
       <c r="B30" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>740</v>
+        <v>622</v>
       </c>
       <c r="B31" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>741</v>
+        <v>623</v>
       </c>
       <c r="B32" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>742</v>
+        <v>624</v>
       </c>
       <c r="B33" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>744</v>
+        <v>626</v>
       </c>
       <c r="B34" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>745</v>
+        <v>627</v>
       </c>
       <c r="B35" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>746</v>
+        <v>628</v>
       </c>
       <c r="B36" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>747</v>
+        <v>629</v>
       </c>
       <c r="B37" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>748</v>
+        <v>630</v>
       </c>
       <c r="B38" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>749</v>
+        <v>631</v>
       </c>
       <c r="B39" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>750</v>
+        <v>632</v>
       </c>
       <c r="B40" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>751</v>
+        <v>633</v>
       </c>
       <c r="B41" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>752</v>
+        <v>634</v>
       </c>
       <c r="B42" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>753</v>
+        <v>635</v>
       </c>
       <c r="B43" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>754</v>
+        <v>636</v>
       </c>
       <c r="B44" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>755</v>
+        <v>637</v>
       </c>
       <c r="B45" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>756</v>
+        <v>638</v>
       </c>
       <c r="B46" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>757</v>
+        <v>639</v>
       </c>
       <c r="B47" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>758</v>
+        <v>640</v>
       </c>
       <c r="B48" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>759</v>
+        <v>641</v>
       </c>
       <c r="B49" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>760</v>
+        <v>642</v>
       </c>
       <c r="B50" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>762</v>
+        <v>644</v>
       </c>
       <c r="B51" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>763</v>
+        <v>645</v>
       </c>
       <c r="B52" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>764</v>
+        <v>646</v>
       </c>
       <c r="B53" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>765</v>
+        <v>647</v>
       </c>
       <c r="B54" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>766</v>
+        <v>648</v>
       </c>
       <c r="B55" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>767</v>
+        <v>649</v>
       </c>
       <c r="B56" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>768</v>
+        <v>650</v>
       </c>
       <c r="B57" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>769</v>
+        <v>651</v>
       </c>
       <c r="B58" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>770</v>
+        <v>652</v>
       </c>
       <c r="B59" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>771</v>
+        <v>653</v>
       </c>
       <c r="B60" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>772</v>
+        <v>654</v>
       </c>
       <c r="B61" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>773</v>
+        <v>655</v>
       </c>
       <c r="B62" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>774</v>
+        <v>656</v>
       </c>
       <c r="B63" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>775</v>
+        <v>657</v>
       </c>
       <c r="B64" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>776</v>
+        <v>658</v>
       </c>
       <c r="B65" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>777</v>
+        <v>659</v>
       </c>
       <c r="B66" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>778</v>
+        <v>660</v>
       </c>
       <c r="B67" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>779</v>
+        <v>661</v>
       </c>
       <c r="B68" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>780</v>
+        <v>662</v>
       </c>
       <c r="B69" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>781</v>
+        <v>663</v>
       </c>
       <c r="B70" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>782</v>
+        <v>664</v>
       </c>
       <c r="B71" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>783</v>
+        <v>665</v>
       </c>
       <c r="B72" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>784</v>
+        <v>666</v>
       </c>
       <c r="B73" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>785</v>
+        <v>667</v>
       </c>
       <c r="B74" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>786</v>
+        <v>668</v>
       </c>
       <c r="B75" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>787</v>
+        <v>669</v>
       </c>
       <c r="B76" t="s">
-        <v>761</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -20406,7 +18676,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>788</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -20421,7 +18691,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -20431,7 +18701,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -20492,7 +18762,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>789</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -20502,7 +18772,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -20517,7 +18787,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -20538,13 +18808,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>571</v>
+        <v>502</v>
       </c>
       <c r="B1" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="C1" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -20552,30 +18822,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="C2" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="D2" t="s">
-        <v>790</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>649</v>
+        <v>580</v>
       </c>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>580</v>
       </c>
       <c r="C3" t="s">
-        <v>649</v>
+        <v>580</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -20586,10 +18856,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="D4" t="s">
-        <v>791</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -20600,10 +18870,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>792</v>
+        <v>674</v>
       </c>
       <c r="D5" t="s">
-        <v>793</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -20614,10 +18884,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="D6" t="s">
-        <v>794</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -20631,7 +18901,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>795</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -20645,7 +18915,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>796</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -20673,7 +18943,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>513</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -20687,7 +18957,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -20701,7 +18971,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>797</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -20729,7 +18999,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>798</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -20855,7 +19125,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>799</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -20869,7 +19139,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>800</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -20897,7 +19167,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -2612,7 +2612,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L58" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="59">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -826,7 +826,7 @@
         <v/>
       </c>
       <c r="L11" t="str">
-        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
+        <v>ARAZİ DEVAM EDİYOR</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1396,7 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
+        <v>ARAZİ DEVAM EDİYOR</v>
       </c>
     </row>
     <row r="27">
@@ -1472,7 +1472,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
+        <v>ARAZİ DEVAM EDİYOR</v>
       </c>
     </row>
     <row r="29">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -864,7 +864,7 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
+        <v>ARAZİ DEVAM EDİYOR</v>
       </c>
     </row>
     <row r="13">
@@ -1472,7 +1472,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>ARAZİ DEVAM EDİYOR</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="29">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -8301,7 +8301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9663,7 +9663,7 @@
         <v>2025-11-27</v>
       </c>
       <c r="N29" t="str">
-        <v/>
+        <v>Yapıldı</v>
       </c>
       <c r="O29" t="str">
         <v/>
@@ -12207,5038 +12207,9 @@
         <v/>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v/>
-      </c>
-      <c r="B84" t="str">
-        <v/>
-      </c>
-      <c r="C84" t="str">
-        <v/>
-      </c>
-      <c r="D84" t="str">
-        <v/>
-      </c>
-      <c r="E84" t="str">
-        <v/>
-      </c>
-      <c r="F84" t="str">
-        <v/>
-      </c>
-      <c r="G84" t="str">
-        <v/>
-      </c>
-      <c r="H84" t="str">
-        <v/>
-      </c>
-      <c r="I84" t="str">
-        <v/>
-      </c>
-      <c r="J84" t="str">
-        <v/>
-      </c>
-      <c r="K84" t="str">
-        <v/>
-      </c>
-      <c r="L84" t="str">
-        <v/>
-      </c>
-      <c r="M84" t="str">
-        <v/>
-      </c>
-      <c r="N84" t="str">
-        <v/>
-      </c>
-      <c r="O84" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v/>
-      </c>
-      <c r="B85" t="str">
-        <v/>
-      </c>
-      <c r="C85" t="str">
-        <v/>
-      </c>
-      <c r="D85" t="str">
-        <v/>
-      </c>
-      <c r="E85" t="str">
-        <v/>
-      </c>
-      <c r="F85" t="str">
-        <v/>
-      </c>
-      <c r="G85" t="str">
-        <v/>
-      </c>
-      <c r="H85" t="str">
-        <v/>
-      </c>
-      <c r="I85" t="str">
-        <v/>
-      </c>
-      <c r="J85" t="str">
-        <v/>
-      </c>
-      <c r="K85" t="str">
-        <v/>
-      </c>
-      <c r="L85" t="str">
-        <v/>
-      </c>
-      <c r="M85" t="str">
-        <v/>
-      </c>
-      <c r="N85" t="str">
-        <v/>
-      </c>
-      <c r="O85" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v/>
-      </c>
-      <c r="B86" t="str">
-        <v/>
-      </c>
-      <c r="C86" t="str">
-        <v/>
-      </c>
-      <c r="D86" t="str">
-        <v/>
-      </c>
-      <c r="E86" t="str">
-        <v/>
-      </c>
-      <c r="F86" t="str">
-        <v/>
-      </c>
-      <c r="G86" t="str">
-        <v/>
-      </c>
-      <c r="H86" t="str">
-        <v/>
-      </c>
-      <c r="I86" t="str">
-        <v/>
-      </c>
-      <c r="J86" t="str">
-        <v/>
-      </c>
-      <c r="K86" t="str">
-        <v/>
-      </c>
-      <c r="L86" t="str">
-        <v/>
-      </c>
-      <c r="M86" t="str">
-        <v/>
-      </c>
-      <c r="N86" t="str">
-        <v/>
-      </c>
-      <c r="O86" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v/>
-      </c>
-      <c r="B87" t="str">
-        <v/>
-      </c>
-      <c r="C87" t="str">
-        <v/>
-      </c>
-      <c r="D87" t="str">
-        <v/>
-      </c>
-      <c r="E87" t="str">
-        <v/>
-      </c>
-      <c r="F87" t="str">
-        <v/>
-      </c>
-      <c r="G87" t="str">
-        <v/>
-      </c>
-      <c r="H87" t="str">
-        <v/>
-      </c>
-      <c r="I87" t="str">
-        <v/>
-      </c>
-      <c r="J87" t="str">
-        <v/>
-      </c>
-      <c r="K87" t="str">
-        <v/>
-      </c>
-      <c r="L87" t="str">
-        <v/>
-      </c>
-      <c r="M87" t="str">
-        <v/>
-      </c>
-      <c r="N87" t="str">
-        <v/>
-      </c>
-      <c r="O87" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v/>
-      </c>
-      <c r="B88" t="str">
-        <v/>
-      </c>
-      <c r="C88" t="str">
-        <v/>
-      </c>
-      <c r="D88" t="str">
-        <v/>
-      </c>
-      <c r="E88" t="str">
-        <v/>
-      </c>
-      <c r="F88" t="str">
-        <v/>
-      </c>
-      <c r="G88" t="str">
-        <v/>
-      </c>
-      <c r="H88" t="str">
-        <v/>
-      </c>
-      <c r="I88" t="str">
-        <v/>
-      </c>
-      <c r="J88" t="str">
-        <v/>
-      </c>
-      <c r="K88" t="str">
-        <v/>
-      </c>
-      <c r="L88" t="str">
-        <v/>
-      </c>
-      <c r="M88" t="str">
-        <v/>
-      </c>
-      <c r="N88" t="str">
-        <v/>
-      </c>
-      <c r="O88" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v/>
-      </c>
-      <c r="B89" t="str">
-        <v/>
-      </c>
-      <c r="C89" t="str">
-        <v/>
-      </c>
-      <c r="D89" t="str">
-        <v/>
-      </c>
-      <c r="E89" t="str">
-        <v/>
-      </c>
-      <c r="F89" t="str">
-        <v/>
-      </c>
-      <c r="G89" t="str">
-        <v/>
-      </c>
-      <c r="H89" t="str">
-        <v/>
-      </c>
-      <c r="I89" t="str">
-        <v/>
-      </c>
-      <c r="J89" t="str">
-        <v/>
-      </c>
-      <c r="K89" t="str">
-        <v/>
-      </c>
-      <c r="L89" t="str">
-        <v/>
-      </c>
-      <c r="M89" t="str">
-        <v/>
-      </c>
-      <c r="N89" t="str">
-        <v/>
-      </c>
-      <c r="O89" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v/>
-      </c>
-      <c r="B90" t="str">
-        <v/>
-      </c>
-      <c r="C90" t="str">
-        <v/>
-      </c>
-      <c r="D90" t="str">
-        <v/>
-      </c>
-      <c r="E90" t="str">
-        <v/>
-      </c>
-      <c r="F90" t="str">
-        <v/>
-      </c>
-      <c r="G90" t="str">
-        <v/>
-      </c>
-      <c r="H90" t="str">
-        <v/>
-      </c>
-      <c r="I90" t="str">
-        <v/>
-      </c>
-      <c r="J90" t="str">
-        <v/>
-      </c>
-      <c r="K90" t="str">
-        <v/>
-      </c>
-      <c r="L90" t="str">
-        <v/>
-      </c>
-      <c r="M90" t="str">
-        <v/>
-      </c>
-      <c r="N90" t="str">
-        <v/>
-      </c>
-      <c r="O90" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v/>
-      </c>
-      <c r="B91" t="str">
-        <v/>
-      </c>
-      <c r="C91" t="str">
-        <v/>
-      </c>
-      <c r="D91" t="str">
-        <v/>
-      </c>
-      <c r="E91" t="str">
-        <v/>
-      </c>
-      <c r="F91" t="str">
-        <v/>
-      </c>
-      <c r="G91" t="str">
-        <v/>
-      </c>
-      <c r="H91" t="str">
-        <v/>
-      </c>
-      <c r="I91" t="str">
-        <v/>
-      </c>
-      <c r="J91" t="str">
-        <v/>
-      </c>
-      <c r="K91" t="str">
-        <v/>
-      </c>
-      <c r="L91" t="str">
-        <v/>
-      </c>
-      <c r="M91" t="str">
-        <v/>
-      </c>
-      <c r="N91" t="str">
-        <v/>
-      </c>
-      <c r="O91" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v/>
-      </c>
-      <c r="B92" t="str">
-        <v/>
-      </c>
-      <c r="C92" t="str">
-        <v/>
-      </c>
-      <c r="D92" t="str">
-        <v/>
-      </c>
-      <c r="E92" t="str">
-        <v/>
-      </c>
-      <c r="F92" t="str">
-        <v/>
-      </c>
-      <c r="G92" t="str">
-        <v/>
-      </c>
-      <c r="H92" t="str">
-        <v/>
-      </c>
-      <c r="I92" t="str">
-        <v/>
-      </c>
-      <c r="J92" t="str">
-        <v/>
-      </c>
-      <c r="K92" t="str">
-        <v/>
-      </c>
-      <c r="L92" t="str">
-        <v/>
-      </c>
-      <c r="M92" t="str">
-        <v/>
-      </c>
-      <c r="N92" t="str">
-        <v/>
-      </c>
-      <c r="O92" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v/>
-      </c>
-      <c r="B93" t="str">
-        <v/>
-      </c>
-      <c r="C93" t="str">
-        <v/>
-      </c>
-      <c r="D93" t="str">
-        <v/>
-      </c>
-      <c r="E93" t="str">
-        <v/>
-      </c>
-      <c r="F93" t="str">
-        <v/>
-      </c>
-      <c r="G93" t="str">
-        <v/>
-      </c>
-      <c r="H93" t="str">
-        <v/>
-      </c>
-      <c r="I93" t="str">
-        <v/>
-      </c>
-      <c r="J93" t="str">
-        <v/>
-      </c>
-      <c r="K93" t="str">
-        <v/>
-      </c>
-      <c r="L93" t="str">
-        <v/>
-      </c>
-      <c r="M93" t="str">
-        <v/>
-      </c>
-      <c r="N93" t="str">
-        <v/>
-      </c>
-      <c r="O93" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v/>
-      </c>
-      <c r="B94" t="str">
-        <v/>
-      </c>
-      <c r="C94" t="str">
-        <v/>
-      </c>
-      <c r="D94" t="str">
-        <v/>
-      </c>
-      <c r="E94" t="str">
-        <v/>
-      </c>
-      <c r="F94" t="str">
-        <v/>
-      </c>
-      <c r="G94" t="str">
-        <v/>
-      </c>
-      <c r="H94" t="str">
-        <v/>
-      </c>
-      <c r="I94" t="str">
-        <v/>
-      </c>
-      <c r="J94" t="str">
-        <v/>
-      </c>
-      <c r="K94" t="str">
-        <v/>
-      </c>
-      <c r="L94" t="str">
-        <v/>
-      </c>
-      <c r="M94" t="str">
-        <v/>
-      </c>
-      <c r="N94" t="str">
-        <v/>
-      </c>
-      <c r="O94" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v/>
-      </c>
-      <c r="B95" t="str">
-        <v/>
-      </c>
-      <c r="C95" t="str">
-        <v/>
-      </c>
-      <c r="D95" t="str">
-        <v/>
-      </c>
-      <c r="E95" t="str">
-        <v/>
-      </c>
-      <c r="F95" t="str">
-        <v/>
-      </c>
-      <c r="G95" t="str">
-        <v/>
-      </c>
-      <c r="H95" t="str">
-        <v/>
-      </c>
-      <c r="I95" t="str">
-        <v/>
-      </c>
-      <c r="J95" t="str">
-        <v/>
-      </c>
-      <c r="K95" t="str">
-        <v/>
-      </c>
-      <c r="L95" t="str">
-        <v/>
-      </c>
-      <c r="M95" t="str">
-        <v/>
-      </c>
-      <c r="N95" t="str">
-        <v/>
-      </c>
-      <c r="O95" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v/>
-      </c>
-      <c r="B96" t="str">
-        <v/>
-      </c>
-      <c r="C96" t="str">
-        <v/>
-      </c>
-      <c r="D96" t="str">
-        <v/>
-      </c>
-      <c r="E96" t="str">
-        <v/>
-      </c>
-      <c r="F96" t="str">
-        <v/>
-      </c>
-      <c r="G96" t="str">
-        <v/>
-      </c>
-      <c r="H96" t="str">
-        <v/>
-      </c>
-      <c r="I96" t="str">
-        <v/>
-      </c>
-      <c r="J96" t="str">
-        <v/>
-      </c>
-      <c r="K96" t="str">
-        <v/>
-      </c>
-      <c r="L96" t="str">
-        <v/>
-      </c>
-      <c r="M96" t="str">
-        <v/>
-      </c>
-      <c r="N96" t="str">
-        <v/>
-      </c>
-      <c r="O96" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v/>
-      </c>
-      <c r="B97" t="str">
-        <v/>
-      </c>
-      <c r="C97" t="str">
-        <v/>
-      </c>
-      <c r="D97" t="str">
-        <v/>
-      </c>
-      <c r="E97" t="str">
-        <v/>
-      </c>
-      <c r="F97" t="str">
-        <v/>
-      </c>
-      <c r="G97" t="str">
-        <v/>
-      </c>
-      <c r="H97" t="str">
-        <v/>
-      </c>
-      <c r="I97" t="str">
-        <v/>
-      </c>
-      <c r="J97" t="str">
-        <v/>
-      </c>
-      <c r="K97" t="str">
-        <v/>
-      </c>
-      <c r="L97" t="str">
-        <v/>
-      </c>
-      <c r="M97" t="str">
-        <v/>
-      </c>
-      <c r="N97" t="str">
-        <v/>
-      </c>
-      <c r="O97" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v/>
-      </c>
-      <c r="B98" t="str">
-        <v/>
-      </c>
-      <c r="C98" t="str">
-        <v/>
-      </c>
-      <c r="D98" t="str">
-        <v/>
-      </c>
-      <c r="E98" t="str">
-        <v/>
-      </c>
-      <c r="F98" t="str">
-        <v/>
-      </c>
-      <c r="G98" t="str">
-        <v/>
-      </c>
-      <c r="H98" t="str">
-        <v/>
-      </c>
-      <c r="I98" t="str">
-        <v/>
-      </c>
-      <c r="J98" t="str">
-        <v/>
-      </c>
-      <c r="K98" t="str">
-        <v/>
-      </c>
-      <c r="L98" t="str">
-        <v/>
-      </c>
-      <c r="M98" t="str">
-        <v/>
-      </c>
-      <c r="N98" t="str">
-        <v/>
-      </c>
-      <c r="O98" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v/>
-      </c>
-      <c r="B99" t="str">
-        <v/>
-      </c>
-      <c r="C99" t="str">
-        <v/>
-      </c>
-      <c r="D99" t="str">
-        <v/>
-      </c>
-      <c r="E99" t="str">
-        <v/>
-      </c>
-      <c r="F99" t="str">
-        <v/>
-      </c>
-      <c r="G99" t="str">
-        <v/>
-      </c>
-      <c r="H99" t="str">
-        <v/>
-      </c>
-      <c r="I99" t="str">
-        <v/>
-      </c>
-      <c r="J99" t="str">
-        <v/>
-      </c>
-      <c r="K99" t="str">
-        <v/>
-      </c>
-      <c r="L99" t="str">
-        <v/>
-      </c>
-      <c r="M99" t="str">
-        <v/>
-      </c>
-      <c r="N99" t="str">
-        <v/>
-      </c>
-      <c r="O99" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v/>
-      </c>
-      <c r="B100" t="str">
-        <v/>
-      </c>
-      <c r="C100" t="str">
-        <v/>
-      </c>
-      <c r="D100" t="str">
-        <v/>
-      </c>
-      <c r="E100" t="str">
-        <v/>
-      </c>
-      <c r="F100" t="str">
-        <v/>
-      </c>
-      <c r="G100" t="str">
-        <v/>
-      </c>
-      <c r="H100" t="str">
-        <v/>
-      </c>
-      <c r="I100" t="str">
-        <v/>
-      </c>
-      <c r="J100" t="str">
-        <v/>
-      </c>
-      <c r="K100" t="str">
-        <v/>
-      </c>
-      <c r="L100" t="str">
-        <v/>
-      </c>
-      <c r="M100" t="str">
-        <v/>
-      </c>
-      <c r="N100" t="str">
-        <v/>
-      </c>
-      <c r="O100" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v/>
-      </c>
-      <c r="B101" t="str">
-        <v/>
-      </c>
-      <c r="C101" t="str">
-        <v/>
-      </c>
-      <c r="D101" t="str">
-        <v/>
-      </c>
-      <c r="E101" t="str">
-        <v/>
-      </c>
-      <c r="F101" t="str">
-        <v/>
-      </c>
-      <c r="G101" t="str">
-        <v/>
-      </c>
-      <c r="H101" t="str">
-        <v/>
-      </c>
-      <c r="I101" t="str">
-        <v/>
-      </c>
-      <c r="J101" t="str">
-        <v/>
-      </c>
-      <c r="K101" t="str">
-        <v/>
-      </c>
-      <c r="L101" t="str">
-        <v/>
-      </c>
-      <c r="M101" t="str">
-        <v/>
-      </c>
-      <c r="N101" t="str">
-        <v/>
-      </c>
-      <c r="O101" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v/>
-      </c>
-      <c r="B102" t="str">
-        <v/>
-      </c>
-      <c r="C102" t="str">
-        <v/>
-      </c>
-      <c r="D102" t="str">
-        <v/>
-      </c>
-      <c r="E102" t="str">
-        <v/>
-      </c>
-      <c r="F102" t="str">
-        <v/>
-      </c>
-      <c r="G102" t="str">
-        <v/>
-      </c>
-      <c r="H102" t="str">
-        <v/>
-      </c>
-      <c r="I102" t="str">
-        <v/>
-      </c>
-      <c r="J102" t="str">
-        <v/>
-      </c>
-      <c r="K102" t="str">
-        <v/>
-      </c>
-      <c r="L102" t="str">
-        <v/>
-      </c>
-      <c r="M102" t="str">
-        <v/>
-      </c>
-      <c r="N102" t="str">
-        <v/>
-      </c>
-      <c r="O102" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v/>
-      </c>
-      <c r="B103" t="str">
-        <v/>
-      </c>
-      <c r="C103" t="str">
-        <v/>
-      </c>
-      <c r="D103" t="str">
-        <v/>
-      </c>
-      <c r="E103" t="str">
-        <v/>
-      </c>
-      <c r="F103" t="str">
-        <v/>
-      </c>
-      <c r="G103" t="str">
-        <v/>
-      </c>
-      <c r="H103" t="str">
-        <v/>
-      </c>
-      <c r="I103" t="str">
-        <v/>
-      </c>
-      <c r="J103" t="str">
-        <v/>
-      </c>
-      <c r="K103" t="str">
-        <v/>
-      </c>
-      <c r="L103" t="str">
-        <v/>
-      </c>
-      <c r="M103" t="str">
-        <v/>
-      </c>
-      <c r="N103" t="str">
-        <v/>
-      </c>
-      <c r="O103" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v/>
-      </c>
-      <c r="B104" t="str">
-        <v/>
-      </c>
-      <c r="C104" t="str">
-        <v/>
-      </c>
-      <c r="D104" t="str">
-        <v/>
-      </c>
-      <c r="E104" t="str">
-        <v/>
-      </c>
-      <c r="F104" t="str">
-        <v/>
-      </c>
-      <c r="G104" t="str">
-        <v/>
-      </c>
-      <c r="H104" t="str">
-        <v/>
-      </c>
-      <c r="I104" t="str">
-        <v/>
-      </c>
-      <c r="J104" t="str">
-        <v/>
-      </c>
-      <c r="K104" t="str">
-        <v/>
-      </c>
-      <c r="L104" t="str">
-        <v/>
-      </c>
-      <c r="M104" t="str">
-        <v/>
-      </c>
-      <c r="N104" t="str">
-        <v/>
-      </c>
-      <c r="O104" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v/>
-      </c>
-      <c r="B105" t="str">
-        <v/>
-      </c>
-      <c r="C105" t="str">
-        <v/>
-      </c>
-      <c r="D105" t="str">
-        <v/>
-      </c>
-      <c r="E105" t="str">
-        <v/>
-      </c>
-      <c r="F105" t="str">
-        <v/>
-      </c>
-      <c r="G105" t="str">
-        <v/>
-      </c>
-      <c r="H105" t="str">
-        <v/>
-      </c>
-      <c r="I105" t="str">
-        <v/>
-      </c>
-      <c r="J105" t="str">
-        <v/>
-      </c>
-      <c r="K105" t="str">
-        <v/>
-      </c>
-      <c r="L105" t="str">
-        <v/>
-      </c>
-      <c r="M105" t="str">
-        <v/>
-      </c>
-      <c r="N105" t="str">
-        <v/>
-      </c>
-      <c r="O105" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v/>
-      </c>
-      <c r="B106" t="str">
-        <v/>
-      </c>
-      <c r="C106" t="str">
-        <v/>
-      </c>
-      <c r="D106" t="str">
-        <v/>
-      </c>
-      <c r="E106" t="str">
-        <v/>
-      </c>
-      <c r="F106" t="str">
-        <v/>
-      </c>
-      <c r="G106" t="str">
-        <v/>
-      </c>
-      <c r="H106" t="str">
-        <v/>
-      </c>
-      <c r="I106" t="str">
-        <v/>
-      </c>
-      <c r="J106" t="str">
-        <v/>
-      </c>
-      <c r="K106" t="str">
-        <v/>
-      </c>
-      <c r="L106" t="str">
-        <v/>
-      </c>
-      <c r="M106" t="str">
-        <v/>
-      </c>
-      <c r="N106" t="str">
-        <v/>
-      </c>
-      <c r="O106" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v/>
-      </c>
-      <c r="B107" t="str">
-        <v/>
-      </c>
-      <c r="C107" t="str">
-        <v/>
-      </c>
-      <c r="D107" t="str">
-        <v/>
-      </c>
-      <c r="E107" t="str">
-        <v/>
-      </c>
-      <c r="F107" t="str">
-        <v/>
-      </c>
-      <c r="G107" t="str">
-        <v/>
-      </c>
-      <c r="H107" t="str">
-        <v/>
-      </c>
-      <c r="I107" t="str">
-        <v/>
-      </c>
-      <c r="J107" t="str">
-        <v/>
-      </c>
-      <c r="K107" t="str">
-        <v/>
-      </c>
-      <c r="L107" t="str">
-        <v/>
-      </c>
-      <c r="M107" t="str">
-        <v/>
-      </c>
-      <c r="N107" t="str">
-        <v/>
-      </c>
-      <c r="O107" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v/>
-      </c>
-      <c r="B108" t="str">
-        <v/>
-      </c>
-      <c r="C108" t="str">
-        <v/>
-      </c>
-      <c r="D108" t="str">
-        <v/>
-      </c>
-      <c r="E108" t="str">
-        <v/>
-      </c>
-      <c r="F108" t="str">
-        <v/>
-      </c>
-      <c r="G108" t="str">
-        <v/>
-      </c>
-      <c r="H108" t="str">
-        <v/>
-      </c>
-      <c r="I108" t="str">
-        <v/>
-      </c>
-      <c r="J108" t="str">
-        <v/>
-      </c>
-      <c r="K108" t="str">
-        <v/>
-      </c>
-      <c r="L108" t="str">
-        <v/>
-      </c>
-      <c r="M108" t="str">
-        <v/>
-      </c>
-      <c r="N108" t="str">
-        <v/>
-      </c>
-      <c r="O108" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v/>
-      </c>
-      <c r="B109" t="str">
-        <v/>
-      </c>
-      <c r="C109" t="str">
-        <v/>
-      </c>
-      <c r="D109" t="str">
-        <v/>
-      </c>
-      <c r="E109" t="str">
-        <v/>
-      </c>
-      <c r="F109" t="str">
-        <v/>
-      </c>
-      <c r="G109" t="str">
-        <v/>
-      </c>
-      <c r="H109" t="str">
-        <v/>
-      </c>
-      <c r="I109" t="str">
-        <v/>
-      </c>
-      <c r="J109" t="str">
-        <v/>
-      </c>
-      <c r="K109" t="str">
-        <v/>
-      </c>
-      <c r="L109" t="str">
-        <v/>
-      </c>
-      <c r="M109" t="str">
-        <v/>
-      </c>
-      <c r="N109" t="str">
-        <v/>
-      </c>
-      <c r="O109" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v/>
-      </c>
-      <c r="B110" t="str">
-        <v/>
-      </c>
-      <c r="C110" t="str">
-        <v/>
-      </c>
-      <c r="D110" t="str">
-        <v/>
-      </c>
-      <c r="E110" t="str">
-        <v/>
-      </c>
-      <c r="F110" t="str">
-        <v/>
-      </c>
-      <c r="G110" t="str">
-        <v/>
-      </c>
-      <c r="H110" t="str">
-        <v/>
-      </c>
-      <c r="I110" t="str">
-        <v/>
-      </c>
-      <c r="J110" t="str">
-        <v/>
-      </c>
-      <c r="K110" t="str">
-        <v/>
-      </c>
-      <c r="L110" t="str">
-        <v/>
-      </c>
-      <c r="M110" t="str">
-        <v/>
-      </c>
-      <c r="N110" t="str">
-        <v/>
-      </c>
-      <c r="O110" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v/>
-      </c>
-      <c r="B111" t="str">
-        <v/>
-      </c>
-      <c r="C111" t="str">
-        <v/>
-      </c>
-      <c r="D111" t="str">
-        <v/>
-      </c>
-      <c r="E111" t="str">
-        <v/>
-      </c>
-      <c r="F111" t="str">
-        <v/>
-      </c>
-      <c r="G111" t="str">
-        <v/>
-      </c>
-      <c r="H111" t="str">
-        <v/>
-      </c>
-      <c r="I111" t="str">
-        <v/>
-      </c>
-      <c r="J111" t="str">
-        <v/>
-      </c>
-      <c r="K111" t="str">
-        <v/>
-      </c>
-      <c r="L111" t="str">
-        <v/>
-      </c>
-      <c r="M111" t="str">
-        <v/>
-      </c>
-      <c r="N111" t="str">
-        <v/>
-      </c>
-      <c r="O111" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v/>
-      </c>
-      <c r="B112" t="str">
-        <v/>
-      </c>
-      <c r="C112" t="str">
-        <v/>
-      </c>
-      <c r="D112" t="str">
-        <v/>
-      </c>
-      <c r="E112" t="str">
-        <v/>
-      </c>
-      <c r="F112" t="str">
-        <v/>
-      </c>
-      <c r="G112" t="str">
-        <v/>
-      </c>
-      <c r="H112" t="str">
-        <v/>
-      </c>
-      <c r="I112" t="str">
-        <v/>
-      </c>
-      <c r="J112" t="str">
-        <v/>
-      </c>
-      <c r="K112" t="str">
-        <v/>
-      </c>
-      <c r="L112" t="str">
-        <v/>
-      </c>
-      <c r="M112" t="str">
-        <v/>
-      </c>
-      <c r="N112" t="str">
-        <v/>
-      </c>
-      <c r="O112" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v/>
-      </c>
-      <c r="B113" t="str">
-        <v/>
-      </c>
-      <c r="C113" t="str">
-        <v/>
-      </c>
-      <c r="D113" t="str">
-        <v/>
-      </c>
-      <c r="E113" t="str">
-        <v/>
-      </c>
-      <c r="F113" t="str">
-        <v/>
-      </c>
-      <c r="G113" t="str">
-        <v/>
-      </c>
-      <c r="H113" t="str">
-        <v/>
-      </c>
-      <c r="I113" t="str">
-        <v/>
-      </c>
-      <c r="J113" t="str">
-        <v/>
-      </c>
-      <c r="K113" t="str">
-        <v/>
-      </c>
-      <c r="L113" t="str">
-        <v/>
-      </c>
-      <c r="M113" t="str">
-        <v/>
-      </c>
-      <c r="N113" t="str">
-        <v/>
-      </c>
-      <c r="O113" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v/>
-      </c>
-      <c r="B114" t="str">
-        <v/>
-      </c>
-      <c r="C114" t="str">
-        <v/>
-      </c>
-      <c r="D114" t="str">
-        <v/>
-      </c>
-      <c r="E114" t="str">
-        <v/>
-      </c>
-      <c r="F114" t="str">
-        <v/>
-      </c>
-      <c r="G114" t="str">
-        <v/>
-      </c>
-      <c r="H114" t="str">
-        <v/>
-      </c>
-      <c r="I114" t="str">
-        <v/>
-      </c>
-      <c r="J114" t="str">
-        <v/>
-      </c>
-      <c r="K114" t="str">
-        <v/>
-      </c>
-      <c r="L114" t="str">
-        <v/>
-      </c>
-      <c r="M114" t="str">
-        <v/>
-      </c>
-      <c r="N114" t="str">
-        <v/>
-      </c>
-      <c r="O114" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v/>
-      </c>
-      <c r="B115" t="str">
-        <v/>
-      </c>
-      <c r="C115" t="str">
-        <v/>
-      </c>
-      <c r="D115" t="str">
-        <v/>
-      </c>
-      <c r="E115" t="str">
-        <v/>
-      </c>
-      <c r="F115" t="str">
-        <v/>
-      </c>
-      <c r="G115" t="str">
-        <v/>
-      </c>
-      <c r="H115" t="str">
-        <v/>
-      </c>
-      <c r="I115" t="str">
-        <v/>
-      </c>
-      <c r="J115" t="str">
-        <v/>
-      </c>
-      <c r="K115" t="str">
-        <v/>
-      </c>
-      <c r="L115" t="str">
-        <v/>
-      </c>
-      <c r="M115" t="str">
-        <v/>
-      </c>
-      <c r="N115" t="str">
-        <v/>
-      </c>
-      <c r="O115" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v/>
-      </c>
-      <c r="B116" t="str">
-        <v/>
-      </c>
-      <c r="C116" t="str">
-        <v/>
-      </c>
-      <c r="D116" t="str">
-        <v/>
-      </c>
-      <c r="E116" t="str">
-        <v/>
-      </c>
-      <c r="F116" t="str">
-        <v/>
-      </c>
-      <c r="G116" t="str">
-        <v/>
-      </c>
-      <c r="H116" t="str">
-        <v/>
-      </c>
-      <c r="I116" t="str">
-        <v/>
-      </c>
-      <c r="J116" t="str">
-        <v/>
-      </c>
-      <c r="K116" t="str">
-        <v/>
-      </c>
-      <c r="L116" t="str">
-        <v/>
-      </c>
-      <c r="M116" t="str">
-        <v/>
-      </c>
-      <c r="N116" t="str">
-        <v/>
-      </c>
-      <c r="O116" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v/>
-      </c>
-      <c r="B117" t="str">
-        <v/>
-      </c>
-      <c r="C117" t="str">
-        <v/>
-      </c>
-      <c r="D117" t="str">
-        <v/>
-      </c>
-      <c r="E117" t="str">
-        <v/>
-      </c>
-      <c r="F117" t="str">
-        <v/>
-      </c>
-      <c r="G117" t="str">
-        <v/>
-      </c>
-      <c r="H117" t="str">
-        <v/>
-      </c>
-      <c r="I117" t="str">
-        <v/>
-      </c>
-      <c r="J117" t="str">
-        <v/>
-      </c>
-      <c r="K117" t="str">
-        <v/>
-      </c>
-      <c r="L117" t="str">
-        <v/>
-      </c>
-      <c r="M117" t="str">
-        <v/>
-      </c>
-      <c r="N117" t="str">
-        <v/>
-      </c>
-      <c r="O117" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v/>
-      </c>
-      <c r="B118" t="str">
-        <v/>
-      </c>
-      <c r="C118" t="str">
-        <v/>
-      </c>
-      <c r="D118" t="str">
-        <v/>
-      </c>
-      <c r="E118" t="str">
-        <v/>
-      </c>
-      <c r="F118" t="str">
-        <v/>
-      </c>
-      <c r="G118" t="str">
-        <v/>
-      </c>
-      <c r="H118" t="str">
-        <v/>
-      </c>
-      <c r="I118" t="str">
-        <v/>
-      </c>
-      <c r="J118" t="str">
-        <v/>
-      </c>
-      <c r="K118" t="str">
-        <v/>
-      </c>
-      <c r="L118" t="str">
-        <v/>
-      </c>
-      <c r="M118" t="str">
-        <v/>
-      </c>
-      <c r="N118" t="str">
-        <v/>
-      </c>
-      <c r="O118" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v/>
-      </c>
-      <c r="B119" t="str">
-        <v/>
-      </c>
-      <c r="C119" t="str">
-        <v/>
-      </c>
-      <c r="D119" t="str">
-        <v/>
-      </c>
-      <c r="E119" t="str">
-        <v/>
-      </c>
-      <c r="F119" t="str">
-        <v/>
-      </c>
-      <c r="G119" t="str">
-        <v/>
-      </c>
-      <c r="H119" t="str">
-        <v/>
-      </c>
-      <c r="I119" t="str">
-        <v/>
-      </c>
-      <c r="J119" t="str">
-        <v/>
-      </c>
-      <c r="K119" t="str">
-        <v/>
-      </c>
-      <c r="L119" t="str">
-        <v/>
-      </c>
-      <c r="M119" t="str">
-        <v/>
-      </c>
-      <c r="N119" t="str">
-        <v/>
-      </c>
-      <c r="O119" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v/>
-      </c>
-      <c r="B120" t="str">
-        <v/>
-      </c>
-      <c r="C120" t="str">
-        <v/>
-      </c>
-      <c r="D120" t="str">
-        <v/>
-      </c>
-      <c r="E120" t="str">
-        <v/>
-      </c>
-      <c r="F120" t="str">
-        <v/>
-      </c>
-      <c r="G120" t="str">
-        <v/>
-      </c>
-      <c r="H120" t="str">
-        <v/>
-      </c>
-      <c r="I120" t="str">
-        <v/>
-      </c>
-      <c r="J120" t="str">
-        <v/>
-      </c>
-      <c r="K120" t="str">
-        <v/>
-      </c>
-      <c r="L120" t="str">
-        <v/>
-      </c>
-      <c r="M120" t="str">
-        <v/>
-      </c>
-      <c r="N120" t="str">
-        <v/>
-      </c>
-      <c r="O120" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v/>
-      </c>
-      <c r="B121" t="str">
-        <v/>
-      </c>
-      <c r="C121" t="str">
-        <v/>
-      </c>
-      <c r="D121" t="str">
-        <v/>
-      </c>
-      <c r="E121" t="str">
-        <v/>
-      </c>
-      <c r="F121" t="str">
-        <v/>
-      </c>
-      <c r="G121" t="str">
-        <v/>
-      </c>
-      <c r="H121" t="str">
-        <v/>
-      </c>
-      <c r="I121" t="str">
-        <v/>
-      </c>
-      <c r="J121" t="str">
-        <v/>
-      </c>
-      <c r="K121" t="str">
-        <v/>
-      </c>
-      <c r="L121" t="str">
-        <v/>
-      </c>
-      <c r="M121" t="str">
-        <v/>
-      </c>
-      <c r="N121" t="str">
-        <v/>
-      </c>
-      <c r="O121" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v/>
-      </c>
-      <c r="B122" t="str">
-        <v/>
-      </c>
-      <c r="C122" t="str">
-        <v/>
-      </c>
-      <c r="D122" t="str">
-        <v/>
-      </c>
-      <c r="E122" t="str">
-        <v/>
-      </c>
-      <c r="F122" t="str">
-        <v/>
-      </c>
-      <c r="G122" t="str">
-        <v/>
-      </c>
-      <c r="H122" t="str">
-        <v/>
-      </c>
-      <c r="I122" t="str">
-        <v/>
-      </c>
-      <c r="J122" t="str">
-        <v/>
-      </c>
-      <c r="K122" t="str">
-        <v/>
-      </c>
-      <c r="L122" t="str">
-        <v/>
-      </c>
-      <c r="M122" t="str">
-        <v/>
-      </c>
-      <c r="N122" t="str">
-        <v/>
-      </c>
-      <c r="O122" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v/>
-      </c>
-      <c r="B123" t="str">
-        <v/>
-      </c>
-      <c r="C123" t="str">
-        <v/>
-      </c>
-      <c r="D123" t="str">
-        <v/>
-      </c>
-      <c r="E123" t="str">
-        <v/>
-      </c>
-      <c r="F123" t="str">
-        <v/>
-      </c>
-      <c r="G123" t="str">
-        <v/>
-      </c>
-      <c r="H123" t="str">
-        <v/>
-      </c>
-      <c r="I123" t="str">
-        <v/>
-      </c>
-      <c r="J123" t="str">
-        <v/>
-      </c>
-      <c r="K123" t="str">
-        <v/>
-      </c>
-      <c r="L123" t="str">
-        <v/>
-      </c>
-      <c r="M123" t="str">
-        <v/>
-      </c>
-      <c r="N123" t="str">
-        <v/>
-      </c>
-      <c r="O123" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v/>
-      </c>
-      <c r="B124" t="str">
-        <v/>
-      </c>
-      <c r="C124" t="str">
-        <v/>
-      </c>
-      <c r="D124" t="str">
-        <v/>
-      </c>
-      <c r="E124" t="str">
-        <v/>
-      </c>
-      <c r="F124" t="str">
-        <v/>
-      </c>
-      <c r="G124" t="str">
-        <v/>
-      </c>
-      <c r="H124" t="str">
-        <v/>
-      </c>
-      <c r="I124" t="str">
-        <v/>
-      </c>
-      <c r="J124" t="str">
-        <v/>
-      </c>
-      <c r="K124" t="str">
-        <v/>
-      </c>
-      <c r="L124" t="str">
-        <v/>
-      </c>
-      <c r="M124" t="str">
-        <v/>
-      </c>
-      <c r="N124" t="str">
-        <v/>
-      </c>
-      <c r="O124" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v/>
-      </c>
-      <c r="B125" t="str">
-        <v/>
-      </c>
-      <c r="C125" t="str">
-        <v/>
-      </c>
-      <c r="D125" t="str">
-        <v/>
-      </c>
-      <c r="E125" t="str">
-        <v/>
-      </c>
-      <c r="F125" t="str">
-        <v/>
-      </c>
-      <c r="G125" t="str">
-        <v/>
-      </c>
-      <c r="H125" t="str">
-        <v/>
-      </c>
-      <c r="I125" t="str">
-        <v/>
-      </c>
-      <c r="J125" t="str">
-        <v/>
-      </c>
-      <c r="K125" t="str">
-        <v/>
-      </c>
-      <c r="L125" t="str">
-        <v/>
-      </c>
-      <c r="M125" t="str">
-        <v/>
-      </c>
-      <c r="N125" t="str">
-        <v/>
-      </c>
-      <c r="O125" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v/>
-      </c>
-      <c r="B126" t="str">
-        <v/>
-      </c>
-      <c r="C126" t="str">
-        <v/>
-      </c>
-      <c r="D126" t="str">
-        <v/>
-      </c>
-      <c r="E126" t="str">
-        <v/>
-      </c>
-      <c r="F126" t="str">
-        <v/>
-      </c>
-      <c r="G126" t="str">
-        <v/>
-      </c>
-      <c r="H126" t="str">
-        <v/>
-      </c>
-      <c r="I126" t="str">
-        <v/>
-      </c>
-      <c r="J126" t="str">
-        <v/>
-      </c>
-      <c r="K126" t="str">
-        <v/>
-      </c>
-      <c r="L126" t="str">
-        <v/>
-      </c>
-      <c r="M126" t="str">
-        <v/>
-      </c>
-      <c r="N126" t="str">
-        <v/>
-      </c>
-      <c r="O126" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v/>
-      </c>
-      <c r="B127" t="str">
-        <v/>
-      </c>
-      <c r="C127" t="str">
-        <v/>
-      </c>
-      <c r="D127" t="str">
-        <v/>
-      </c>
-      <c r="E127" t="str">
-        <v/>
-      </c>
-      <c r="F127" t="str">
-        <v/>
-      </c>
-      <c r="G127" t="str">
-        <v/>
-      </c>
-      <c r="H127" t="str">
-        <v/>
-      </c>
-      <c r="I127" t="str">
-        <v/>
-      </c>
-      <c r="J127" t="str">
-        <v/>
-      </c>
-      <c r="K127" t="str">
-        <v/>
-      </c>
-      <c r="L127" t="str">
-        <v/>
-      </c>
-      <c r="M127" t="str">
-        <v/>
-      </c>
-      <c r="N127" t="str">
-        <v/>
-      </c>
-      <c r="O127" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v/>
-      </c>
-      <c r="B128" t="str">
-        <v/>
-      </c>
-      <c r="C128" t="str">
-        <v/>
-      </c>
-      <c r="D128" t="str">
-        <v/>
-      </c>
-      <c r="E128" t="str">
-        <v/>
-      </c>
-      <c r="F128" t="str">
-        <v/>
-      </c>
-      <c r="G128" t="str">
-        <v/>
-      </c>
-      <c r="H128" t="str">
-        <v/>
-      </c>
-      <c r="I128" t="str">
-        <v/>
-      </c>
-      <c r="J128" t="str">
-        <v/>
-      </c>
-      <c r="K128" t="str">
-        <v/>
-      </c>
-      <c r="L128" t="str">
-        <v/>
-      </c>
-      <c r="M128" t="str">
-        <v/>
-      </c>
-      <c r="N128" t="str">
-        <v/>
-      </c>
-      <c r="O128" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v/>
-      </c>
-      <c r="B129" t="str">
-        <v/>
-      </c>
-      <c r="C129" t="str">
-        <v/>
-      </c>
-      <c r="D129" t="str">
-        <v/>
-      </c>
-      <c r="E129" t="str">
-        <v/>
-      </c>
-      <c r="F129" t="str">
-        <v/>
-      </c>
-      <c r="G129" t="str">
-        <v/>
-      </c>
-      <c r="H129" t="str">
-        <v/>
-      </c>
-      <c r="I129" t="str">
-        <v/>
-      </c>
-      <c r="J129" t="str">
-        <v/>
-      </c>
-      <c r="K129" t="str">
-        <v/>
-      </c>
-      <c r="L129" t="str">
-        <v/>
-      </c>
-      <c r="M129" t="str">
-        <v/>
-      </c>
-      <c r="N129" t="str">
-        <v/>
-      </c>
-      <c r="O129" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v/>
-      </c>
-      <c r="B130" t="str">
-        <v/>
-      </c>
-      <c r="C130" t="str">
-        <v/>
-      </c>
-      <c r="D130" t="str">
-        <v/>
-      </c>
-      <c r="E130" t="str">
-        <v/>
-      </c>
-      <c r="F130" t="str">
-        <v/>
-      </c>
-      <c r="G130" t="str">
-        <v/>
-      </c>
-      <c r="H130" t="str">
-        <v/>
-      </c>
-      <c r="I130" t="str">
-        <v/>
-      </c>
-      <c r="J130" t="str">
-        <v/>
-      </c>
-      <c r="K130" t="str">
-        <v/>
-      </c>
-      <c r="L130" t="str">
-        <v/>
-      </c>
-      <c r="M130" t="str">
-        <v/>
-      </c>
-      <c r="N130" t="str">
-        <v/>
-      </c>
-      <c r="O130" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v/>
-      </c>
-      <c r="B131" t="str">
-        <v/>
-      </c>
-      <c r="C131" t="str">
-        <v/>
-      </c>
-      <c r="D131" t="str">
-        <v/>
-      </c>
-      <c r="E131" t="str">
-        <v/>
-      </c>
-      <c r="F131" t="str">
-        <v/>
-      </c>
-      <c r="G131" t="str">
-        <v/>
-      </c>
-      <c r="H131" t="str">
-        <v/>
-      </c>
-      <c r="I131" t="str">
-        <v/>
-      </c>
-      <c r="J131" t="str">
-        <v/>
-      </c>
-      <c r="K131" t="str">
-        <v/>
-      </c>
-      <c r="L131" t="str">
-        <v/>
-      </c>
-      <c r="M131" t="str">
-        <v/>
-      </c>
-      <c r="N131" t="str">
-        <v/>
-      </c>
-      <c r="O131" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v/>
-      </c>
-      <c r="B132" t="str">
-        <v/>
-      </c>
-      <c r="C132" t="str">
-        <v/>
-      </c>
-      <c r="D132" t="str">
-        <v/>
-      </c>
-      <c r="E132" t="str">
-        <v/>
-      </c>
-      <c r="F132" t="str">
-        <v/>
-      </c>
-      <c r="G132" t="str">
-        <v/>
-      </c>
-      <c r="H132" t="str">
-        <v/>
-      </c>
-      <c r="I132" t="str">
-        <v/>
-      </c>
-      <c r="J132" t="str">
-        <v/>
-      </c>
-      <c r="K132" t="str">
-        <v/>
-      </c>
-      <c r="L132" t="str">
-        <v/>
-      </c>
-      <c r="M132" t="str">
-        <v/>
-      </c>
-      <c r="N132" t="str">
-        <v/>
-      </c>
-      <c r="O132" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v/>
-      </c>
-      <c r="B133" t="str">
-        <v/>
-      </c>
-      <c r="C133" t="str">
-        <v/>
-      </c>
-      <c r="D133" t="str">
-        <v/>
-      </c>
-      <c r="E133" t="str">
-        <v/>
-      </c>
-      <c r="F133" t="str">
-        <v/>
-      </c>
-      <c r="G133" t="str">
-        <v/>
-      </c>
-      <c r="H133" t="str">
-        <v/>
-      </c>
-      <c r="I133" t="str">
-        <v/>
-      </c>
-      <c r="J133" t="str">
-        <v/>
-      </c>
-      <c r="K133" t="str">
-        <v/>
-      </c>
-      <c r="L133" t="str">
-        <v/>
-      </c>
-      <c r="M133" t="str">
-        <v/>
-      </c>
-      <c r="N133" t="str">
-        <v/>
-      </c>
-      <c r="O133" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v/>
-      </c>
-      <c r="B134" t="str">
-        <v/>
-      </c>
-      <c r="C134" t="str">
-        <v/>
-      </c>
-      <c r="D134" t="str">
-        <v/>
-      </c>
-      <c r="E134" t="str">
-        <v/>
-      </c>
-      <c r="F134" t="str">
-        <v/>
-      </c>
-      <c r="G134" t="str">
-        <v/>
-      </c>
-      <c r="H134" t="str">
-        <v/>
-      </c>
-      <c r="I134" t="str">
-        <v/>
-      </c>
-      <c r="J134" t="str">
-        <v/>
-      </c>
-      <c r="K134" t="str">
-        <v/>
-      </c>
-      <c r="L134" t="str">
-        <v/>
-      </c>
-      <c r="M134" t="str">
-        <v/>
-      </c>
-      <c r="N134" t="str">
-        <v/>
-      </c>
-      <c r="O134" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v/>
-      </c>
-      <c r="B135" t="str">
-        <v/>
-      </c>
-      <c r="C135" t="str">
-        <v/>
-      </c>
-      <c r="D135" t="str">
-        <v/>
-      </c>
-      <c r="E135" t="str">
-        <v/>
-      </c>
-      <c r="F135" t="str">
-        <v/>
-      </c>
-      <c r="G135" t="str">
-        <v/>
-      </c>
-      <c r="H135" t="str">
-        <v/>
-      </c>
-      <c r="I135" t="str">
-        <v/>
-      </c>
-      <c r="J135" t="str">
-        <v/>
-      </c>
-      <c r="K135" t="str">
-        <v/>
-      </c>
-      <c r="L135" t="str">
-        <v/>
-      </c>
-      <c r="M135" t="str">
-        <v/>
-      </c>
-      <c r="N135" t="str">
-        <v/>
-      </c>
-      <c r="O135" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v/>
-      </c>
-      <c r="B136" t="str">
-        <v/>
-      </c>
-      <c r="C136" t="str">
-        <v/>
-      </c>
-      <c r="D136" t="str">
-        <v/>
-      </c>
-      <c r="E136" t="str">
-        <v/>
-      </c>
-      <c r="F136" t="str">
-        <v/>
-      </c>
-      <c r="G136" t="str">
-        <v/>
-      </c>
-      <c r="H136" t="str">
-        <v/>
-      </c>
-      <c r="I136" t="str">
-        <v/>
-      </c>
-      <c r="J136" t="str">
-        <v/>
-      </c>
-      <c r="K136" t="str">
-        <v/>
-      </c>
-      <c r="L136" t="str">
-        <v/>
-      </c>
-      <c r="M136" t="str">
-        <v/>
-      </c>
-      <c r="N136" t="str">
-        <v/>
-      </c>
-      <c r="O136" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v/>
-      </c>
-      <c r="B137" t="str">
-        <v/>
-      </c>
-      <c r="C137" t="str">
-        <v/>
-      </c>
-      <c r="D137" t="str">
-        <v/>
-      </c>
-      <c r="E137" t="str">
-        <v/>
-      </c>
-      <c r="F137" t="str">
-        <v/>
-      </c>
-      <c r="G137" t="str">
-        <v/>
-      </c>
-      <c r="H137" t="str">
-        <v/>
-      </c>
-      <c r="I137" t="str">
-        <v/>
-      </c>
-      <c r="J137" t="str">
-        <v/>
-      </c>
-      <c r="K137" t="str">
-        <v/>
-      </c>
-      <c r="L137" t="str">
-        <v/>
-      </c>
-      <c r="M137" t="str">
-        <v/>
-      </c>
-      <c r="N137" t="str">
-        <v/>
-      </c>
-      <c r="O137" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v/>
-      </c>
-      <c r="B138" t="str">
-        <v/>
-      </c>
-      <c r="C138" t="str">
-        <v/>
-      </c>
-      <c r="D138" t="str">
-        <v/>
-      </c>
-      <c r="E138" t="str">
-        <v/>
-      </c>
-      <c r="F138" t="str">
-        <v/>
-      </c>
-      <c r="G138" t="str">
-        <v/>
-      </c>
-      <c r="H138" t="str">
-        <v/>
-      </c>
-      <c r="I138" t="str">
-        <v/>
-      </c>
-      <c r="J138" t="str">
-        <v/>
-      </c>
-      <c r="K138" t="str">
-        <v/>
-      </c>
-      <c r="L138" t="str">
-        <v/>
-      </c>
-      <c r="M138" t="str">
-        <v/>
-      </c>
-      <c r="N138" t="str">
-        <v/>
-      </c>
-      <c r="O138" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v/>
-      </c>
-      <c r="B139" t="str">
-        <v/>
-      </c>
-      <c r="C139" t="str">
-        <v/>
-      </c>
-      <c r="D139" t="str">
-        <v/>
-      </c>
-      <c r="E139" t="str">
-        <v/>
-      </c>
-      <c r="F139" t="str">
-        <v/>
-      </c>
-      <c r="G139" t="str">
-        <v/>
-      </c>
-      <c r="H139" t="str">
-        <v/>
-      </c>
-      <c r="I139" t="str">
-        <v/>
-      </c>
-      <c r="J139" t="str">
-        <v/>
-      </c>
-      <c r="K139" t="str">
-        <v/>
-      </c>
-      <c r="L139" t="str">
-        <v/>
-      </c>
-      <c r="M139" t="str">
-        <v/>
-      </c>
-      <c r="N139" t="str">
-        <v/>
-      </c>
-      <c r="O139" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v/>
-      </c>
-      <c r="B140" t="str">
-        <v/>
-      </c>
-      <c r="C140" t="str">
-        <v/>
-      </c>
-      <c r="D140" t="str">
-        <v/>
-      </c>
-      <c r="E140" t="str">
-        <v/>
-      </c>
-      <c r="F140" t="str">
-        <v/>
-      </c>
-      <c r="G140" t="str">
-        <v/>
-      </c>
-      <c r="H140" t="str">
-        <v/>
-      </c>
-      <c r="I140" t="str">
-        <v/>
-      </c>
-      <c r="J140" t="str">
-        <v/>
-      </c>
-      <c r="K140" t="str">
-        <v/>
-      </c>
-      <c r="L140" t="str">
-        <v/>
-      </c>
-      <c r="M140" t="str">
-        <v/>
-      </c>
-      <c r="N140" t="str">
-        <v/>
-      </c>
-      <c r="O140" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v/>
-      </c>
-      <c r="B141" t="str">
-        <v/>
-      </c>
-      <c r="C141" t="str">
-        <v/>
-      </c>
-      <c r="D141" t="str">
-        <v/>
-      </c>
-      <c r="E141" t="str">
-        <v/>
-      </c>
-      <c r="F141" t="str">
-        <v/>
-      </c>
-      <c r="G141" t="str">
-        <v/>
-      </c>
-      <c r="H141" t="str">
-        <v/>
-      </c>
-      <c r="I141" t="str">
-        <v/>
-      </c>
-      <c r="J141" t="str">
-        <v/>
-      </c>
-      <c r="K141" t="str">
-        <v/>
-      </c>
-      <c r="L141" t="str">
-        <v/>
-      </c>
-      <c r="M141" t="str">
-        <v/>
-      </c>
-      <c r="N141" t="str">
-        <v/>
-      </c>
-      <c r="O141" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v/>
-      </c>
-      <c r="B142" t="str">
-        <v/>
-      </c>
-      <c r="C142" t="str">
-        <v/>
-      </c>
-      <c r="D142" t="str">
-        <v/>
-      </c>
-      <c r="E142" t="str">
-        <v/>
-      </c>
-      <c r="F142" t="str">
-        <v/>
-      </c>
-      <c r="G142" t="str">
-        <v/>
-      </c>
-      <c r="H142" t="str">
-        <v/>
-      </c>
-      <c r="I142" t="str">
-        <v/>
-      </c>
-      <c r="J142" t="str">
-        <v/>
-      </c>
-      <c r="K142" t="str">
-        <v/>
-      </c>
-      <c r="L142" t="str">
-        <v/>
-      </c>
-      <c r="M142" t="str">
-        <v/>
-      </c>
-      <c r="N142" t="str">
-        <v/>
-      </c>
-      <c r="O142" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v/>
-      </c>
-      <c r="B143" t="str">
-        <v/>
-      </c>
-      <c r="C143" t="str">
-        <v/>
-      </c>
-      <c r="D143" t="str">
-        <v/>
-      </c>
-      <c r="E143" t="str">
-        <v/>
-      </c>
-      <c r="F143" t="str">
-        <v/>
-      </c>
-      <c r="G143" t="str">
-        <v/>
-      </c>
-      <c r="H143" t="str">
-        <v/>
-      </c>
-      <c r="I143" t="str">
-        <v/>
-      </c>
-      <c r="J143" t="str">
-        <v/>
-      </c>
-      <c r="K143" t="str">
-        <v/>
-      </c>
-      <c r="L143" t="str">
-        <v/>
-      </c>
-      <c r="M143" t="str">
-        <v/>
-      </c>
-      <c r="N143" t="str">
-        <v/>
-      </c>
-      <c r="O143" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v/>
-      </c>
-      <c r="B144" t="str">
-        <v/>
-      </c>
-      <c r="C144" t="str">
-        <v/>
-      </c>
-      <c r="D144" t="str">
-        <v/>
-      </c>
-      <c r="E144" t="str">
-        <v/>
-      </c>
-      <c r="F144" t="str">
-        <v/>
-      </c>
-      <c r="G144" t="str">
-        <v/>
-      </c>
-      <c r="H144" t="str">
-        <v/>
-      </c>
-      <c r="I144" t="str">
-        <v/>
-      </c>
-      <c r="J144" t="str">
-        <v/>
-      </c>
-      <c r="K144" t="str">
-        <v/>
-      </c>
-      <c r="L144" t="str">
-        <v/>
-      </c>
-      <c r="M144" t="str">
-        <v/>
-      </c>
-      <c r="N144" t="str">
-        <v/>
-      </c>
-      <c r="O144" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v/>
-      </c>
-      <c r="B145" t="str">
-        <v/>
-      </c>
-      <c r="C145" t="str">
-        <v/>
-      </c>
-      <c r="D145" t="str">
-        <v/>
-      </c>
-      <c r="E145" t="str">
-        <v/>
-      </c>
-      <c r="F145" t="str">
-        <v/>
-      </c>
-      <c r="G145" t="str">
-        <v/>
-      </c>
-      <c r="H145" t="str">
-        <v/>
-      </c>
-      <c r="I145" t="str">
-        <v/>
-      </c>
-      <c r="J145" t="str">
-        <v/>
-      </c>
-      <c r="K145" t="str">
-        <v/>
-      </c>
-      <c r="L145" t="str">
-        <v/>
-      </c>
-      <c r="M145" t="str">
-        <v/>
-      </c>
-      <c r="N145" t="str">
-        <v/>
-      </c>
-      <c r="O145" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v/>
-      </c>
-      <c r="B146" t="str">
-        <v/>
-      </c>
-      <c r="C146" t="str">
-        <v/>
-      </c>
-      <c r="D146" t="str">
-        <v/>
-      </c>
-      <c r="E146" t="str">
-        <v/>
-      </c>
-      <c r="F146" t="str">
-        <v/>
-      </c>
-      <c r="G146" t="str">
-        <v/>
-      </c>
-      <c r="H146" t="str">
-        <v/>
-      </c>
-      <c r="I146" t="str">
-        <v/>
-      </c>
-      <c r="J146" t="str">
-        <v/>
-      </c>
-      <c r="K146" t="str">
-        <v/>
-      </c>
-      <c r="L146" t="str">
-        <v/>
-      </c>
-      <c r="M146" t="str">
-        <v/>
-      </c>
-      <c r="N146" t="str">
-        <v/>
-      </c>
-      <c r="O146" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v/>
-      </c>
-      <c r="B147" t="str">
-        <v/>
-      </c>
-      <c r="C147" t="str">
-        <v/>
-      </c>
-      <c r="D147" t="str">
-        <v/>
-      </c>
-      <c r="E147" t="str">
-        <v/>
-      </c>
-      <c r="F147" t="str">
-        <v/>
-      </c>
-      <c r="G147" t="str">
-        <v/>
-      </c>
-      <c r="H147" t="str">
-        <v/>
-      </c>
-      <c r="I147" t="str">
-        <v/>
-      </c>
-      <c r="J147" t="str">
-        <v/>
-      </c>
-      <c r="K147" t="str">
-        <v/>
-      </c>
-      <c r="L147" t="str">
-        <v/>
-      </c>
-      <c r="M147" t="str">
-        <v/>
-      </c>
-      <c r="N147" t="str">
-        <v/>
-      </c>
-      <c r="O147" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v/>
-      </c>
-      <c r="B148" t="str">
-        <v/>
-      </c>
-      <c r="C148" t="str">
-        <v/>
-      </c>
-      <c r="D148" t="str">
-        <v/>
-      </c>
-      <c r="E148" t="str">
-        <v/>
-      </c>
-      <c r="F148" t="str">
-        <v/>
-      </c>
-      <c r="G148" t="str">
-        <v/>
-      </c>
-      <c r="H148" t="str">
-        <v/>
-      </c>
-      <c r="I148" t="str">
-        <v/>
-      </c>
-      <c r="J148" t="str">
-        <v/>
-      </c>
-      <c r="K148" t="str">
-        <v/>
-      </c>
-      <c r="L148" t="str">
-        <v/>
-      </c>
-      <c r="M148" t="str">
-        <v/>
-      </c>
-      <c r="N148" t="str">
-        <v/>
-      </c>
-      <c r="O148" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v/>
-      </c>
-      <c r="B149" t="str">
-        <v/>
-      </c>
-      <c r="C149" t="str">
-        <v/>
-      </c>
-      <c r="D149" t="str">
-        <v/>
-      </c>
-      <c r="E149" t="str">
-        <v/>
-      </c>
-      <c r="F149" t="str">
-        <v/>
-      </c>
-      <c r="G149" t="str">
-        <v/>
-      </c>
-      <c r="H149" t="str">
-        <v/>
-      </c>
-      <c r="I149" t="str">
-        <v/>
-      </c>
-      <c r="J149" t="str">
-        <v/>
-      </c>
-      <c r="K149" t="str">
-        <v/>
-      </c>
-      <c r="L149" t="str">
-        <v/>
-      </c>
-      <c r="M149" t="str">
-        <v/>
-      </c>
-      <c r="N149" t="str">
-        <v/>
-      </c>
-      <c r="O149" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v/>
-      </c>
-      <c r="B150" t="str">
-        <v/>
-      </c>
-      <c r="C150" t="str">
-        <v/>
-      </c>
-      <c r="D150" t="str">
-        <v/>
-      </c>
-      <c r="E150" t="str">
-        <v/>
-      </c>
-      <c r="F150" t="str">
-        <v/>
-      </c>
-      <c r="G150" t="str">
-        <v/>
-      </c>
-      <c r="H150" t="str">
-        <v/>
-      </c>
-      <c r="I150" t="str">
-        <v/>
-      </c>
-      <c r="J150" t="str">
-        <v/>
-      </c>
-      <c r="K150" t="str">
-        <v/>
-      </c>
-      <c r="L150" t="str">
-        <v/>
-      </c>
-      <c r="M150" t="str">
-        <v/>
-      </c>
-      <c r="N150" t="str">
-        <v/>
-      </c>
-      <c r="O150" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v/>
-      </c>
-      <c r="B151" t="str">
-        <v/>
-      </c>
-      <c r="C151" t="str">
-        <v/>
-      </c>
-      <c r="D151" t="str">
-        <v/>
-      </c>
-      <c r="E151" t="str">
-        <v/>
-      </c>
-      <c r="F151" t="str">
-        <v/>
-      </c>
-      <c r="G151" t="str">
-        <v/>
-      </c>
-      <c r="H151" t="str">
-        <v/>
-      </c>
-      <c r="I151" t="str">
-        <v/>
-      </c>
-      <c r="J151" t="str">
-        <v/>
-      </c>
-      <c r="K151" t="str">
-        <v/>
-      </c>
-      <c r="L151" t="str">
-        <v/>
-      </c>
-      <c r="M151" t="str">
-        <v/>
-      </c>
-      <c r="N151" t="str">
-        <v/>
-      </c>
-      <c r="O151" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v/>
-      </c>
-      <c r="B152" t="str">
-        <v/>
-      </c>
-      <c r="C152" t="str">
-        <v/>
-      </c>
-      <c r="D152" t="str">
-        <v/>
-      </c>
-      <c r="E152" t="str">
-        <v/>
-      </c>
-      <c r="F152" t="str">
-        <v/>
-      </c>
-      <c r="G152" t="str">
-        <v/>
-      </c>
-      <c r="H152" t="str">
-        <v/>
-      </c>
-      <c r="I152" t="str">
-        <v/>
-      </c>
-      <c r="J152" t="str">
-        <v/>
-      </c>
-      <c r="K152" t="str">
-        <v/>
-      </c>
-      <c r="L152" t="str">
-        <v/>
-      </c>
-      <c r="M152" t="str">
-        <v/>
-      </c>
-      <c r="N152" t="str">
-        <v/>
-      </c>
-      <c r="O152" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v/>
-      </c>
-      <c r="B153" t="str">
-        <v/>
-      </c>
-      <c r="C153" t="str">
-        <v/>
-      </c>
-      <c r="D153" t="str">
-        <v/>
-      </c>
-      <c r="E153" t="str">
-        <v/>
-      </c>
-      <c r="F153" t="str">
-        <v/>
-      </c>
-      <c r="G153" t="str">
-        <v/>
-      </c>
-      <c r="H153" t="str">
-        <v/>
-      </c>
-      <c r="I153" t="str">
-        <v/>
-      </c>
-      <c r="J153" t="str">
-        <v/>
-      </c>
-      <c r="K153" t="str">
-        <v/>
-      </c>
-      <c r="L153" t="str">
-        <v/>
-      </c>
-      <c r="M153" t="str">
-        <v/>
-      </c>
-      <c r="N153" t="str">
-        <v/>
-      </c>
-      <c r="O153" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v/>
-      </c>
-      <c r="B154" t="str">
-        <v/>
-      </c>
-      <c r="C154" t="str">
-        <v/>
-      </c>
-      <c r="D154" t="str">
-        <v/>
-      </c>
-      <c r="E154" t="str">
-        <v/>
-      </c>
-      <c r="F154" t="str">
-        <v/>
-      </c>
-      <c r="G154" t="str">
-        <v/>
-      </c>
-      <c r="H154" t="str">
-        <v/>
-      </c>
-      <c r="I154" t="str">
-        <v/>
-      </c>
-      <c r="J154" t="str">
-        <v/>
-      </c>
-      <c r="K154" t="str">
-        <v/>
-      </c>
-      <c r="L154" t="str">
-        <v/>
-      </c>
-      <c r="M154" t="str">
-        <v/>
-      </c>
-      <c r="N154" t="str">
-        <v/>
-      </c>
-      <c r="O154" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v/>
-      </c>
-      <c r="B155" t="str">
-        <v/>
-      </c>
-      <c r="C155" t="str">
-        <v/>
-      </c>
-      <c r="D155" t="str">
-        <v/>
-      </c>
-      <c r="E155" t="str">
-        <v/>
-      </c>
-      <c r="F155" t="str">
-        <v/>
-      </c>
-      <c r="G155" t="str">
-        <v/>
-      </c>
-      <c r="H155" t="str">
-        <v/>
-      </c>
-      <c r="I155" t="str">
-        <v/>
-      </c>
-      <c r="J155" t="str">
-        <v/>
-      </c>
-      <c r="K155" t="str">
-        <v/>
-      </c>
-      <c r="L155" t="str">
-        <v/>
-      </c>
-      <c r="M155" t="str">
-        <v/>
-      </c>
-      <c r="N155" t="str">
-        <v/>
-      </c>
-      <c r="O155" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v/>
-      </c>
-      <c r="B156" t="str">
-        <v/>
-      </c>
-      <c r="C156" t="str">
-        <v/>
-      </c>
-      <c r="D156" t="str">
-        <v/>
-      </c>
-      <c r="E156" t="str">
-        <v/>
-      </c>
-      <c r="F156" t="str">
-        <v/>
-      </c>
-      <c r="G156" t="str">
-        <v/>
-      </c>
-      <c r="H156" t="str">
-        <v/>
-      </c>
-      <c r="I156" t="str">
-        <v/>
-      </c>
-      <c r="J156" t="str">
-        <v/>
-      </c>
-      <c r="K156" t="str">
-        <v/>
-      </c>
-      <c r="L156" t="str">
-        <v/>
-      </c>
-      <c r="M156" t="str">
-        <v/>
-      </c>
-      <c r="N156" t="str">
-        <v/>
-      </c>
-      <c r="O156" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v/>
-      </c>
-      <c r="B157" t="str">
-        <v/>
-      </c>
-      <c r="C157" t="str">
-        <v/>
-      </c>
-      <c r="D157" t="str">
-        <v/>
-      </c>
-      <c r="E157" t="str">
-        <v/>
-      </c>
-      <c r="F157" t="str">
-        <v/>
-      </c>
-      <c r="G157" t="str">
-        <v/>
-      </c>
-      <c r="H157" t="str">
-        <v/>
-      </c>
-      <c r="I157" t="str">
-        <v/>
-      </c>
-      <c r="J157" t="str">
-        <v/>
-      </c>
-      <c r="K157" t="str">
-        <v/>
-      </c>
-      <c r="L157" t="str">
-        <v/>
-      </c>
-      <c r="M157" t="str">
-        <v/>
-      </c>
-      <c r="N157" t="str">
-        <v/>
-      </c>
-      <c r="O157" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v/>
-      </c>
-      <c r="B158" t="str">
-        <v/>
-      </c>
-      <c r="C158" t="str">
-        <v/>
-      </c>
-      <c r="D158" t="str">
-        <v/>
-      </c>
-      <c r="E158" t="str">
-        <v/>
-      </c>
-      <c r="F158" t="str">
-        <v/>
-      </c>
-      <c r="G158" t="str">
-        <v/>
-      </c>
-      <c r="H158" t="str">
-        <v/>
-      </c>
-      <c r="I158" t="str">
-        <v/>
-      </c>
-      <c r="J158" t="str">
-        <v/>
-      </c>
-      <c r="K158" t="str">
-        <v/>
-      </c>
-      <c r="L158" t="str">
-        <v/>
-      </c>
-      <c r="M158" t="str">
-        <v/>
-      </c>
-      <c r="N158" t="str">
-        <v/>
-      </c>
-      <c r="O158" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v/>
-      </c>
-      <c r="B159" t="str">
-        <v/>
-      </c>
-      <c r="C159" t="str">
-        <v/>
-      </c>
-      <c r="D159" t="str">
-        <v/>
-      </c>
-      <c r="E159" t="str">
-        <v/>
-      </c>
-      <c r="F159" t="str">
-        <v/>
-      </c>
-      <c r="G159" t="str">
-        <v/>
-      </c>
-      <c r="H159" t="str">
-        <v/>
-      </c>
-      <c r="I159" t="str">
-        <v/>
-      </c>
-      <c r="J159" t="str">
-        <v/>
-      </c>
-      <c r="K159" t="str">
-        <v/>
-      </c>
-      <c r="L159" t="str">
-        <v/>
-      </c>
-      <c r="M159" t="str">
-        <v/>
-      </c>
-      <c r="N159" t="str">
-        <v/>
-      </c>
-      <c r="O159" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v/>
-      </c>
-      <c r="B160" t="str">
-        <v/>
-      </c>
-      <c r="C160" t="str">
-        <v/>
-      </c>
-      <c r="D160" t="str">
-        <v/>
-      </c>
-      <c r="E160" t="str">
-        <v/>
-      </c>
-      <c r="F160" t="str">
-        <v/>
-      </c>
-      <c r="G160" t="str">
-        <v/>
-      </c>
-      <c r="H160" t="str">
-        <v/>
-      </c>
-      <c r="I160" t="str">
-        <v/>
-      </c>
-      <c r="J160" t="str">
-        <v/>
-      </c>
-      <c r="K160" t="str">
-        <v/>
-      </c>
-      <c r="L160" t="str">
-        <v/>
-      </c>
-      <c r="M160" t="str">
-        <v/>
-      </c>
-      <c r="N160" t="str">
-        <v/>
-      </c>
-      <c r="O160" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v/>
-      </c>
-      <c r="B161" t="str">
-        <v/>
-      </c>
-      <c r="C161" t="str">
-        <v/>
-      </c>
-      <c r="D161" t="str">
-        <v/>
-      </c>
-      <c r="E161" t="str">
-        <v/>
-      </c>
-      <c r="F161" t="str">
-        <v/>
-      </c>
-      <c r="G161" t="str">
-        <v/>
-      </c>
-      <c r="H161" t="str">
-        <v/>
-      </c>
-      <c r="I161" t="str">
-        <v/>
-      </c>
-      <c r="J161" t="str">
-        <v/>
-      </c>
-      <c r="K161" t="str">
-        <v/>
-      </c>
-      <c r="L161" t="str">
-        <v/>
-      </c>
-      <c r="M161" t="str">
-        <v/>
-      </c>
-      <c r="N161" t="str">
-        <v/>
-      </c>
-      <c r="O161" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v/>
-      </c>
-      <c r="B162" t="str">
-        <v/>
-      </c>
-      <c r="C162" t="str">
-        <v/>
-      </c>
-      <c r="D162" t="str">
-        <v/>
-      </c>
-      <c r="E162" t="str">
-        <v/>
-      </c>
-      <c r="F162" t="str">
-        <v/>
-      </c>
-      <c r="G162" t="str">
-        <v/>
-      </c>
-      <c r="H162" t="str">
-        <v/>
-      </c>
-      <c r="I162" t="str">
-        <v/>
-      </c>
-      <c r="J162" t="str">
-        <v/>
-      </c>
-      <c r="K162" t="str">
-        <v/>
-      </c>
-      <c r="L162" t="str">
-        <v/>
-      </c>
-      <c r="M162" t="str">
-        <v/>
-      </c>
-      <c r="N162" t="str">
-        <v/>
-      </c>
-      <c r="O162" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v/>
-      </c>
-      <c r="B163" t="str">
-        <v/>
-      </c>
-      <c r="C163" t="str">
-        <v/>
-      </c>
-      <c r="D163" t="str">
-        <v/>
-      </c>
-      <c r="E163" t="str">
-        <v/>
-      </c>
-      <c r="F163" t="str">
-        <v/>
-      </c>
-      <c r="G163" t="str">
-        <v/>
-      </c>
-      <c r="H163" t="str">
-        <v/>
-      </c>
-      <c r="I163" t="str">
-        <v/>
-      </c>
-      <c r="J163" t="str">
-        <v/>
-      </c>
-      <c r="K163" t="str">
-        <v/>
-      </c>
-      <c r="L163" t="str">
-        <v/>
-      </c>
-      <c r="M163" t="str">
-        <v/>
-      </c>
-      <c r="N163" t="str">
-        <v/>
-      </c>
-      <c r="O163" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v/>
-      </c>
-      <c r="B164" t="str">
-        <v/>
-      </c>
-      <c r="C164" t="str">
-        <v/>
-      </c>
-      <c r="D164" t="str">
-        <v/>
-      </c>
-      <c r="E164" t="str">
-        <v/>
-      </c>
-      <c r="F164" t="str">
-        <v/>
-      </c>
-      <c r="G164" t="str">
-        <v/>
-      </c>
-      <c r="H164" t="str">
-        <v/>
-      </c>
-      <c r="I164" t="str">
-        <v/>
-      </c>
-      <c r="J164" t="str">
-        <v/>
-      </c>
-      <c r="K164" t="str">
-        <v/>
-      </c>
-      <c r="L164" t="str">
-        <v/>
-      </c>
-      <c r="M164" t="str">
-        <v/>
-      </c>
-      <c r="N164" t="str">
-        <v/>
-      </c>
-      <c r="O164" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v/>
-      </c>
-      <c r="B165" t="str">
-        <v/>
-      </c>
-      <c r="C165" t="str">
-        <v/>
-      </c>
-      <c r="D165" t="str">
-        <v/>
-      </c>
-      <c r="E165" t="str">
-        <v/>
-      </c>
-      <c r="F165" t="str">
-        <v/>
-      </c>
-      <c r="G165" t="str">
-        <v/>
-      </c>
-      <c r="H165" t="str">
-        <v/>
-      </c>
-      <c r="I165" t="str">
-        <v/>
-      </c>
-      <c r="J165" t="str">
-        <v/>
-      </c>
-      <c r="K165" t="str">
-        <v/>
-      </c>
-      <c r="L165" t="str">
-        <v/>
-      </c>
-      <c r="M165" t="str">
-        <v/>
-      </c>
-      <c r="N165" t="str">
-        <v/>
-      </c>
-      <c r="O165" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="str">
-        <v/>
-      </c>
-      <c r="B166" t="str">
-        <v/>
-      </c>
-      <c r="C166" t="str">
-        <v/>
-      </c>
-      <c r="D166" t="str">
-        <v/>
-      </c>
-      <c r="E166" t="str">
-        <v/>
-      </c>
-      <c r="F166" t="str">
-        <v/>
-      </c>
-      <c r="G166" t="str">
-        <v/>
-      </c>
-      <c r="H166" t="str">
-        <v/>
-      </c>
-      <c r="I166" t="str">
-        <v/>
-      </c>
-      <c r="J166" t="str">
-        <v/>
-      </c>
-      <c r="K166" t="str">
-        <v/>
-      </c>
-      <c r="L166" t="str">
-        <v/>
-      </c>
-      <c r="M166" t="str">
-        <v/>
-      </c>
-      <c r="N166" t="str">
-        <v/>
-      </c>
-      <c r="O166" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="str">
-        <v/>
-      </c>
-      <c r="B167" t="str">
-        <v/>
-      </c>
-      <c r="C167" t="str">
-        <v/>
-      </c>
-      <c r="D167" t="str">
-        <v/>
-      </c>
-      <c r="E167" t="str">
-        <v/>
-      </c>
-      <c r="F167" t="str">
-        <v/>
-      </c>
-      <c r="G167" t="str">
-        <v/>
-      </c>
-      <c r="H167" t="str">
-        <v/>
-      </c>
-      <c r="I167" t="str">
-        <v/>
-      </c>
-      <c r="J167" t="str">
-        <v/>
-      </c>
-      <c r="K167" t="str">
-        <v/>
-      </c>
-      <c r="L167" t="str">
-        <v/>
-      </c>
-      <c r="M167" t="str">
-        <v/>
-      </c>
-      <c r="N167" t="str">
-        <v/>
-      </c>
-      <c r="O167" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="str">
-        <v/>
-      </c>
-      <c r="B168" t="str">
-        <v/>
-      </c>
-      <c r="C168" t="str">
-        <v/>
-      </c>
-      <c r="D168" t="str">
-        <v/>
-      </c>
-      <c r="E168" t="str">
-        <v/>
-      </c>
-      <c r="F168" t="str">
-        <v/>
-      </c>
-      <c r="G168" t="str">
-        <v/>
-      </c>
-      <c r="H168" t="str">
-        <v/>
-      </c>
-      <c r="I168" t="str">
-        <v/>
-      </c>
-      <c r="J168" t="str">
-        <v/>
-      </c>
-      <c r="K168" t="str">
-        <v/>
-      </c>
-      <c r="L168" t="str">
-        <v/>
-      </c>
-      <c r="M168" t="str">
-        <v/>
-      </c>
-      <c r="N168" t="str">
-        <v/>
-      </c>
-      <c r="O168" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v/>
-      </c>
-      <c r="B169" t="str">
-        <v/>
-      </c>
-      <c r="C169" t="str">
-        <v/>
-      </c>
-      <c r="D169" t="str">
-        <v/>
-      </c>
-      <c r="E169" t="str">
-        <v/>
-      </c>
-      <c r="F169" t="str">
-        <v/>
-      </c>
-      <c r="G169" t="str">
-        <v/>
-      </c>
-      <c r="H169" t="str">
-        <v/>
-      </c>
-      <c r="I169" t="str">
-        <v/>
-      </c>
-      <c r="J169" t="str">
-        <v/>
-      </c>
-      <c r="K169" t="str">
-        <v/>
-      </c>
-      <c r="L169" t="str">
-        <v/>
-      </c>
-      <c r="M169" t="str">
-        <v/>
-      </c>
-      <c r="N169" t="str">
-        <v/>
-      </c>
-      <c r="O169" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v/>
-      </c>
-      <c r="B170" t="str">
-        <v/>
-      </c>
-      <c r="C170" t="str">
-        <v/>
-      </c>
-      <c r="D170" t="str">
-        <v/>
-      </c>
-      <c r="E170" t="str">
-        <v/>
-      </c>
-      <c r="F170" t="str">
-        <v/>
-      </c>
-      <c r="G170" t="str">
-        <v/>
-      </c>
-      <c r="H170" t="str">
-        <v/>
-      </c>
-      <c r="I170" t="str">
-        <v/>
-      </c>
-      <c r="J170" t="str">
-        <v/>
-      </c>
-      <c r="K170" t="str">
-        <v/>
-      </c>
-      <c r="L170" t="str">
-        <v/>
-      </c>
-      <c r="M170" t="str">
-        <v/>
-      </c>
-      <c r="N170" t="str">
-        <v/>
-      </c>
-      <c r="O170" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="str">
-        <v/>
-      </c>
-      <c r="B171" t="str">
-        <v/>
-      </c>
-      <c r="C171" t="str">
-        <v/>
-      </c>
-      <c r="D171" t="str">
-        <v/>
-      </c>
-      <c r="E171" t="str">
-        <v/>
-      </c>
-      <c r="F171" t="str">
-        <v/>
-      </c>
-      <c r="G171" t="str">
-        <v/>
-      </c>
-      <c r="H171" t="str">
-        <v/>
-      </c>
-      <c r="I171" t="str">
-        <v/>
-      </c>
-      <c r="J171" t="str">
-        <v/>
-      </c>
-      <c r="K171" t="str">
-        <v/>
-      </c>
-      <c r="L171" t="str">
-        <v/>
-      </c>
-      <c r="M171" t="str">
-        <v/>
-      </c>
-      <c r="N171" t="str">
-        <v/>
-      </c>
-      <c r="O171" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="str">
-        <v/>
-      </c>
-      <c r="B172" t="str">
-        <v/>
-      </c>
-      <c r="C172" t="str">
-        <v/>
-      </c>
-      <c r="D172" t="str">
-        <v/>
-      </c>
-      <c r="E172" t="str">
-        <v/>
-      </c>
-      <c r="F172" t="str">
-        <v/>
-      </c>
-      <c r="G172" t="str">
-        <v/>
-      </c>
-      <c r="H172" t="str">
-        <v/>
-      </c>
-      <c r="I172" t="str">
-        <v/>
-      </c>
-      <c r="J172" t="str">
-        <v/>
-      </c>
-      <c r="K172" t="str">
-        <v/>
-      </c>
-      <c r="L172" t="str">
-        <v/>
-      </c>
-      <c r="M172" t="str">
-        <v/>
-      </c>
-      <c r="N172" t="str">
-        <v/>
-      </c>
-      <c r="O172" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="str">
-        <v/>
-      </c>
-      <c r="B173" t="str">
-        <v/>
-      </c>
-      <c r="C173" t="str">
-        <v/>
-      </c>
-      <c r="D173" t="str">
-        <v/>
-      </c>
-      <c r="E173" t="str">
-        <v/>
-      </c>
-      <c r="F173" t="str">
-        <v/>
-      </c>
-      <c r="G173" t="str">
-        <v/>
-      </c>
-      <c r="H173" t="str">
-        <v/>
-      </c>
-      <c r="I173" t="str">
-        <v/>
-      </c>
-      <c r="J173" t="str">
-        <v/>
-      </c>
-      <c r="K173" t="str">
-        <v/>
-      </c>
-      <c r="L173" t="str">
-        <v/>
-      </c>
-      <c r="M173" t="str">
-        <v/>
-      </c>
-      <c r="N173" t="str">
-        <v/>
-      </c>
-      <c r="O173" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="str">
-        <v/>
-      </c>
-      <c r="B174" t="str">
-        <v/>
-      </c>
-      <c r="C174" t="str">
-        <v/>
-      </c>
-      <c r="D174" t="str">
-        <v/>
-      </c>
-      <c r="E174" t="str">
-        <v/>
-      </c>
-      <c r="F174" t="str">
-        <v/>
-      </c>
-      <c r="G174" t="str">
-        <v/>
-      </c>
-      <c r="H174" t="str">
-        <v/>
-      </c>
-      <c r="I174" t="str">
-        <v/>
-      </c>
-      <c r="J174" t="str">
-        <v/>
-      </c>
-      <c r="K174" t="str">
-        <v/>
-      </c>
-      <c r="L174" t="str">
-        <v/>
-      </c>
-      <c r="M174" t="str">
-        <v/>
-      </c>
-      <c r="N174" t="str">
-        <v/>
-      </c>
-      <c r="O174" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="str">
-        <v/>
-      </c>
-      <c r="B175" t="str">
-        <v/>
-      </c>
-      <c r="C175" t="str">
-        <v/>
-      </c>
-      <c r="D175" t="str">
-        <v/>
-      </c>
-      <c r="E175" t="str">
-        <v/>
-      </c>
-      <c r="F175" t="str">
-        <v/>
-      </c>
-      <c r="G175" t="str">
-        <v/>
-      </c>
-      <c r="H175" t="str">
-        <v/>
-      </c>
-      <c r="I175" t="str">
-        <v/>
-      </c>
-      <c r="J175" t="str">
-        <v/>
-      </c>
-      <c r="K175" t="str">
-        <v/>
-      </c>
-      <c r="L175" t="str">
-        <v/>
-      </c>
-      <c r="M175" t="str">
-        <v/>
-      </c>
-      <c r="N175" t="str">
-        <v/>
-      </c>
-      <c r="O175" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="str">
-        <v/>
-      </c>
-      <c r="B176" t="str">
-        <v/>
-      </c>
-      <c r="C176" t="str">
-        <v/>
-      </c>
-      <c r="D176" t="str">
-        <v/>
-      </c>
-      <c r="E176" t="str">
-        <v/>
-      </c>
-      <c r="F176" t="str">
-        <v/>
-      </c>
-      <c r="G176" t="str">
-        <v/>
-      </c>
-      <c r="H176" t="str">
-        <v/>
-      </c>
-      <c r="I176" t="str">
-        <v/>
-      </c>
-      <c r="J176" t="str">
-        <v/>
-      </c>
-      <c r="K176" t="str">
-        <v/>
-      </c>
-      <c r="L176" t="str">
-        <v/>
-      </c>
-      <c r="M176" t="str">
-        <v/>
-      </c>
-      <c r="N176" t="str">
-        <v/>
-      </c>
-      <c r="O176" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="str">
-        <v/>
-      </c>
-      <c r="B177" t="str">
-        <v/>
-      </c>
-      <c r="C177" t="str">
-        <v/>
-      </c>
-      <c r="D177" t="str">
-        <v/>
-      </c>
-      <c r="E177" t="str">
-        <v/>
-      </c>
-      <c r="F177" t="str">
-        <v/>
-      </c>
-      <c r="G177" t="str">
-        <v/>
-      </c>
-      <c r="H177" t="str">
-        <v/>
-      </c>
-      <c r="I177" t="str">
-        <v/>
-      </c>
-      <c r="J177" t="str">
-        <v/>
-      </c>
-      <c r="K177" t="str">
-        <v/>
-      </c>
-      <c r="L177" t="str">
-        <v/>
-      </c>
-      <c r="M177" t="str">
-        <v/>
-      </c>
-      <c r="N177" t="str">
-        <v/>
-      </c>
-      <c r="O177" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="str">
-        <v/>
-      </c>
-      <c r="B178" t="str">
-        <v/>
-      </c>
-      <c r="C178" t="str">
-        <v/>
-      </c>
-      <c r="D178" t="str">
-        <v/>
-      </c>
-      <c r="E178" t="str">
-        <v/>
-      </c>
-      <c r="F178" t="str">
-        <v/>
-      </c>
-      <c r="G178" t="str">
-        <v/>
-      </c>
-      <c r="H178" t="str">
-        <v/>
-      </c>
-      <c r="I178" t="str">
-        <v/>
-      </c>
-      <c r="J178" t="str">
-        <v/>
-      </c>
-      <c r="K178" t="str">
-        <v/>
-      </c>
-      <c r="L178" t="str">
-        <v/>
-      </c>
-      <c r="M178" t="str">
-        <v/>
-      </c>
-      <c r="N178" t="str">
-        <v/>
-      </c>
-      <c r="O178" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="str">
-        <v/>
-      </c>
-      <c r="B179" t="str">
-        <v/>
-      </c>
-      <c r="C179" t="str">
-        <v/>
-      </c>
-      <c r="D179" t="str">
-        <v/>
-      </c>
-      <c r="E179" t="str">
-        <v/>
-      </c>
-      <c r="F179" t="str">
-        <v/>
-      </c>
-      <c r="G179" t="str">
-        <v/>
-      </c>
-      <c r="H179" t="str">
-        <v/>
-      </c>
-      <c r="I179" t="str">
-        <v/>
-      </c>
-      <c r="J179" t="str">
-        <v/>
-      </c>
-      <c r="K179" t="str">
-        <v/>
-      </c>
-      <c r="L179" t="str">
-        <v/>
-      </c>
-      <c r="M179" t="str">
-        <v/>
-      </c>
-      <c r="N179" t="str">
-        <v/>
-      </c>
-      <c r="O179" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="str">
-        <v/>
-      </c>
-      <c r="B180" t="str">
-        <v/>
-      </c>
-      <c r="C180" t="str">
-        <v/>
-      </c>
-      <c r="D180" t="str">
-        <v/>
-      </c>
-      <c r="E180" t="str">
-        <v/>
-      </c>
-      <c r="F180" t="str">
-        <v/>
-      </c>
-      <c r="G180" t="str">
-        <v/>
-      </c>
-      <c r="H180" t="str">
-        <v/>
-      </c>
-      <c r="I180" t="str">
-        <v/>
-      </c>
-      <c r="J180" t="str">
-        <v/>
-      </c>
-      <c r="K180" t="str">
-        <v/>
-      </c>
-      <c r="L180" t="str">
-        <v/>
-      </c>
-      <c r="M180" t="str">
-        <v/>
-      </c>
-      <c r="N180" t="str">
-        <v/>
-      </c>
-      <c r="O180" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="str">
-        <v/>
-      </c>
-      <c r="B181" t="str">
-        <v/>
-      </c>
-      <c r="C181" t="str">
-        <v/>
-      </c>
-      <c r="D181" t="str">
-        <v/>
-      </c>
-      <c r="E181" t="str">
-        <v/>
-      </c>
-      <c r="F181" t="str">
-        <v/>
-      </c>
-      <c r="G181" t="str">
-        <v/>
-      </c>
-      <c r="H181" t="str">
-        <v/>
-      </c>
-      <c r="I181" t="str">
-        <v/>
-      </c>
-      <c r="J181" t="str">
-        <v/>
-      </c>
-      <c r="K181" t="str">
-        <v/>
-      </c>
-      <c r="L181" t="str">
-        <v/>
-      </c>
-      <c r="M181" t="str">
-        <v/>
-      </c>
-      <c r="N181" t="str">
-        <v/>
-      </c>
-      <c r="O181" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="str">
-        <v/>
-      </c>
-      <c r="B182" t="str">
-        <v/>
-      </c>
-      <c r="C182" t="str">
-        <v/>
-      </c>
-      <c r="D182" t="str">
-        <v/>
-      </c>
-      <c r="E182" t="str">
-        <v/>
-      </c>
-      <c r="F182" t="str">
-        <v/>
-      </c>
-      <c r="G182" t="str">
-        <v/>
-      </c>
-      <c r="H182" t="str">
-        <v/>
-      </c>
-      <c r="I182" t="str">
-        <v/>
-      </c>
-      <c r="J182" t="str">
-        <v/>
-      </c>
-      <c r="K182" t="str">
-        <v/>
-      </c>
-      <c r="L182" t="str">
-        <v/>
-      </c>
-      <c r="M182" t="str">
-        <v/>
-      </c>
-      <c r="N182" t="str">
-        <v/>
-      </c>
-      <c r="O182" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v/>
-      </c>
-      <c r="B183" t="str">
-        <v/>
-      </c>
-      <c r="C183" t="str">
-        <v/>
-      </c>
-      <c r="D183" t="str">
-        <v/>
-      </c>
-      <c r="E183" t="str">
-        <v/>
-      </c>
-      <c r="F183" t="str">
-        <v/>
-      </c>
-      <c r="G183" t="str">
-        <v/>
-      </c>
-      <c r="H183" t="str">
-        <v/>
-      </c>
-      <c r="I183" t="str">
-        <v/>
-      </c>
-      <c r="J183" t="str">
-        <v/>
-      </c>
-      <c r="K183" t="str">
-        <v/>
-      </c>
-      <c r="L183" t="str">
-        <v/>
-      </c>
-      <c r="M183" t="str">
-        <v/>
-      </c>
-      <c r="N183" t="str">
-        <v/>
-      </c>
-      <c r="O183" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v/>
-      </c>
-      <c r="B184" t="str">
-        <v/>
-      </c>
-      <c r="C184" t="str">
-        <v/>
-      </c>
-      <c r="D184" t="str">
-        <v/>
-      </c>
-      <c r="E184" t="str">
-        <v/>
-      </c>
-      <c r="F184" t="str">
-        <v/>
-      </c>
-      <c r="G184" t="str">
-        <v/>
-      </c>
-      <c r="H184" t="str">
-        <v/>
-      </c>
-      <c r="I184" t="str">
-        <v/>
-      </c>
-      <c r="J184" t="str">
-        <v/>
-      </c>
-      <c r="K184" t="str">
-        <v/>
-      </c>
-      <c r="L184" t="str">
-        <v/>
-      </c>
-      <c r="M184" t="str">
-        <v/>
-      </c>
-      <c r="N184" t="str">
-        <v/>
-      </c>
-      <c r="O184" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="str">
-        <v/>
-      </c>
-      <c r="B185" t="str">
-        <v/>
-      </c>
-      <c r="C185" t="str">
-        <v/>
-      </c>
-      <c r="D185" t="str">
-        <v/>
-      </c>
-      <c r="E185" t="str">
-        <v/>
-      </c>
-      <c r="F185" t="str">
-        <v/>
-      </c>
-      <c r="G185" t="str">
-        <v/>
-      </c>
-      <c r="H185" t="str">
-        <v/>
-      </c>
-      <c r="I185" t="str">
-        <v/>
-      </c>
-      <c r="J185" t="str">
-        <v/>
-      </c>
-      <c r="K185" t="str">
-        <v/>
-      </c>
-      <c r="L185" t="str">
-        <v/>
-      </c>
-      <c r="M185" t="str">
-        <v/>
-      </c>
-      <c r="N185" t="str">
-        <v/>
-      </c>
-      <c r="O185" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="str">
-        <v/>
-      </c>
-      <c r="B186" t="str">
-        <v/>
-      </c>
-      <c r="C186" t="str">
-        <v/>
-      </c>
-      <c r="D186" t="str">
-        <v/>
-      </c>
-      <c r="E186" t="str">
-        <v/>
-      </c>
-      <c r="F186" t="str">
-        <v/>
-      </c>
-      <c r="G186" t="str">
-        <v/>
-      </c>
-      <c r="H186" t="str">
-        <v/>
-      </c>
-      <c r="I186" t="str">
-        <v/>
-      </c>
-      <c r="J186" t="str">
-        <v/>
-      </c>
-      <c r="K186" t="str">
-        <v/>
-      </c>
-      <c r="L186" t="str">
-        <v/>
-      </c>
-      <c r="M186" t="str">
-        <v/>
-      </c>
-      <c r="N186" t="str">
-        <v/>
-      </c>
-      <c r="O186" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="str">
-        <v/>
-      </c>
-      <c r="B187" t="str">
-        <v/>
-      </c>
-      <c r="C187" t="str">
-        <v/>
-      </c>
-      <c r="D187" t="str">
-        <v/>
-      </c>
-      <c r="E187" t="str">
-        <v/>
-      </c>
-      <c r="F187" t="str">
-        <v/>
-      </c>
-      <c r="G187" t="str">
-        <v/>
-      </c>
-      <c r="H187" t="str">
-        <v/>
-      </c>
-      <c r="I187" t="str">
-        <v/>
-      </c>
-      <c r="J187" t="str">
-        <v/>
-      </c>
-      <c r="K187" t="str">
-        <v/>
-      </c>
-      <c r="L187" t="str">
-        <v/>
-      </c>
-      <c r="M187" t="str">
-        <v/>
-      </c>
-      <c r="N187" t="str">
-        <v/>
-      </c>
-      <c r="O187" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="str">
-        <v/>
-      </c>
-      <c r="B188" t="str">
-        <v/>
-      </c>
-      <c r="C188" t="str">
-        <v/>
-      </c>
-      <c r="D188" t="str">
-        <v/>
-      </c>
-      <c r="E188" t="str">
-        <v/>
-      </c>
-      <c r="F188" t="str">
-        <v/>
-      </c>
-      <c r="G188" t="str">
-        <v/>
-      </c>
-      <c r="H188" t="str">
-        <v/>
-      </c>
-      <c r="I188" t="str">
-        <v/>
-      </c>
-      <c r="J188" t="str">
-        <v/>
-      </c>
-      <c r="K188" t="str">
-        <v/>
-      </c>
-      <c r="L188" t="str">
-        <v/>
-      </c>
-      <c r="M188" t="str">
-        <v/>
-      </c>
-      <c r="N188" t="str">
-        <v/>
-      </c>
-      <c r="O188" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="str">
-        <v/>
-      </c>
-      <c r="B189" t="str">
-        <v/>
-      </c>
-      <c r="C189" t="str">
-        <v/>
-      </c>
-      <c r="D189" t="str">
-        <v/>
-      </c>
-      <c r="E189" t="str">
-        <v/>
-      </c>
-      <c r="F189" t="str">
-        <v/>
-      </c>
-      <c r="G189" t="str">
-        <v/>
-      </c>
-      <c r="H189" t="str">
-        <v/>
-      </c>
-      <c r="I189" t="str">
-        <v/>
-      </c>
-      <c r="J189" t="str">
-        <v/>
-      </c>
-      <c r="K189" t="str">
-        <v/>
-      </c>
-      <c r="L189" t="str">
-        <v/>
-      </c>
-      <c r="M189" t="str">
-        <v/>
-      </c>
-      <c r="N189" t="str">
-        <v/>
-      </c>
-      <c r="O189" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="str">
-        <v/>
-      </c>
-      <c r="B190" t="str">
-        <v/>
-      </c>
-      <c r="C190" t="str">
-        <v/>
-      </c>
-      <c r="D190" t="str">
-        <v/>
-      </c>
-      <c r="E190" t="str">
-        <v/>
-      </c>
-      <c r="F190" t="str">
-        <v/>
-      </c>
-      <c r="G190" t="str">
-        <v/>
-      </c>
-      <c r="H190" t="str">
-        <v/>
-      </c>
-      <c r="I190" t="str">
-        <v/>
-      </c>
-      <c r="J190" t="str">
-        <v/>
-      </c>
-      <c r="K190" t="str">
-        <v/>
-      </c>
-      <c r="L190" t="str">
-        <v/>
-      </c>
-      <c r="M190" t="str">
-        <v/>
-      </c>
-      <c r="N190" t="str">
-        <v/>
-      </c>
-      <c r="O190" t="str">
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O190"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O83"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -9663,7 +9663,7 @@
         <v>2025-11-27</v>
       </c>
       <c r="N29" t="str">
-        <v>Yapıldı</v>
+        <v/>
       </c>
       <c r="O29" t="str">
         <v/>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -5,11 +5,10 @@
   <sheets>
     <sheet name="İş Takip Listesi" sheetId="1" r:id="rId1"/>
     <sheet name="Güncelleme" sheetId="2" r:id="rId2"/>
-    <sheet name="Güncelleme(2026)" sheetId="3" r:id="rId3"/>
-    <sheet name="Personel" sheetId="4" r:id="rId4"/>
-    <sheet name="İlçe" sheetId="5" r:id="rId5"/>
-    <sheet name="Uygulama" sheetId="6" r:id="rId6"/>
-    <sheet name="Liste" sheetId="7" r:id="rId7"/>
+    <sheet name="Personel" sheetId="3" r:id="rId3"/>
+    <sheet name="İlçe" sheetId="4" r:id="rId4"/>
+    <sheet name="Uygulama" sheetId="5" r:id="rId5"/>
+    <sheet name="Liste" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -4320,27 +4319,18 @@
         <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M102" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-07.11.2025 ormanı bakıp teslim edecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-10.11.2025 kontrol edilip firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-10.11.2025 Ormancı 11.11.2025 teslim edecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-13.11.2025 Ormancı 17.11.2025 teslim edecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-20.11.2025 orman mükerrerliği ile ilgili beyanname düzenlendi tescili bekleniyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.12.2025 Krokilerine başlanıldı_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.12.2025 Proje hazırlanıyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-22.12.2025 Proje hazırlanıyor _x000d__x000d__x000d_
-_x000d__x000d__x000d_
-05.01.2026 KROKİLERE BAŞLANACAK_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.01.2026 Devam ediyor firma</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+07.11.2025 ormanı bakıp teslim edecek
+10.11.2025 kontrol edilip firmaya teslim edilecek
+10.11.2025 Ormancı 11.11.2025 teslim edecek
+13.11.2025 Ormancı 17.11.2025 teslim edecek
+20.11.2025 orman mükerrerliği ile ilgili beyanname düzenlendi tescili bekleniyor
+02.12.2025 Krokilerine başlanıldı
+15.12.2025 Proje hazırlanıyor
+22.12.2025 Proje hazırlanıyor 
+05.01.2026 KROKİLERE BAŞLANACAK
+15.01.2026 Devam ediyor firma
+31.01.2026 Personel kontrolünde 09-13.02 askı ilanı yapılacak</v>
       </c>
     </row>
     <row r="103">
@@ -4498,23 +4488,16 @@
         <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M106" t="str" xml:space="preserve">
-        <v xml:space="preserve">03.11.2025 firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-05.11.2025 kontroller devam ediyor 10.11.2025 bazı yerlerin arazi kontrolleri yapılacak_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-13.11.2025 arazi kontrolü 18.11.2025 de yapılıp, 21.11.2025 de firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-20.11.2025 arazi kontrolü yapılıyor 24.11.2025 de firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.12.2025 krokileri hazırlanıyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.12.2025 Krokileri basılıyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-22.12.2025 Kroki kontrolü 25.12.2025 biticek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.01.2026 Tutanaklarına başlanıldı_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.01.2026 TEMUR beyin kontrolünde</v>
+        <v xml:space="preserve">03.11.2025 firmaya teslim edilecek
+05.11.2025 kontroller devam ediyor 10.11.2025 bazı yerlerin arazi kontrolleri yapılacak
+13.11.2025 arazi kontrolü 18.11.2025 de yapılıp, 21.11.2025 de firmaya teslim edilecek
+20.11.2025 arazi kontrolü yapılıyor 24.11.2025 de firmaya teslim edilecek
+02.12.2025 krokileri hazırlanıyor
+15.12.2025 Krokileri basılıyor
+22.12.2025 Kroki kontrolü 25.12.2025 biticek
+02.01.2026 Tutanaklarına başlanıldı
+15.01.2026 TEMUR beyin kontrolünde
+31.01.2026 03.02 askı yapılacak</v>
       </c>
     </row>
     <row r="107" xml:space="preserve">
@@ -4727,22 +4710,16 @@
         <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
       <c r="M111" t="str" xml:space="preserve">
-        <v xml:space="preserve">24.10.2025 firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-28.10.2025 firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-03.11.2025 ormancı kontrolünde_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-20.11.2025 ormancı kontrolünde_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.12.2025 Firmaya teslim edildi_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.12.2025 Proje hazırlanıyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-22.12.2025 Kroki hazırlanıyor. 26.12.205 de biticek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.01.2026 Kroki kontrolüne 05.01.2026 başlanıp 08.01.2026 bitip tutanağa geçilecek _x000d__x000d__x000d_
-15.01.2026 Tutanak başlanılacak</v>
+        <v xml:space="preserve">24.10.2025 firmaya teslim edilecek
+28.10.2025 firmaya teslim edilecek
+03.11.2025 ormancı kontrolünde
+20.11.2025 ormancı kontrolünde
+02.12.2025 Firmaya teslim edildi
+15.12.2025 Proje hazırlanıyor
+22.12.2025 Kroki hazırlanıyor. 26.12.205 de biticek
+02.01.2026 Kroki kontrolüne 05.01.2026 başlanıp 08.01.2026 bitip tutanağa geçilecek 
+15.01.2026 Tutanak başlanılacak
+31.01.2026 imza aşamasında haftaiçi askı yapılacak</v>
       </c>
     </row>
     <row r="112">
@@ -4870,15 +4847,12 @@
         <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M114" t="str" xml:space="preserve">
-        <v xml:space="preserve">14.11.2025 firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.12.2025 araziye çıkılacak_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.12.2025 Kısmi arazi kontrolü yapılıp firmaya teslim edilecek(22.12.2025)_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.01.2026 Firmaya 05.01.2026 teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.01.2026 Kroki kontrolünde</v>
+        <v xml:space="preserve">14.11.2025 firmaya teslim edilecek
+02.12.2025 araziye çıkılacak
+15.12.2025 Kısmi arazi kontrolü yapılıp firmaya teslim edilecek(22.12.2025)
+02.01.2026 Firmaya 05.01.2026 teslim edilecek
+15.01.2026 Kroki kontrolünde
+31.01.2026 Kroki müh. kontrolünde</v>
       </c>
     </row>
     <row r="115" xml:space="preserve">
@@ -4919,13 +4893,14 @@
         <v>DEĞERLENDİRMEDE</v>
       </c>
       <c r="M115" t="str" xml:space="preserve">
-        <v xml:space="preserve">Kıymetlendirmede eksiklikler var firma tamamlayacak bu hafta(20.10.2025)_x000d__x000d__x000d__x000d__x000d_
-05.11.2025 eksik uçuşlar teslim edildi_x000d__x000d__x000d__x000d__x000d_
-10.11.2025 kıymetlendirmeler kontrol ediliyor_x000d__x000d__x000d__x000d__x000d_
-13.11.2025 Firmaya 28.11.2025 de teslim edilecek_x000d__x000d__x000d__x000d__x000d_
-15.12.2025 Değerlendirme devam ediyor_x000d__x000d__x000d__x000d__x000d_
-22.12.2025 Kısmi uçuş yapıldı kıymetlendirme yapılıyor aynı zamanda değerlendirme devam ediyor_x000d__x000d__x000d__x000d__x000d_
-02.01.2026 Değerlendirme 15.01.2026 biticek</v>
+        <v xml:space="preserve">Kıymetlendirmede eksiklikler var firma tamamlayacak bu hafta(20.10.2025)
+05.11.2025 eksik uçuşlar teslim edildi
+10.11.2025 kıymetlendirmeler kontrol ediliyor
+13.11.2025 Firmaya 28.11.2025 de teslim edilecek
+15.12.2025 Değerlendirme devam ediyor
+22.12.2025 Kısmi uçuş yapıldı kıymetlendirme yapılıyor aynı zamanda değerlendirme devam ediyor
+02.01.2026 Değerlendirme 15.01.2026 biticek
+31.01.2026 firma projeyi hazırlıyor 16.02.2026 tamamlayacak</v>
       </c>
     </row>
     <row r="116" xml:space="preserve">
@@ -4966,12 +4941,13 @@
         <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M116" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d__x000d__x000d__x000d__x000d_
-05.11.2025 kontroller devam ediyor_x000d__x000d__x000d__x000d__x000d_
-13.11.2025 Firmaya 28.11.2025 teslim edilecek_x000d__x000d__x000d__x000d__x000d_
-02.12.2025 Firmaya 05.12.2025 teslim edilecek_x000d__x000d__x000d__x000d__x000d_
-15.12.2025 Değerlendirme devam ediyor_x000d__x000d__x000d__x000d__x000d_
-02.01.2026 Firmaya 15.01.2026 Teslim edilecek</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+05.11.2025 kontroller devam ediyor
+13.11.2025 Firmaya 28.11.2025 teslim edilecek
+02.12.2025 Firmaya 05.12.2025 teslim edilecek
+15.12.2025 Değerlendirme devam ediyor
+02.01.2026 Firmaya 15.01.2026 Teslim edilecek
+31.01.2026 firma projeyi hazırlıyor 16.02.2026 tamamlayacak</v>
       </c>
     </row>
     <row r="117" xml:space="preserve">
@@ -5012,23 +4988,16 @@
         <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M117" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-07.11.2025 firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-10.11.2025 Firmaya 12.11.2025 de teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-13.11.2025 Firmaya 14.11.2025 de teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-20.11.2025 krokilere 22.11.2025 de başlanarak 24.11.2025 kontrol için verilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.12.2025 Krokiler hazırlanıp kontrolleri yapılıyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.12.2025 Kroki kontrolü devam ediyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-22.12.2025 krokiler 24.12.2025 de bitecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.01.2026 Tutanak kontrolü devam ediyor</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+07.11.2025 firmaya teslim edilecek
+10.11.2025 Firmaya 12.11.2025 de teslim edilecek
+13.11.2025 Firmaya 14.11.2025 de teslim edilecek
+20.11.2025 krokilere 22.11.2025 de başlanarak 24.11.2025 kontrol için verilecek
+02.12.2025 Krokiler hazırlanıp kontrolleri yapılıyor
+15.12.2025 Kroki kontrolü devam ediyor
+22.12.2025 krokiler 24.12.2025 de bitecek
+15.01.2026 Tutanak kontrolü devam ediyor
+31.01.2026 09-13.02 askı ilanı yapılacak</v>
       </c>
     </row>
     <row r="118" xml:space="preserve">
@@ -5128,9 +5097,9 @@
         <v>DEĞERLENDİRMEDE</v>
       </c>
       <c r="M119" t="str" xml:space="preserve">
-        <v xml:space="preserve">15.12.2025 Değerlendirme devam ediyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-22.12.2025 Arazi uçuş yapılacak yerler var. Değerlendirme devam ediyor.</v>
+        <v xml:space="preserve">15.12.2025 Değerlendirme devam ediyor
+22.12.2025 Arazi uçuş yapılacak yerler var. Değerlendirme devam ediyor.
+31.01.2026 Haftaiçi ormancı ve arazi kontrolü sonrası haftasonu firma kroki çalışmalarına başlayacak</v>
       </c>
     </row>
     <row r="120" xml:space="preserve">
@@ -12216,67 +12185,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>İLÇE</v>
-      </c>
-      <c r="B1" t="str">
-        <v>BİRİM</v>
-      </c>
-      <c r="C1" t="str">
-        <v>PARSEL SAYISI</v>
-      </c>
-      <c r="D1" t="str">
-        <v>İDÖ PARSEL SAYISI</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TOPLAM PARSEL</v>
-      </c>
-      <c r="F1" t="str">
-        <v>İŞE BAŞLAMA</v>
-      </c>
-      <c r="G1" t="str">
-        <v>BİTİŞ TARİHİ</v>
-      </c>
-      <c r="H1" t="str">
-        <v>ARAZİ YERSEL ÖLÇÜM TARİHİ(YAPILAN)</v>
-      </c>
-      <c r="I1" t="str">
-        <v>UÇUŞ TARİHİ(YAPILAN)</v>
-      </c>
-      <c r="J1" t="str">
-        <v>UÇUŞ KIYMETLENDİRME DURUM</v>
-      </c>
-      <c r="K1" t="str">
-        <v>DEĞERLENDİRME DURUM</v>
-      </c>
-      <c r="L1" t="str">
-        <v>ORMAN ASKI TARİHİ</v>
-      </c>
-      <c r="M1" t="str">
-        <v>BİLGİLENDİRME İLANI TARİHİ</v>
-      </c>
-      <c r="N1" t="str">
-        <v>KOMİSYON DURUM</v>
-      </c>
-      <c r="O1" t="str">
-        <v>KESİN ASKI TARİHİ</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12897,7 +12805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
@@ -12981,7 +12889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -13025,7 +12933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4143,8 +4143,9 @@
         <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M98" t="str" xml:space="preserve">
-        <v xml:space="preserve">Ormancı kontrolünde(13.10.2025)_x000d__x000d__x000d__x000d__x000d_
-GM OLUR'u beklenecek</v>
+        <v xml:space="preserve">Ormancı kontrolünde(13.10.2025)
+GM OLUR'u beklenecek
+31.01.2026 kroki basılıyor</v>
       </c>
     </row>
     <row r="99">
@@ -5038,24 +5039,16 @@
         <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M118" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-05.11.2025 kontroller devam ediyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-10.11.2025 Değerlendrime 13.11.2025 de bitecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-13.11.2025 Firmaya 17-21 haftası teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-20.11.2025 firmaya 24.11.2025 de teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.12.2025 bugün firmaya teslim edilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-15.12.2025 Proje hazırlanıyor_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-22.12.2025 Proje 25.12.2025 biticek, krokiler 30.12.2025 verilecek_x000d__x000d__x000d_
-_x000d__x000d__x000d_
-02.01.2026 Firma projeyi hazırlıyor _x000d__x000d__x000d_
-_x000d__x000d__x000d_
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+05.11.2025 kontroller devam ediyor
+31.01.2026 firma kroki hazırlıyor
+10.11.2025 Değerlendrime 13.11.2025 de bitecek
+13.11.2025 Firmaya 17-21 haftası teslim edilecek
+20.11.2025 firmaya 24.11.2025 de teslim edilecek
+02.12.2025 bugün firmaya teslim edilecek
+15.12.2025 Proje hazırlanıyor
+22.12.2025 Proje 25.12.2025 biticek, krokiler 30.12.2025 verilecek
+02.01.2026 Firma projeyi hazırlıyor 
 15.01.2026 kroki hazırlanıyor</v>
       </c>
     </row>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4486,7 +4486,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L106" t="str">
-        <v>KROKİ/TUTANAK KONTROLÜ</v>
+        <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M106" t="str" xml:space="preserve">
         <v xml:space="preserve">03.11.2025 firmaya teslim edilecek
@@ -8870,7 +8870,7 @@
         <v/>
       </c>
       <c r="M13" t="str">
-        <v/>
+        <v>2026-02-04</v>
       </c>
       <c r="N13" t="str">
         <v/>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -9202,10 +9202,10 @@
         <v>2025-12-23</v>
       </c>
       <c r="N20" t="str">
-        <v/>
+        <v>Yapıldı</v>
       </c>
       <c r="O20" t="str">
-        <v/>
+        <v>2026-02-04</v>
       </c>
     </row>
     <row r="21">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4799,7 +4799,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L113" t="str">
-        <v>BİLGİLENDİRME İLANINDA</v>
+        <v>KESİN ASKIDA</v>
       </c>
       <c r="M113" t="str" xml:space="preserve">
         <v xml:space="preserve">22.10.2025 firmaya teslim edilecek_x000d__x000d__x000d__x000d__x000d_

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4758,7 +4758,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L112" t="str">
-        <v>BİLGİLENDİRME İLANINDA</v>
+        <v>KESİN ASKIDA</v>
       </c>
       <c r="M112" t="str">
         <v>[x] 20.10.2025 askıya çıkacak</v>
@@ -9155,10 +9155,10 @@
         <v>2025-10-27</v>
       </c>
       <c r="N19" t="str">
-        <v/>
+        <v>Yapıldı</v>
       </c>
       <c r="O19" t="str">
-        <v/>
+        <v>2026-02-04</v>
       </c>
     </row>
     <row r="20">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4183,7 +4183,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L99" t="str">
-        <v>KOMİSYON YAPILDI</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="100" xml:space="preserve">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -3988,7 +3988,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L94" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="95">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -1471,7 +1471,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
+        <v>ARAZİ DEVAM EDİYOR</v>
       </c>
     </row>
     <row r="29">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4891,7 +4891,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L115" t="str">
-        <v>DEĞERLENDİRMEDE</v>
+        <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M115" t="str" xml:space="preserve">
         <v xml:space="preserve">Kıymetlendirmede eksiklikler var firma tamamlayacak bu hafta(20.10.2025)

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4064,7 +4064,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L96" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>KESİN ASKIDAN İNDİ. BEKLEMEDE</v>
       </c>
     </row>
     <row r="97">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4150,7 +4150,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>HAYIR</v>
+        <v>EVET</v>
       </c>
       <c r="B99" t="str">
         <v>Toroslar</v>
@@ -4369,12 +4369,12 @@
         <v>2025-05-23</v>
       </c>
       <c r="L103" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>KESİN ASKIDAN İNDİ. BEKLEMEDE</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>HAYIR</v>
+        <v>EVET</v>
       </c>
       <c r="B104" t="str">
         <v>Toroslar</v>
@@ -4445,7 +4445,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L105" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>KESİN ASKIDAN İNDİ. BEKLEMEDE</v>
       </c>
       <c r="M105" t="str">
         <v>[x] 21.10.2025 komisyon yapılacak(İsmail Pehlivan)</v>
@@ -4582,7 +4582,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L108" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>KESİN ASKIDAN İNDİ. BEKLEMEDE</v>
       </c>
       <c r="M108" t="str">
         <v>[x] 21.10.2025 komisyon yapılacak(Lokman)</v>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4064,7 +4064,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L96" t="str">
-        <v>KESİN ASKIDAN İNDİ. BEKLEMEDE</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="97">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF01B3E0-CA2B-4FE2-963F-4EEE77609844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BB94D0-BCF4-4615-8961-1ACC8BBB2F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="800">
   <si>
     <t>Tamamlandı</t>
   </si>
@@ -2933,7 +2933,7 @@
   <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="H188" sqref="H188"/>
+      <selection activeCell="K179" sqref="K179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9815,6 +9815,9 @@
       </c>
       <c r="H181">
         <v>30</v>
+      </c>
+      <c r="I181" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4150,7 +4150,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>HAYIR</v>
+        <v>EVET</v>
       </c>
       <c r="B99" t="str">
         <v>Toroslar</v>
@@ -4183,7 +4183,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L99" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>KESİN ASKIDAN İNDİ. BEKLEMEDE</v>
       </c>
     </row>
     <row r="100" xml:space="preserve">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -825,7 +825,7 @@
         <v/>
       </c>
       <c r="L11" t="str">
-        <v>ARAZİ DEVAM EDİYOR</v>
+        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
     </row>
     <row r="12">
@@ -863,7 +863,7 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>ARAZİ DEVAM EDİYOR</v>
+        <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
     </row>
     <row r="13">
@@ -1395,7 +1395,7 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>ARAZİ DEVAM EDİYOR</v>
+        <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
     </row>
     <row r="27">
@@ -1471,7 +1471,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>ARAZİ DEVAM EDİYOR</v>
+        <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
     </row>
     <row r="29">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -1055,6 +1055,9 @@
       <c r="L17" t="str">
         <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
       </c>
+      <c r="M17" t="str">
+        <v>10.02.2026 Araziye 11.02 de gidilecek</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -1015,7 +1015,10 @@
         <v/>
       </c>
       <c r="L16" t="str">
-        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
+        <v>ARAZİ DEVAM EDİYOR</v>
+      </c>
+      <c r="M16" t="str">
+        <v>10.02.2026 Araziye 12.02 de gidilecek</v>
       </c>
     </row>
     <row r="17">
@@ -1053,7 +1056,7 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
+        <v>ARAZİ DEVAM EDİYOR</v>
       </c>
       <c r="M17" t="str">
         <v>10.02.2026 Araziye 11.02 de gidilecek</v>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4714,7 +4714,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L111" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M111" t="str" xml:space="preserve">
         <v xml:space="preserve">24.10.2025 firmaya teslim edilecek_x000d_
@@ -9333,13 +9333,13 @@
         <v>Yapıldı</v>
       </c>
       <c r="K18" t="str">
-        <v>Firmaya Teslim Edildi</v>
+        <v>Yapıldı</v>
       </c>
       <c r="L18" t="str">
         <v/>
       </c>
       <c r="M18" t="str">
-        <v/>
+        <v>2026-02-12</v>
       </c>
       <c r="N18" t="str">
         <v/>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4323,7 +4323,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L102" t="str">
-        <v>FİRMAYA TESLİM EDİLDİ</v>
+        <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M102" t="str" xml:space="preserve">
         <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d_
@@ -4851,15 +4851,16 @@
         <v>2025-05-23</v>
       </c>
       <c r="L114" t="str">
-        <v>KROKİ/TUTANAK KONTROLÜ</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
       <c r="M114" t="str" xml:space="preserve">
-        <v xml:space="preserve">14.11.2025 firmaya teslim edilecek_x000d_
-02.12.2025 araziye çıkılacak_x000d_
-15.12.2025 Kısmi arazi kontrolü yapılıp firmaya teslim edilecek(22.12.2025)_x000d_
-02.01.2026 Firmaya 05.01.2026 teslim edilecek_x000d_
-15.01.2026 Kroki kontrolünde_x000d_
-31.01.2026 Kroki müh. kontrolünde</v>
+        <v xml:space="preserve">14.11.2025 firmaya teslim edilecek
+02.12.2025 araziye çıkılacak
+15.12.2025 Kısmi arazi kontrolü yapılıp firmaya teslim edilecek(22.12.2025)
+02.01.2026 Firmaya 05.01.2026 teslim edilecek
+15.01.2026 Kroki kontrolünde
+31.01.2026 Kroki müh. kontrolünde
+11.02.2026 Askı imzalanıyor cuma asılacak</v>
       </c>
     </row>
     <row r="115" xml:space="preserve">
@@ -4948,13 +4949,14 @@
         <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M116" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d_
-05.11.2025 kontroller devam ediyor_x000d_
-13.11.2025 Firmaya 28.11.2025 teslim edilecek_x000d_
-02.12.2025 Firmaya 05.12.2025 teslim edilecek_x000d_
-15.12.2025 Değerlendirme devam ediyor_x000d_
-02.01.2026 Firmaya 15.01.2026 Teslim edilecek_x000d_
-31.01.2026 firma projeyi hazırlıyor 16.02.2026 tamamlayacak</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+05.11.2025 kontroller devam ediyor
+13.11.2025 Firmaya 28.11.2025 teslim edilecek
+02.12.2025 Firmaya 05.12.2025 teslim edilecek
+15.12.2025 Değerlendirme devam ediyor
+02.01.2026 Firmaya 15.01.2026 Teslim edilecek
+31.01.2026 firma projeyi hazırlıyor 16.02.2026 tamamlayacak
+11.02.2026 krokileri firma hazırlıyor</v>
       </c>
     </row>
     <row r="117" xml:space="preserve">
@@ -5045,17 +5047,18 @@
         <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M118" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d_
-05.11.2025 kontroller devam ediyor_x000d_
-31.01.2026 firma kroki hazırlıyor_x000d_
-10.11.2025 Değerlendrime 13.11.2025 de bitecek_x000d_
-13.11.2025 Firmaya 17-21 haftası teslim edilecek_x000d_
-20.11.2025 firmaya 24.11.2025 de teslim edilecek_x000d_
-02.12.2025 bugün firmaya teslim edilecek_x000d_
-15.12.2025 Proje hazırlanıyor_x000d_
-22.12.2025 Proje 25.12.2025 biticek, krokiler 30.12.2025 verilecek_x000d_
-02.01.2026 Firma projeyi hazırlıyor _x000d_
-15.01.2026 kroki hazırlanıyor</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+05.11.2025 kontroller devam ediyor
+31.01.2026 firma kroki hazırlıyor
+10.11.2025 Değerlendrime 13.11.2025 de bitecek
+13.11.2025 Firmaya 17-21 haftası teslim edilecek
+20.11.2025 firmaya 24.11.2025 de teslim edilecek
+02.12.2025 bugün firmaya teslim edilecek
+15.12.2025 Proje hazırlanıyor
+22.12.2025 Proje 25.12.2025 biticek, krokiler 30.12.2025 verilecek
+02.01.2026 Firma projeyi hazırlıyor 
+15.01.2026 kroki hazırlanıyor
+11.02.2026 Kroki kontrolü yapılıyor. Tutanak basılacak 16-20.02 askı</v>
       </c>
     </row>
     <row r="119" xml:space="preserve">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -7784,7 +7784,7 @@
         <v/>
       </c>
       <c r="L189" t="str">
-        <v>ÇALIŞMA PROGRAMINA ALINDI</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="190">
@@ -7822,7 +7822,7 @@
         <v/>
       </c>
       <c r="L190" t="str">
-        <v>ÇALIŞMA PROGRAMINA ALINDI</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="191">
@@ -7860,7 +7860,7 @@
         <v/>
       </c>
       <c r="L191" t="str">
-        <v>ÇALIŞMA PROGRAMINA ALINDI</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="192">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -2807,7 +2807,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L63" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="64">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4851,7 +4851,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L114" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M114" t="str" xml:space="preserve">
         <v xml:space="preserve">14.11.2025 firmaya teslim edilecek
@@ -9477,13 +9477,13 @@
         <v>Yapıldı</v>
       </c>
       <c r="K21" t="str">
-        <v>Firmaya Teslim Edildi</v>
+        <v>Yapıldı</v>
       </c>
       <c r="L21" t="str">
         <v/>
       </c>
       <c r="M21" t="str">
-        <v/>
+        <v>2026-02-17</v>
       </c>
       <c r="N21" t="str">
         <v/>

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -2655,7 +2655,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L59" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="60">
@@ -3117,7 +3117,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L71" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="72">
@@ -3193,7 +3193,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L73" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="74">
@@ -3231,7 +3231,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L74" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="75">
@@ -3269,7 +3269,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L75" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="76">
@@ -3842,7 +3842,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L90" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="91">
@@ -3918,7 +3918,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L92" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="93">
@@ -3956,7 +3956,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L93" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="94">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -3307,7 +3307,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L76" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="77">
@@ -3383,7 +3383,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L78" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="79">
@@ -3421,7 +3421,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L79" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="80">
@@ -3459,7 +3459,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L80" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="81">
@@ -3538,7 +3538,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L82" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="83">
@@ -3576,7 +3576,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L83" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="84">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4898,7 +4898,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L115" t="str">
-        <v>FİRMAYA TESLİM EDİLDİ</v>
+        <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M115" t="str" xml:space="preserve">
         <v xml:space="preserve">Kıymetlendirmede eksiklikler var firma tamamlayacak bu hafta(20.10.2025)_x000d_
@@ -4946,7 +4946,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L116" t="str">
-        <v>FİRMAYA TESLİM EDİLDİ</v>
+        <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M116" t="str" xml:space="preserve">
         <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
@@ -4994,7 +4994,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L117" t="str">
-        <v>KROKİ/TUTANAK KONTROLÜ</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
       <c r="M117" t="str" xml:space="preserve">
         <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d_
@@ -5044,7 +5044,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L118" t="str">
-        <v>FİRMAYA TESLİM EDİLDİ</v>
+        <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M118" t="str" xml:space="preserve">
         <v xml:space="preserve">01.11.2025 firmaya teslim edilecek

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -1705,7 +1705,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L34" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="35">
@@ -1781,7 +1781,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L36" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="37">
@@ -1819,7 +1819,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L37" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="38">
@@ -1857,7 +1857,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L38" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="39">
@@ -1895,7 +1895,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L39" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="40">
@@ -2009,7 +2009,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L42" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="43">
@@ -2085,7 +2085,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L44" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="45">
@@ -2123,7 +2123,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L45" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="46">
@@ -2161,7 +2161,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L46" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="47">
@@ -2199,7 +2199,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L47" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="48">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -863,7 +863,7 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>KROKİ/TUTANAK KONTROLÜ</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
     </row>
     <row r="13">
@@ -1325,7 +1325,7 @@
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>ÇALIŞMA ALANI İLANI YAPILDI</v>
+        <v>ARAZİ DEVAM EDİYOR</v>
       </c>
     </row>
     <row r="25">
@@ -1401,7 +1401,7 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>KROKİ/TUTANAK KONTROLÜ</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
     </row>
     <row r="27">
@@ -1477,7 +1477,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>KROKİ/TUTANAK KONTROLÜ</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
     </row>
     <row r="29">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -597,7 +597,7 @@
         <v>2025-10-29</v>
       </c>
       <c r="L5" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="6">
@@ -635,7 +635,7 @@
         <v>2025-10-29</v>
       </c>
       <c r="L6" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +711,7 @@
         <v>2025-10-29</v>
       </c>
       <c r="L8" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="9">
@@ -749,7 +749,7 @@
         <v>2025-10-29</v>
       </c>
       <c r="L9" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="10">
@@ -787,7 +787,7 @@
         <v>2025-10-29</v>
       </c>
       <c r="L10" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="11">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -1971,7 +1971,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L41" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="42">
@@ -2047,7 +2047,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L43" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="44">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -3690,7 +3690,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L86" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="87">
@@ -3728,7 +3728,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L87" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="88">
@@ -3766,7 +3766,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L88" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="89">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -3614,7 +3614,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L84" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="85">
@@ -3804,7 +3804,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L89" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="90">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -2693,7 +2693,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L60" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="61">
@@ -2769,7 +2769,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L62" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="63">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4032,7 +4032,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L95" t="str">
-        <v>KESİN ASKIDAN İNDİ. BEKLEMEDE</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="96">
@@ -4108,7 +4108,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L97" t="str">
-        <v>KESİN ASKIDAN İNDİ. BEKLEMEDE</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="98" xml:space="preserve">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -9,6 +9,7 @@
     <sheet name="İlçe" sheetId="4" r:id="rId4"/>
     <sheet name="Uygulama" sheetId="5" r:id="rId5"/>
     <sheet name="Liste" sheetId="6" r:id="rId6"/>
+    <sheet name="Komisyon" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -4994,7 +4995,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L117" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M117" t="str" xml:space="preserve">
         <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d_
@@ -9618,13 +9619,13 @@
         <v>Yapıldı</v>
       </c>
       <c r="K24" t="str">
-        <v>Firmaya Teslim Edildi</v>
+        <v>Yapıldı</v>
       </c>
       <c r="L24" t="str">
         <v/>
       </c>
       <c r="M24" t="str">
-        <v/>
+        <v>2026-02-24</v>
       </c>
       <c r="N24" t="str">
         <v/>
@@ -13539,4 +13540,1019 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D26"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>İLÇE</v>
+      </c>
+      <c r="B1" t="str">
+        <v>BİRİM</v>
+      </c>
+      <c r="C1" t="str">
+        <v>KOMİSYON GÖREVLİLERİ</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Akdeniz</v>
+      </c>
+      <c r="B2" t="str">
+        <v>AKDAM</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Akdeniz</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ESENLİ</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Akdeniz</v>
+      </c>
+      <c r="B4" t="str">
+        <v>HEBİLLİ</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B5" t="str">
+        <v>BEKİRALANI</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ÇELEBİLİ</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B7" t="str">
+        <v>DARISEKİSİ</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B8" t="str">
+        <v>DÜĞDÜÖREN</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B9" t="str">
+        <v>EVCİLİ</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B10" t="str">
+        <v>KORUCULAR</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B11" t="str">
+        <v>MUSALI</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B12" t="str">
+        <v>GÖÇÜK</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B13" t="str">
+        <v>KIZILÇUKUR</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B14" t="str">
+        <v>KARAKÜTÜK</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B15" t="str">
+        <v>ESKİŞEHİR</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B16" t="str">
+        <v>KERİMLER</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B17" t="str">
+        <v>TAŞÇILI</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B18" t="str">
+        <v>İNCİRGEDİĞİ</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B19" t="str">
+        <v>KADELLİ</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B20" t="str">
+        <v>CİNKÖY</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B21" t="str">
+        <v>İNKÖY</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Tarsus</v>
+      </c>
+      <c r="B22" t="str">
+        <v>OLUKKOYAĞI</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Mezitli</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BOZÖN</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B24" t="str">
+        <v>BELENKEŞLİK</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B25" t="str">
+        <v>DORUKLU</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B26" t="str">
+        <v>GÖZNE</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B27" t="str">
+        <v>KAŞLI</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B28" t="str">
+        <v>RESULKÖY</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Yenişehir</v>
+      </c>
+      <c r="B29" t="str">
+        <v>EMİRLER</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B30" t="str">
+        <v>AŞAĞIKÜKÜR</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B31" t="str">
+        <v>BOZDOĞAN</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B32" t="str">
+        <v>BOĞUNTU</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B33" t="str">
+        <v>ÇAMLIPINAR</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B34" t="str">
+        <v>ÇAMLIPINARALANI</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B35" t="str">
+        <v>ÇATALOLUK</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ÇUKURABANOZ</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B37" t="str">
+        <v>DEMİRÖREN</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B38" t="str">
+        <v>GÜNGÖREN</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B39" t="str">
+        <v>KALINÖREN</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B40" t="str">
+        <v>KARAÇUKUR</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B41" t="str">
+        <v>KARALARBAHŞİŞ</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B42" t="str">
+        <v>KARAAĞA</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B43" t="str">
+        <v>KORUCUK</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B44" t="str">
+        <v>MALAKLAR</v>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B45" t="str">
+        <v>NASRADDİN</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B46" t="str">
+        <v>ORMANCIK</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ORTAKÖY</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B48" t="str">
+        <v>SUGÖZÜ</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B49" t="str">
+        <v>SARIAĞAÇ</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B50" t="str">
+        <v>SARIDANA</v>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B51" t="str">
+        <v>YUKARIKÜKÜR</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Aydıncık</v>
+      </c>
+      <c r="B52" t="str">
+        <v>HACIBAHATTİN</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B53" t="str">
+        <v>BAHÇEKOYAĞI</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B54" t="str">
+        <v>BEYRELİ</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B55" t="str">
+        <v>ELMAKUZU</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B56" t="str">
+        <v>GÖZCE</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B57" t="str">
+        <v>GÖZSÜZCE</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B58" t="str">
+        <v>KÖMÜRLÜ</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B59" t="str">
+        <v>LENGER</v>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B60" t="str">
+        <v>KIZILCA</v>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B61" t="str">
+        <v>TEKEDÜZÜ</v>
+      </c>
+      <c r="C61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B62" t="str">
+        <v>DEREKÖY</v>
+      </c>
+      <c r="C62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Gülnar</v>
+      </c>
+      <c r="B63" t="str">
+        <v>BÜYÜKECELİ</v>
+      </c>
+      <c r="C63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Gülnar</v>
+      </c>
+      <c r="B64" t="str">
+        <v>ŞEYHÖMER</v>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Gülnar</v>
+      </c>
+      <c r="B65" t="str">
+        <v>ZEYNE(SÜTLÜCE)</v>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B66" t="str">
+        <v>ALTINKUM</v>
+      </c>
+      <c r="C66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B67" t="str">
+        <v>ARKARASI</v>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B68" t="str">
+        <v>ATİK</v>
+      </c>
+      <c r="C68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B69" t="str">
+        <v>BOYNUİNCELİ</v>
+      </c>
+      <c r="C69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B70" t="str">
+        <v>BURUNUCU</v>
+      </c>
+      <c r="C70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B71" t="str">
+        <v>ÇELTİKÇİ</v>
+      </c>
+      <c r="C71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B72" t="str">
+        <v>GÜLÜMPAŞALI</v>
+      </c>
+      <c r="C72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B73" t="str">
+        <v>HIRMANLI</v>
+      </c>
+      <c r="C73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B74" t="str">
+        <v>CILBAYIR</v>
+      </c>
+      <c r="C74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B75" t="str">
+        <v>İMAMUŞAĞI</v>
+      </c>
+      <c r="C75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B76" t="str">
+        <v>KAVAK</v>
+      </c>
+      <c r="C76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B77" t="str">
+        <v>KURTULUŞ</v>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B78" t="str">
+        <v>MARA</v>
+      </c>
+      <c r="C78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B79" t="str">
+        <v>NASRULLAH</v>
+      </c>
+      <c r="C79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B80" t="str">
+        <v>SEYDİLİ</v>
+      </c>
+      <c r="C80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B81" t="str">
+        <v>SÖKÜN</v>
+      </c>
+      <c r="C81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B82" t="str">
+        <v>ULUGÖZ</v>
+      </c>
+      <c r="C82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B83" t="str">
+        <v>YEĞENLİ</v>
+      </c>
+      <c r="C83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Yenişehir</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Turunçlu</v>
+      </c>
+      <c r="C84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Erdemli</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Pınarbaşı</v>
+      </c>
+      <c r="C85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Tırtar</v>
+      </c>
+      <c r="C86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Toroslar</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Arslanköy</v>
+      </c>
+      <c r="C87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Mut</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Hacınuhlu</v>
+      </c>
+      <c r="C88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Silifke</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Kızılisalı</v>
+      </c>
+      <c r="C89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Anamur</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Lale</v>
+      </c>
+      <c r="C90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Bozyazı</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Derebaşı</v>
+      </c>
+      <c r="C91" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C91"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -5097,7 +5097,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L119" t="str">
-        <v>DEĞERLENDİRMEDE</v>
+        <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M119" t="str" xml:space="preserve">
         <v xml:space="preserve">15.12.2025 Değerlendirme devam ediyor_x000d_
@@ -5140,7 +5140,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L120" t="str">
-        <v>DEĞERLENDİRMEDE</v>
+        <v>İHALEDEN/PROGRAMDAN ÇIKARILDI</v>
       </c>
       <c r="M120" t="str" xml:space="preserve">
         <v xml:space="preserve">14.11.2025 firmaya teslim edilecek_x000d__x000d__x000d__x000d__x000d__x000d_

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -864,7 +864,7 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="13">
@@ -1402,7 +1402,7 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="27">
@@ -1478,7 +1478,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>ASKI İLANINA HAZIRLANIYOR</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="29">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4150,9 +4150,10 @@
         <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M98" t="str" xml:space="preserve">
-        <v xml:space="preserve">Ormancı kontrolünde(13.10.2025)_x000d__x000d_
-GM OLUR'u beklenecek_x000d__x000d_
-31.01.2026 kroki basılıyor</v>
+        <v xml:space="preserve">Ormancı kontrolünde(13.10.2025)
+GM OLUR'u beklenecek
+31.01.2026 kroki basılıyor
+KROKİ/TUTANAK KONTROLLERİ TAMAMLANIP 02.03.2026 İLAN YAPILACAK</v>
       </c>
     </row>
     <row r="99">
@@ -4231,21 +4232,15 @@
         <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M100" t="str" xml:space="preserve">
-        <v xml:space="preserve">15.10.2025 Projesine başlanılacak(Ormancı kontrolünde)_x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d_
-01.11.2025 kroki basılacak_x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d_
-10.11.2025 Kroki kontrol için 11.11.2025 de verilecek. 14.11.2025 de firmaya teslim edilecek_x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d_
-02.12.025 tutanaklarına başlanılacak_x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d_
-16.12.2025 tutanaklarına başlanılacak_x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d_
-22.12.2025 tutanaklarına başlanılacak_x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d_
-06.01.2026 Askı yapılacak_x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d_
-19.01.2026 askı yapılacak</v>
+        <v xml:space="preserve">15.10.2025 Projesine başlanılacak(Ormancı kontrolünde)
+01.11.2025 kroki basılacak
+10.11.2025 Kroki kontrol için 11.11.2025 de verilecek. 14.11.2025 de firmaya teslim edilecek
+02.12.025 tutanaklarına başlanılacak
+16.12.2025 tutanaklarına başlanılacak
+22.12.2025 tutanaklarına başlanılacak
+06.01.2026 Askı yapılacak
+19.01.2026 askı yapılacak
+KOMİSYON TAMAMLANIP 25.02.2026 KESİN ASKIYA ÇIKACAK</v>
       </c>
     </row>
     <row r="101">
@@ -4327,18 +4322,19 @@
         <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M102" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d__x000d_
-07.11.2025 ormanı bakıp teslim edecek_x000d__x000d_
-10.11.2025 kontrol edilip firmaya teslim edilecek_x000d__x000d_
-10.11.2025 Ormancı 11.11.2025 teslim edecek_x000d__x000d_
-13.11.2025 Ormancı 17.11.2025 teslim edecek_x000d__x000d_
-20.11.2025 orman mükerrerliği ile ilgili beyanname düzenlendi tescili bekleniyor_x000d__x000d_
-02.12.2025 Krokilerine başlanıldı_x000d__x000d_
-15.12.2025 Proje hazırlanıyor_x000d__x000d_
-22.12.2025 Proje hazırlanıyor _x000d__x000d_
-05.01.2026 KROKİLERE BAŞLANACAK_x000d__x000d_
-15.01.2026 Devam ediyor firma_x000d__x000d_
-31.01.2026 Personel kontrolünde 09-13.02 askı ilanı yapılacak</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+07.11.2025 ormanı bakıp teslim edecek
+10.11.2025 kontrol edilip firmaya teslim edilecek
+10.11.2025 Ormancı 11.11.2025 teslim edecek
+13.11.2025 Ormancı 17.11.2025 teslim edecek
+20.11.2025 orman mükerrerliği ile ilgili beyanname düzenlendi tescili bekleniyor
+02.12.2025 Krokilerine başlanıldı
+15.12.2025 Proje hazırlanıyor
+22.12.2025 Proje hazırlanıyor 
+05.01.2026 KROKİLERE BAŞLANACAK
+15.01.2026 Devam ediyor firma
+31.01.2026 Personel kontrolünde 09-13.02 askı ilanı yapılacak
+26.02.2026 BİLGİLENDİRME İLANI YAPILACAK</v>
       </c>
     </row>
     <row r="103">
@@ -4496,16 +4492,17 @@
         <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M106" t="str" xml:space="preserve">
-        <v xml:space="preserve">03.11.2025 firmaya teslim edilecek_x000d__x000d_
-05.11.2025 kontroller devam ediyor 10.11.2025 bazı yerlerin arazi kontrolleri yapılacak_x000d__x000d_
-13.11.2025 arazi kontrolü 18.11.2025 de yapılıp, 21.11.2025 de firmaya teslim edilecek_x000d__x000d_
-20.11.2025 arazi kontrolü yapılıyor 24.11.2025 de firmaya teslim edilecek_x000d__x000d_
-02.12.2025 krokileri hazırlanıyor_x000d__x000d_
-15.12.2025 Krokileri basılıyor_x000d__x000d_
-22.12.2025 Kroki kontrolü 25.12.2025 biticek_x000d__x000d_
-02.01.2026 Tutanaklarına başlanıldı_x000d__x000d_
-15.01.2026 TEMUR beyin kontrolünde_x000d__x000d_
-31.01.2026 03.02 askı yapılacak</v>
+        <v xml:space="preserve">03.11.2025 firmaya teslim edilecek
+05.11.2025 kontroller devam ediyor 10.11.2025 bazı yerlerin arazi kontrolleri yapılacak
+13.11.2025 arazi kontrolü 18.11.2025 de yapılıp, 21.11.2025 de firmaya teslim edilecek
+20.11.2025 arazi kontrolü yapılıyor 24.11.2025 de firmaya teslim edilecek
+02.12.2025 krokileri hazırlanıyor
+15.12.2025 Krokileri basılıyor
+22.12.2025 Kroki kontrolü 25.12.2025 biticek
+02.01.2026 Tutanaklarına başlanıldı
+15.01.2026 TEMUR beyin kontrolünde
+31.01.2026 03.02 askı yapılacak
+BİLGİLENDİRME İLANINDA. KOMİSYON 26-27.02 YAPILIP KESİN ASKIYA 04.03 ÇIKILACAK</v>
       </c>
     </row>
     <row r="107" xml:space="preserve">
@@ -4546,12 +4543,13 @@
         <v>KESİN ASKIDA</v>
       </c>
       <c r="M107" t="str" xml:space="preserve">
-        <v xml:space="preserve">16.10.2025 firmaya teslim edilecek_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-26.10.2025 tutanak yazılacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-05.11.2025 kad. üyesinde tutanak notları düzenlemesi devam ettiğinden tutanaklara geçilemedi_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-10.11.2025 Tutanak 12.11.2025 de basılacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-13.11.2025 Tutanak imzaya 15-16.11.2025 de götürülecek_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-20.11.2025 24.11.2025 askıya çıkacak(tutanak kontrolü)</v>
+        <v xml:space="preserve">16.10.2025 firmaya teslim edilecek
+26.10.2025 tutanak yazılacak
+05.11.2025 kad. üyesinde tutanak notları düzenlemesi devam ettiğinden tutanaklara geçilemedi
+10.11.2025 Tutanak 12.11.2025 de basılacak
+13.11.2025 Tutanak imzaya 15-16.11.2025 de götürülecek
+20.11.2025 24.11.2025 askıya çıkacak(tutanak kontrolü)
+KOMİSYON TAMAMLANIP 23.02.2026 KESİN ASKIYA ÇIKACAK</v>
       </c>
     </row>
     <row r="108">
@@ -4671,13 +4669,14 @@
         <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M110" t="str" xml:space="preserve">
-        <v xml:space="preserve">16.10.2025 Taşçılı tutanak Kadastro Üyesine teslim edilecek._x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-28.10.2025 tutanak firmaya verilecek_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-30.10.2025 askıya çıkacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-30.10.2025 tutanak firmaya teslim edildi, hatalıların düzeltmesi devam ediyor_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-10.11.2025 Tutanak imzaya 12.11.2025 de götürülecek_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-13.11.2025 Askıya 18.11.2025 de çıkacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-20.11.2025 Askıya 24.11.2025 de çıkacak</v>
+        <v xml:space="preserve">16.10.2025 Taşçılı tutanak Kadastro Üyesine teslim edilecek.
+28.10.2025 tutanak firmaya verilecek
+30.10.2025 askıya çıkacak
+30.10.2025 tutanak firmaya teslim edildi, hatalıların düzeltmesi devam ediyor
+10.11.2025 Tutanak imzaya 12.11.2025 de götürülecek
+13.11.2025 Askıya 18.11.2025 de çıkacak
+20.11.2025 Askıya 24.11.2025 de çıkacak
+KOMİSYON TAMAMLANIP 25.02.2026 KESİN ASKIYA ÇIKACAK</v>
       </c>
     </row>
     <row r="111" xml:space="preserve">
@@ -4718,16 +4717,17 @@
         <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M111" t="str" xml:space="preserve">
-        <v xml:space="preserve">24.10.2025 firmaya teslim edilecek_x000d__x000d_
-28.10.2025 firmaya teslim edilecek_x000d__x000d_
-03.11.2025 ormancı kontrolünde_x000d__x000d_
-20.11.2025 ormancı kontrolünde_x000d__x000d_
-02.12.2025 Firmaya teslim edildi_x000d__x000d_
-15.12.2025 Proje hazırlanıyor_x000d__x000d_
-22.12.2025 Kroki hazırlanıyor. 26.12.205 de biticek_x000d__x000d_
-02.01.2026 Kroki kontrolüne 05.01.2026 başlanıp 08.01.2026 bitip tutanağa geçilecek _x000d__x000d_
-15.01.2026 Tutanak başlanılacak_x000d__x000d_
-31.01.2026 imza aşamasında haftaiçi askı yapılacak</v>
+        <v xml:space="preserve">24.10.2025 firmaya teslim edilecek
+28.10.2025 firmaya teslim edilecek
+03.11.2025 ormancı kontrolünde
+20.11.2025 ormancı kontrolünde
+02.12.2025 Firmaya teslim edildi
+15.12.2025 Proje hazırlanıyor
+22.12.2025 Kroki hazırlanıyor. 26.12.205 de biticek
+02.01.2026 Kroki kontrolüne 05.01.2026 başlanıp 08.01.2026 bitip tutanağa geçilecek 
+15.01.2026 Tutanak başlanılacak
+31.01.2026 imza aşamasında haftaiçi askı yapılacak
+BİLGİLENDİRME İLANINDA. KOMİSYON 03-04.03 YAPILIP KESİN ASKIYA 09.03 ÇIKILACAK</v>
       </c>
     </row>
     <row r="112">
@@ -4855,13 +4855,14 @@
         <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M114" t="str" xml:space="preserve">
-        <v xml:space="preserve">14.11.2025 firmaya teslim edilecek_x000d_
-02.12.2025 araziye çıkılacak_x000d_
-15.12.2025 Kısmi arazi kontrolü yapılıp firmaya teslim edilecek(22.12.2025)_x000d_
-02.01.2026 Firmaya 05.01.2026 teslim edilecek_x000d_
-15.01.2026 Kroki kontrolünde_x000d_
-31.01.2026 Kroki müh. kontrolünde_x000d_
-11.02.2026 Askı imzalanıyor cuma asılacak</v>
+        <v xml:space="preserve">14.11.2025 firmaya teslim edilecek
+02.12.2025 araziye çıkılacak
+15.12.2025 Kısmi arazi kontrolü yapılıp firmaya teslim edilecek(22.12.2025)
+02.01.2026 Firmaya 05.01.2026 teslim edilecek
+15.01.2026 Kroki kontrolünde
+31.01.2026 Kroki müh. kontrolünde
+11.02.2026 Askı imzalanıyor cuma asılacak
+BİLGİLENDİRME İLANINDA. KOMİSYON 05-06.03 YAPILIP KESİN ASKIYA 11.03 ÇIKILACAK</v>
       </c>
     </row>
     <row r="115" xml:space="preserve">
@@ -4902,14 +4903,15 @@
         <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M115" t="str" xml:space="preserve">
-        <v xml:space="preserve">Kıymetlendirmede eksiklikler var firma tamamlayacak bu hafta(20.10.2025)_x000d__x000d_
-05.11.2025 eksik uçuşlar teslim edildi_x000d__x000d_
-10.11.2025 kıymetlendirmeler kontrol ediliyor_x000d__x000d_
-13.11.2025 Firmaya 28.11.2025 de teslim edilecek_x000d__x000d_
-15.12.2025 Değerlendirme devam ediyor_x000d__x000d_
-22.12.2025 Kısmi uçuş yapıldı kıymetlendirme yapılıyor aynı zamanda değerlendirme devam ediyor_x000d__x000d_
-02.01.2026 Değerlendirme 15.01.2026 biticek_x000d__x000d_
-31.01.2026 firma projeyi hazırlıyor 16.02.2026 tamamlayacak</v>
+        <v xml:space="preserve">Kıymetlendirmede eksiklikler var firma tamamlayacak bu hafta(20.10.2025)
+05.11.2025 eksik uçuşlar teslim edildi
+10.11.2025 kıymetlendirmeler kontrol ediliyor
+13.11.2025 Firmaya 28.11.2025 de teslim edilecek
+15.12.2025 Değerlendirme devam ediyor
+22.12.2025 Kısmi uçuş yapıldı kıymetlendirme yapılıyor aynı zamanda değerlendirme devam ediyor
+02.01.2026 Değerlendirme 15.01.2026 biticek
+31.01.2026 firma projeyi hazırlıyor 16.02.2026 tamamlayacak
+KROKİ/TUTANAK KONTROLLERİ TAMAMLANIP 03.03.2026 İLAN YAPILACAK</v>
       </c>
     </row>
     <row r="116" xml:space="preserve">
@@ -4950,14 +4952,15 @@
         <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M116" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d_
-05.11.2025 kontroller devam ediyor_x000d_
-13.11.2025 Firmaya 28.11.2025 teslim edilecek_x000d_
-02.12.2025 Firmaya 05.12.2025 teslim edilecek_x000d_
-15.12.2025 Değerlendirme devam ediyor_x000d_
-02.01.2026 Firmaya 15.01.2026 Teslim edilecek_x000d_
-31.01.2026 firma projeyi hazırlıyor 16.02.2026 tamamlayacak_x000d_
-11.02.2026 krokileri firma hazırlıyor</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+05.11.2025 kontroller devam ediyor
+13.11.2025 Firmaya 28.11.2025 teslim edilecek
+02.12.2025 Firmaya 05.12.2025 teslim edilecek
+15.12.2025 Değerlendirme devam ediyor
+02.01.2026 Firmaya 15.01.2026 Teslim edilecek
+31.01.2026 firma projeyi hazırlıyor 16.02.2026 tamamlayacak
+11.02.2026 krokileri firma hazırlıyor
+KROKİ/TUTANAK KONTROLLERİ 23.02 TAMAMLANIP 03.03.2026 İLAN YAPILACAK</v>
       </c>
     </row>
     <row r="117" xml:space="preserve">
@@ -4998,16 +5001,17 @@
         <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M117" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d__x000d_
-07.11.2025 firmaya teslim edilecek_x000d__x000d_
-10.11.2025 Firmaya 12.11.2025 de teslim edilecek_x000d__x000d_
-13.11.2025 Firmaya 14.11.2025 de teslim edilecek_x000d__x000d_
-20.11.2025 krokilere 22.11.2025 de başlanarak 24.11.2025 kontrol için verilecek_x000d__x000d_
-02.12.2025 Krokiler hazırlanıp kontrolleri yapılıyor_x000d__x000d_
-15.12.2025 Kroki kontrolü devam ediyor_x000d__x000d_
-22.12.2025 krokiler 24.12.2025 de bitecek_x000d__x000d_
-15.01.2026 Tutanak kontrolü devam ediyor_x000d__x000d_
-31.01.2026 09-13.02 askı ilanı yapılacak</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+07.11.2025 firmaya teslim edilecek
+10.11.2025 Firmaya 12.11.2025 de teslim edilecek
+13.11.2025 Firmaya 14.11.2025 de teslim edilecek
+20.11.2025 krokilere 22.11.2025 de başlanarak 24.11.2025 kontrol için verilecek
+02.12.2025 Krokiler hazırlanıp kontrolleri yapılıyor
+15.12.2025 Kroki kontrolü devam ediyor
+22.12.2025 krokiler 24.12.2025 de bitecek
+15.01.2026 Tutanak kontrolü devam ediyor
+31.01.2026 09-13.02 askı ilanı yapılacak
+23.02.2026 BİLGİLENDİRME İLANI YAPILACAK</v>
       </c>
     </row>
     <row r="118" xml:space="preserve">
@@ -5048,18 +5052,19 @@
         <v>KROKİ/TUTANAK KONTROLÜ</v>
       </c>
       <c r="M118" t="str" xml:space="preserve">
-        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek_x000d_
-05.11.2025 kontroller devam ediyor_x000d_
-31.01.2026 firma kroki hazırlıyor_x000d_
-10.11.2025 Değerlendrime 13.11.2025 de bitecek_x000d_
-13.11.2025 Firmaya 17-21 haftası teslim edilecek_x000d_
-20.11.2025 firmaya 24.11.2025 de teslim edilecek_x000d_
-02.12.2025 bugün firmaya teslim edilecek_x000d_
-15.12.2025 Proje hazırlanıyor_x000d_
-22.12.2025 Proje 25.12.2025 biticek, krokiler 30.12.2025 verilecek_x000d_
-02.01.2026 Firma projeyi hazırlıyor _x000d_
-15.01.2026 kroki hazırlanıyor_x000d_
-11.02.2026 Kroki kontrolü yapılıyor. Tutanak basılacak 16-20.02 askı</v>
+        <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
+05.11.2025 kontroller devam ediyor
+31.01.2026 firma kroki hazırlıyor
+10.11.2025 Değerlendrime 13.11.2025 de bitecek
+13.11.2025 Firmaya 17-21 haftası teslim edilecek
+20.11.2025 firmaya 24.11.2025 de teslim edilecek
+02.12.2025 bugün firmaya teslim edilecek
+15.12.2025 Proje hazırlanıyor
+22.12.2025 Proje 25.12.2025 biticek, krokiler 30.12.2025 verilecek
+02.01.2026 Firma projeyi hazırlıyor 
+15.01.2026 kroki hazırlanıyor
+11.02.2026 Kroki kontrolü yapılıyor. Tutanak basılacak 16-20.02 askı
+KROKİ/TUTANAK KONTROLLERİ 23.02 TAMAMLANIP 25.02.2026 İLAN YAPILACAK</v>
       </c>
     </row>
     <row r="119" xml:space="preserve">
@@ -5100,9 +5105,10 @@
         <v>FİRMAYA TESLİM EDİLDİ</v>
       </c>
       <c r="M119" t="str" xml:space="preserve">
-        <v xml:space="preserve">15.12.2025 Değerlendirme devam ediyor_x000d__x000d_
-22.12.2025 Arazi uçuş yapılacak yerler var. Değerlendirme devam ediyor._x000d__x000d_
-31.01.2026 Haftaiçi ormancı ve arazi kontrolü sonrası haftasonu firma kroki çalışmalarına başlayacak</v>
+        <v xml:space="preserve">15.12.2025 Değerlendirme devam ediyor
+22.12.2025 Arazi uçuş yapılacak yerler var. Değerlendirme devam ediyor.
+31.01.2026 Haftaiçi ormancı ve arazi kontrolü sonrası haftasonu firma kroki çalışmalarına başlayacak
+KROKİLER BİR KISMI 27.02.2026 TESLİM EDİLECEK. KALAN KISMLAR İLE BİRLİKTE KONTROLLERİ 06.03.2026 YA KADAR TAMAMLANACAK. TUTANAKLAR 10.03 TARİHE KADAR BASILARAK 13.03 KONTROL BİTİCEK.                                                                                                                                                                                                                       16.03.2026 İLAN YAPILACAK</v>
       </c>
     </row>
     <row r="120" xml:space="preserve">
@@ -5143,10 +5149,11 @@
         <v>İHALEDEN/PROGRAMDAN ÇIKARILDI</v>
       </c>
       <c r="M120" t="str" xml:space="preserve">
-        <v xml:space="preserve">14.11.2025 firmaya teslim edilecek_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-12.11.2025 Parsel sayısı OLUR için yazıldı_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-02.12.2025 bu hafta teslim edilecek_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-15.12.2025 GM Rapor hazırlanıyor</v>
+        <v xml:space="preserve">14.11.2025 firmaya teslim edilecek
+12.11.2025 Parsel sayısı OLUR için yazıldı
+02.12.2025 bu hafta teslim edilecek
+15.12.2025 GM Rapor hazırlanıyor
+İHALEDEN ÇIKARILACAK</v>
       </c>
     </row>
     <row r="121" xml:space="preserve">
@@ -5187,14 +5194,15 @@
         <v>BİLGİLENDİRME İLANINDA</v>
       </c>
       <c r="M121" t="str" xml:space="preserve">
-        <v xml:space="preserve">17.10.2025 firmaya teslim edilecek_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-22.10.2025 krokiler basılacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-28.10.2025 krokiler basılacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-04.11.2025 krokiler basılıp kontrole verildi_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-10.11.2025 Tutanaklar 13.11.2025 imzaya götürülecek_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-13.11.2025 Tutanaklar basılacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-20.11.2025 25.11.2025 askıya çıkacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-02.12.2025 Askıya çıkacak</v>
+        <v xml:space="preserve">17.10.2025 firmaya teslim edilecek
+22.10.2025 krokiler basılacak
+28.10.2025 krokiler basılacak
+04.11.2025 krokiler basılıp kontrole verildi
+10.11.2025 Tutanaklar 13.11.2025 imzaya götürülecek
+13.11.2025 Tutanaklar basılacak
+20.11.2025 25.11.2025 askıya çıkacak
+02.12.2025 Askıya çıkacak
+KOMİSYON TAMAMLANIP 27.02.2026 KESİN ASKIYA ÇIKACAK</v>
       </c>
     </row>
     <row r="122" xml:space="preserve">
@@ -5235,11 +5243,12 @@
         <v>KOMİSYON AŞAMASINDA</v>
       </c>
       <c r="M122" t="str" xml:space="preserve">
-        <v xml:space="preserve">17.10.2025 Tutanaklara başlanılacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-03.11.2025 askı yapılacak(1 bilirkişi eksik nedeniyle)_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-10.11.2025 askıya çıkacak_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-10.11.2025 12.11.2025 askıya çıkacak(Tutanak kontrolü 15.11.2025 de bitip 18.11.2025 askıya çıkacak)_x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-20.11.2025 24.11.2025 askıya çıkacak(ormancıda kontrolde bekliyor)</v>
+        <v xml:space="preserve">17.10.2025 Tutanaklara başlanılacak
+03.11.2025 askı yapılacak(1 bilirkişi eksik nedeniyle)
+10.11.2025 askıya çıkacak
+10.11.2025 12.11.2025 askıya çıkacak(Tutanak kontrolü 15.11.2025 de bitip 18.11.2025 askıya çıkacak)
+20.11.2025 24.11.2025 askıya çıkacak(ormancıda kontrolde bekliyor)
+KOMİSYON TAMAMLANIP 25.02.2026 KESİN ASKIYA ÇIKACAK</v>
       </c>
     </row>
     <row r="123">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4666,7 +4666,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L110" t="str">
-        <v>BİLGİLENDİRME İLANINDA</v>
+        <v>KESİN ASKIDA</v>
       </c>
       <c r="M110" t="str" xml:space="preserve">
         <v xml:space="preserve">16.10.2025 Taşçılı tutanak Kadastro Üyesine teslim edilecek.
@@ -9308,10 +9308,10 @@
         <v>2025-11-27</v>
       </c>
       <c r="N17" t="str">
-        <v/>
+        <v>Yapıldı</v>
       </c>
       <c r="O17" t="str">
-        <v/>
+        <v>2026-02-27</v>
       </c>
     </row>
     <row r="18">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -4319,7 +4319,7 @@
         <v>2025-05-23</v>
       </c>
       <c r="L102" t="str">
-        <v>KROKİ/TUTANAK KONTROLÜ</v>
+        <v>ASKI İLANINA HAZIRLANIYOR</v>
       </c>
       <c r="M102" t="str" xml:space="preserve">
         <v xml:space="preserve">01.11.2025 firmaya teslim edilecek
@@ -5108,7 +5108,7 @@
         <v xml:space="preserve">15.12.2025 Değerlendirme devam ediyor
 22.12.2025 Arazi uçuş yapılacak yerler var. Değerlendirme devam ediyor.
 31.01.2026 Haftaiçi ormancı ve arazi kontrolü sonrası haftasonu firma kroki çalışmalarına başlayacak
-KROKİLER BİR KISMI 27.02.2026 TESLİM EDİLECEK. KALAN KISMLAR İLE BİRLİKTE KONTROLLERİ 06.03.2026 YA KADAR TAMAMLANACAK. TUTANAKLAR 10.03 TARİHE KADAR BASILARAK 13.03 KONTROL BİTİCEK.                                                                                                                                                                                                                       16.03.2026 İLAN YAPILACAK</v>
+KROKİLER BİR KISMI 27.02.2026 TESLİM EDİLECEK. KALAN KISMLAR İLE BİRLİKTE KONTROLLERİ 06.03.2026 YA KADAR TAMAMLANACAK. TUTANAKLAR 10.03 TARİHE KADAR BASILARAK 13.03 KONTROL BİTİCEK. 16.03.2026 İLAN YAPILACAK</v>
       </c>
     </row>
     <row r="120" xml:space="preserve">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -3346,7 +3346,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L77" t="str">
-        <v>KESİN ASKIDA</v>
+        <v>DEVİR YAPILDI</v>
       </c>
     </row>
     <row r="78">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -3156,7 +3156,7 @@
         <v>2025-10-31</v>
       </c>
       <c r="L72" t="str">
-        <v>TESCİLİ BİTTİ</v>
+        <v>KESİN ASKIDA</v>
       </c>
     </row>
     <row r="73">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -13676,7 +13676,7 @@
         <v>KIZILÇUKUR</v>
       </c>
       <c r="C13" t="str">
-        <v>MEHMET AKGÜN KOLUKIRIK, İSMAİL AKLAN, LOKMAN ALKAN</v>
+        <v>LOKMAN ALKAN, TAHA GÜRKAN, İSMAİL AKLAN</v>
       </c>
     </row>
     <row r="14">
@@ -13797,7 +13797,7 @@
         <v>BELENKEŞLİK</v>
       </c>
       <c r="C24" t="str">
-        <v>CİHAN KARA, İSMAİL AKLAN, LOKMAN ALKAN</v>
+        <v>İSMAİL PEHLİVAN, CİHAN KARA, İSMAİL AKLAN</v>
       </c>
     </row>
     <row r="25">

--- a/istakip.xlsx
+++ b/istakip.xlsx
@@ -8224,8 +8224,8 @@
         <v>İHALEDEN/PROGRAMDAN ÇIKARILDI</v>
       </c>
       <c r="M200" t="str" xml:space="preserve">
-        <v xml:space="preserve">7139 SK çalışmalarında Bilirkişi seçimi yapıldı. Yemin yaptırılacak._x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
-_x000d__x000d__x000d__x000d__x000d__x000d__x000d__x000d_
+        <v xml:space="preserve">7139 SK çalışmalarında Bilirkişi seçimi yapıldı. Yemin yaptırılacak.
+22-a yapılacak
 22-a ihalesine alındı</v>
       </c>
     </row>
